--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\No_EyeTr\PAL\Conditions\Version_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\PAL\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A9389C-3905-47AC-B01B-8E4BDB3F5377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AD5EB2-A641-4B69-8476-33B8F0D81EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$102</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -472,7 +475,7 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,7 +541,7 @@
         <v>15</v>
       </c>
       <c r="I2">
-        <v>2.79</v>
+        <v>5.01</v>
       </c>
       <c r="J2">
         <v>2.31</v>
@@ -573,7 +576,7 @@
         <v>11</v>
       </c>
       <c r="I3">
-        <v>2.2300000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="J3">
         <v>2.3000000000000003</v>
@@ -608,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="I4">
-        <v>2.76</v>
+        <v>4.76</v>
       </c>
       <c r="J4">
         <v>1.17</v>
@@ -643,7 +646,7 @@
         <v>15</v>
       </c>
       <c r="I5">
-        <v>1.58</v>
+        <v>3.58</v>
       </c>
       <c r="J5">
         <v>1.46</v>
@@ -678,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="I6">
-        <v>2.9700000000000006</v>
+        <v>4.9700000000000006</v>
       </c>
       <c r="J6">
         <v>0.97</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="I7">
-        <v>2.3100000000000005</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J7">
         <v>1.99</v>
@@ -748,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="I8">
-        <v>2.9800000000000004</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="J8">
         <v>1.19</v>
@@ -783,7 +786,7 @@
         <v>15</v>
       </c>
       <c r="I9">
-        <v>2.95</v>
+        <v>5.01</v>
       </c>
       <c r="J9">
         <v>1.1299999999999999</v>
@@ -818,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="I10">
-        <v>2.76</v>
+        <v>4.76</v>
       </c>
       <c r="J10">
         <v>1.95</v>
@@ -853,7 +856,7 @@
         <v>15</v>
       </c>
       <c r="I11">
-        <v>2.5700000000000003</v>
+        <v>4.57</v>
       </c>
       <c r="J11">
         <v>2.23</v>
@@ -888,7 +891,7 @@
         <v>15</v>
       </c>
       <c r="I12">
-        <v>1.6600000000000001</v>
+        <v>3.66</v>
       </c>
       <c r="J12">
         <v>1.73</v>
@@ -923,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="I13">
-        <v>2.99</v>
+        <v>4.99</v>
       </c>
       <c r="J13">
         <v>1.78</v>
@@ -958,7 +961,7 @@
         <v>15</v>
       </c>
       <c r="I14">
-        <v>2.95</v>
+        <v>4.95</v>
       </c>
       <c r="J14">
         <v>1.91</v>
@@ -993,7 +996,7 @@
         <v>15</v>
       </c>
       <c r="I15">
-        <v>2.79</v>
+        <v>4.79</v>
       </c>
       <c r="J15">
         <v>2.31</v>
@@ -1028,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="I16">
-        <v>2.96</v>
+        <v>5.01</v>
       </c>
       <c r="J16">
         <v>1.92</v>
@@ -1063,7 +1066,7 @@
         <v>15</v>
       </c>
       <c r="I17">
-        <v>2.0499999999999998</v>
+        <v>4.05</v>
       </c>
       <c r="J17">
         <v>1.9</v>
@@ -1098,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="I18">
-        <v>2.3100000000000005</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J18">
         <v>2.37</v>
@@ -1133,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="I19">
-        <v>2.08</v>
+        <v>4.08</v>
       </c>
       <c r="J19">
         <v>2.25</v>
@@ -1168,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="I20">
-        <v>2.6500000000000004</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="J20">
         <v>1.48</v>
@@ -1203,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="I21">
-        <v>1.52</v>
+        <v>3.52</v>
       </c>
       <c r="J21">
         <v>1.3499999999999999</v>
@@ -1238,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="I22">
-        <v>2.42</v>
+        <v>4.42</v>
       </c>
       <c r="J22">
         <v>1.24</v>
@@ -1273,7 +1276,7 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>2.1099999999999994</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J23">
         <v>2.14</v>
@@ -1308,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>1.6400000000000001</v>
+        <v>3.64</v>
       </c>
       <c r="J24">
         <v>1.69</v>
@@ -1343,7 +1346,7 @@
         <v>11</v>
       </c>
       <c r="I25">
-        <v>2.3599999999999994</v>
+        <v>4.3599999999999994</v>
       </c>
       <c r="J25">
         <v>1.02</v>
@@ -1378,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="I26">
-        <v>2.8</v>
+        <v>5.01</v>
       </c>
       <c r="J26">
         <v>1.28</v>
@@ -1413,7 +1416,7 @@
         <v>11</v>
       </c>
       <c r="I27">
-        <v>2.3599999999999994</v>
+        <v>4.3599999999999994</v>
       </c>
       <c r="J27">
         <v>1.92</v>
@@ -1448,7 +1451,7 @@
         <v>11</v>
       </c>
       <c r="I28">
-        <v>2.4000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J28">
         <v>1.82</v>
@@ -1483,7 +1486,7 @@
         <v>11</v>
       </c>
       <c r="I29">
-        <v>1.98</v>
+        <v>3.98</v>
       </c>
       <c r="J29">
         <v>1.31</v>
@@ -1518,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="I30">
-        <v>1.5699999999999998</v>
+        <v>3.57</v>
       </c>
       <c r="J30">
         <v>1.3399999999999999</v>
@@ -1553,7 +1556,7 @@
         <v>11</v>
       </c>
       <c r="I31">
-        <v>2.99</v>
+        <v>4.99</v>
       </c>
       <c r="J31">
         <v>1.95</v>
@@ -1588,7 +1591,7 @@
         <v>11</v>
       </c>
       <c r="I32">
-        <v>2.0700000000000003</v>
+        <v>4.07</v>
       </c>
       <c r="J32">
         <v>1.69</v>
@@ -1623,7 +1626,7 @@
         <v>11</v>
       </c>
       <c r="I33">
-        <v>2.7200000000000006</v>
+        <v>4.7200000000000006</v>
       </c>
       <c r="J33">
         <v>2.29</v>
@@ -1658,7 +1661,7 @@
         <v>11</v>
       </c>
       <c r="I34">
-        <v>2.6899999999999995</v>
+        <v>4.6899999999999995</v>
       </c>
       <c r="J34">
         <v>1.97</v>
@@ -1693,7 +1696,7 @@
         <v>15</v>
       </c>
       <c r="I35">
-        <v>2.3900000000000006</v>
+        <v>4.3900000000000006</v>
       </c>
       <c r="J35">
         <v>2.16</v>
@@ -1728,7 +1731,7 @@
         <v>11</v>
       </c>
       <c r="I36">
-        <v>2.3100000000000005</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J36">
         <v>2.2600000000000002</v>
@@ -1763,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="I37">
-        <v>2.9000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J37">
         <v>0.97</v>
@@ -1798,7 +1801,7 @@
         <v>11</v>
       </c>
       <c r="I38">
-        <v>1.77</v>
+        <v>3.77</v>
       </c>
       <c r="J38">
         <v>2.2200000000000002</v>
@@ -1833,7 +1836,7 @@
         <v>15</v>
       </c>
       <c r="I39">
-        <v>2.5099999999999998</v>
+        <v>4.51</v>
       </c>
       <c r="J39">
         <v>2.4000000000000004</v>
@@ -1868,7 +1871,7 @@
         <v>15</v>
       </c>
       <c r="I40">
-        <v>1.6800000000000002</v>
+        <v>3.68</v>
       </c>
       <c r="J40">
         <v>1.8699999999999999</v>
@@ -1903,7 +1906,7 @@
         <v>11</v>
       </c>
       <c r="I41">
-        <v>1.58</v>
+        <v>3.58</v>
       </c>
       <c r="J41">
         <v>1.8599999999999999</v>
@@ -1938,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="J42">
         <v>2.1500000000000004</v>
@@ -1973,7 +1976,7 @@
         <v>15</v>
       </c>
       <c r="I43">
-        <v>2.58</v>
+        <v>4.58</v>
       </c>
       <c r="J43">
         <v>1.7</v>
@@ -2008,7 +2011,7 @@
         <v>11</v>
       </c>
       <c r="I44">
-        <v>1.6400000000000001</v>
+        <v>3.64</v>
       </c>
       <c r="J44">
         <v>2.33</v>
@@ -2043,7 +2046,7 @@
         <v>11</v>
       </c>
       <c r="I45">
-        <v>2.2400000000000002</v>
+        <v>4.24</v>
       </c>
       <c r="J45">
         <v>2.3400000000000003</v>
@@ -2078,7 +2081,7 @@
         <v>15</v>
       </c>
       <c r="I46">
-        <v>2.4000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J46">
         <v>2.3600000000000003</v>
@@ -2113,7 +2116,7 @@
         <v>15</v>
       </c>
       <c r="I47">
-        <v>2.63</v>
+        <v>4.63</v>
       </c>
       <c r="J47">
         <v>1.8399999999999999</v>
@@ -2148,7 +2151,7 @@
         <v>15</v>
       </c>
       <c r="I48">
-        <v>1.8599999999999999</v>
+        <v>3.86</v>
       </c>
       <c r="J48">
         <v>2.3400000000000003</v>
@@ -2183,7 +2186,7 @@
         <v>15</v>
       </c>
       <c r="I49">
-        <v>2.2300000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="J49">
         <v>1.66</v>
@@ -2218,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="I50">
-        <v>1.81</v>
+        <v>3.81</v>
       </c>
       <c r="J50">
         <v>1.66</v>
@@ -2253,7 +2256,7 @@
         <v>15</v>
       </c>
       <c r="I51">
-        <v>1.8599999999999999</v>
+        <v>3.86</v>
       </c>
       <c r="J51">
         <v>2.14</v>
@@ -2288,7 +2291,7 @@
         <v>15</v>
       </c>
       <c r="I52">
-        <v>2.92</v>
+        <v>5.01</v>
       </c>
       <c r="J52">
         <v>0.96</v>
@@ -2323,7 +2326,7 @@
         <v>11</v>
       </c>
       <c r="I53">
-        <v>2.83</v>
+        <v>4.83</v>
       </c>
       <c r="J53">
         <v>1.3599999999999999</v>
@@ -2358,7 +2361,7 @@
         <v>15</v>
       </c>
       <c r="I54">
-        <v>2.6099999999999994</v>
+        <v>4.6099999999999994</v>
       </c>
       <c r="J54">
         <v>1.71</v>
@@ -2393,7 +2396,7 @@
         <v>15</v>
       </c>
       <c r="I55">
-        <v>2.1799999999999997</v>
+        <v>4.18</v>
       </c>
       <c r="J55">
         <v>2.06</v>
@@ -2428,7 +2431,7 @@
         <v>15</v>
       </c>
       <c r="I56">
-        <v>2.34</v>
+        <v>4.34</v>
       </c>
       <c r="J56">
         <v>2.4300000000000002</v>
@@ -2463,7 +2466,7 @@
         <v>15</v>
       </c>
       <c r="I57">
-        <v>2.92</v>
+        <v>5.01</v>
       </c>
       <c r="J57">
         <v>2.27</v>
@@ -2498,7 +2501,7 @@
         <v>15</v>
       </c>
       <c r="I58">
-        <v>1.94</v>
+        <v>3.94</v>
       </c>
       <c r="J58">
         <v>1.45</v>
@@ -2533,7 +2536,7 @@
         <v>11</v>
       </c>
       <c r="I59">
-        <v>1.9700000000000002</v>
+        <v>3.97</v>
       </c>
       <c r="J59">
         <v>1.24</v>
@@ -2568,7 +2571,7 @@
         <v>15</v>
       </c>
       <c r="I60">
-        <v>2.9700000000000006</v>
+        <v>5.01</v>
       </c>
       <c r="J60">
         <v>1.51</v>
@@ -2603,7 +2606,7 @@
         <v>15</v>
       </c>
       <c r="I61">
-        <v>1.8599999999999999</v>
+        <v>3.86</v>
       </c>
       <c r="J61">
         <v>1.1299999999999999</v>
@@ -2638,7 +2641,7 @@
         <v>15</v>
       </c>
       <c r="I62">
-        <v>2.3200000000000003</v>
+        <v>4.32</v>
       </c>
       <c r="J62">
         <v>1.46</v>
@@ -2673,7 +2676,7 @@
         <v>15</v>
       </c>
       <c r="I63">
-        <v>2.74</v>
+        <v>5.01</v>
       </c>
       <c r="J63">
         <v>2.1300000000000003</v>
@@ -2708,7 +2711,7 @@
         <v>15</v>
       </c>
       <c r="I64">
-        <v>1.5699999999999998</v>
+        <v>3.57</v>
       </c>
       <c r="J64">
         <v>1.7</v>
@@ -2743,7 +2746,7 @@
         <v>11</v>
       </c>
       <c r="I65">
-        <v>2.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="J65">
         <v>1.51</v>
@@ -2778,7 +2781,7 @@
         <v>11</v>
       </c>
       <c r="I66">
-        <v>2.0499999999999998</v>
+        <v>4.05</v>
       </c>
       <c r="J66">
         <v>0.99</v>
@@ -2813,7 +2816,7 @@
         <v>11</v>
       </c>
       <c r="I67">
-        <v>2.9800000000000004</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="J67">
         <v>1.27</v>
@@ -2848,7 +2851,7 @@
         <v>11</v>
       </c>
       <c r="I68">
-        <v>1.9500000000000002</v>
+        <v>3.95</v>
       </c>
       <c r="J68">
         <v>1.91</v>
@@ -2883,7 +2886,7 @@
         <v>15</v>
       </c>
       <c r="I69">
-        <v>2.79</v>
+        <v>5.01</v>
       </c>
       <c r="J69">
         <v>2.25</v>
@@ -2918,7 +2921,7 @@
         <v>15</v>
       </c>
       <c r="I70">
-        <v>2.13</v>
+        <v>4.13</v>
       </c>
       <c r="J70">
         <v>1.05</v>
@@ -2953,7 +2956,7 @@
         <v>15</v>
       </c>
       <c r="I71">
-        <v>2.12</v>
+        <v>4.12</v>
       </c>
       <c r="J71">
         <v>1.07</v>
@@ -2988,7 +2991,7 @@
         <v>11</v>
       </c>
       <c r="I72">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="J72">
         <v>1.73</v>
@@ -3023,7 +3026,7 @@
         <v>15</v>
       </c>
       <c r="I73">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="J73">
         <v>1.79</v>
@@ -3058,7 +3061,7 @@
         <v>11</v>
       </c>
       <c r="I74">
-        <v>2.13</v>
+        <v>4.13</v>
       </c>
       <c r="J74">
         <v>1.95</v>
@@ -3093,7 +3096,7 @@
         <v>11</v>
       </c>
       <c r="I75">
-        <v>2.2400000000000002</v>
+        <v>4.24</v>
       </c>
       <c r="J75">
         <v>1.56</v>
@@ -3128,7 +3131,7 @@
         <v>11</v>
       </c>
       <c r="I76">
-        <v>1.77</v>
+        <v>3.77</v>
       </c>
       <c r="J76">
         <v>1.68</v>
@@ -3163,7 +3166,7 @@
         <v>11</v>
       </c>
       <c r="I77">
-        <v>2.5999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J77">
         <v>2.0700000000000003</v>
@@ -3198,7 +3201,7 @@
         <v>11</v>
       </c>
       <c r="I78">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="J78">
         <v>1.3</v>
@@ -3233,7 +3236,7 @@
         <v>11</v>
       </c>
       <c r="I79">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="J79">
         <v>2.12</v>
@@ -3268,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="I80">
-        <v>1.8399999999999999</v>
+        <v>3.84</v>
       </c>
       <c r="J80">
         <v>1.91</v>
@@ -3303,7 +3306,7 @@
         <v>15</v>
       </c>
       <c r="I81">
-        <v>1.5899999999999999</v>
+        <v>3.59</v>
       </c>
       <c r="J81">
         <v>1.8</v>
@@ -3338,7 +3341,7 @@
         <v>15</v>
       </c>
       <c r="I82">
-        <v>2.9000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J82">
         <v>0.98</v>
@@ -3373,7 +3376,7 @@
         <v>15</v>
       </c>
       <c r="I83">
-        <v>2.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="J83">
         <v>2.23</v>
@@ -3408,7 +3411,7 @@
         <v>11</v>
       </c>
       <c r="I84">
-        <v>1.9300000000000002</v>
+        <v>3.93</v>
       </c>
       <c r="J84">
         <v>2.37</v>
@@ -3443,7 +3446,7 @@
         <v>15</v>
       </c>
       <c r="I85">
-        <v>2.99</v>
+        <v>4.99</v>
       </c>
       <c r="J85">
         <v>1.03</v>
@@ -3478,7 +3481,7 @@
         <v>11</v>
       </c>
       <c r="I86">
-        <v>2.8200000000000003</v>
+        <v>4.82</v>
       </c>
       <c r="J86">
         <v>2.0700000000000003</v>
@@ -3513,7 +3516,7 @@
         <v>15</v>
       </c>
       <c r="I87">
-        <v>2.88</v>
+        <v>4.88</v>
       </c>
       <c r="J87">
         <v>1.9</v>
@@ -3548,7 +3551,7 @@
         <v>11</v>
       </c>
       <c r="I88">
-        <v>1.73</v>
+        <v>3.73</v>
       </c>
       <c r="J88">
         <v>1.05</v>
@@ -3583,7 +3586,7 @@
         <v>11</v>
       </c>
       <c r="I89">
-        <v>1.63</v>
+        <v>3.63</v>
       </c>
       <c r="J89">
         <v>2.1700000000000004</v>
@@ -3618,7 +3621,7 @@
         <v>15</v>
       </c>
       <c r="I90">
-        <v>1.83</v>
+        <v>3.83</v>
       </c>
       <c r="J90">
         <v>2.4400000000000004</v>
@@ -3653,7 +3656,7 @@
         <v>11</v>
       </c>
       <c r="I91">
-        <v>1.83</v>
+        <v>3.83</v>
       </c>
       <c r="J91">
         <v>1.26</v>
@@ -3688,7 +3691,7 @@
         <v>11</v>
       </c>
       <c r="I92">
-        <v>2.42</v>
+        <v>4.42</v>
       </c>
       <c r="J92">
         <v>2.0500000000000003</v>
@@ -3723,7 +3726,7 @@
         <v>11</v>
       </c>
       <c r="I93">
-        <v>1.77</v>
+        <v>3.77</v>
       </c>
       <c r="J93">
         <v>0.97</v>
@@ -3758,7 +3761,7 @@
         <v>11</v>
       </c>
       <c r="I94">
-        <v>2.21</v>
+        <v>4.21</v>
       </c>
       <c r="J94">
         <v>1.07</v>
@@ -3793,7 +3796,7 @@
         <v>11</v>
       </c>
       <c r="I95">
-        <v>2.1799999999999997</v>
+        <v>4.18</v>
       </c>
       <c r="J95">
         <v>2.14</v>
@@ -3828,7 +3831,7 @@
         <v>11</v>
       </c>
       <c r="I96">
-        <v>2.3100000000000005</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J96">
         <v>1.5799999999999998</v>
@@ -3863,7 +3866,7 @@
         <v>11</v>
       </c>
       <c r="I97">
-        <v>1.6099999999999999</v>
+        <v>3.61</v>
       </c>
       <c r="J97">
         <v>1.67</v>
@@ -3898,7 +3901,7 @@
         <v>11</v>
       </c>
       <c r="I98">
-        <v>2.5299999999999994</v>
+        <v>4.5299999999999994</v>
       </c>
       <c r="J98">
         <v>2.0100000000000002</v>
@@ -3933,7 +3936,7 @@
         <v>11</v>
       </c>
       <c r="I99">
-        <v>1.54</v>
+        <v>3.54</v>
       </c>
       <c r="J99">
         <v>1.42</v>
@@ -3968,7 +3971,7 @@
         <v>11</v>
       </c>
       <c r="I100">
-        <v>2.08</v>
+        <v>4.08</v>
       </c>
       <c r="J100">
         <v>2.04</v>
@@ -4003,7 +4006,7 @@
         <v>11</v>
       </c>
       <c r="I101">
-        <v>2.0299999999999994</v>
+        <v>4.0299999999999994</v>
       </c>
       <c r="J101">
         <v>1.0899999999999999</v>
@@ -4038,7 +4041,7 @@
         <v>15</v>
       </c>
       <c r="I102">
-        <v>1.8199999999999998</v>
+        <v>3.82</v>
       </c>
       <c r="J102">
         <v>2.0900000000000003</v>
@@ -4048,6 +4051,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K102" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
@@ -5,19 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\PAL\Conditions\Version_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\No_EyeTr\PAL\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AD5EB2-A641-4B69-8476-33B8F0D81EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A9389C-3905-47AC-B01B-8E4BDB3F5377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$102</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -475,7 +472,7 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +538,7 @@
         <v>15</v>
       </c>
       <c r="I2">
-        <v>5.01</v>
+        <v>2.79</v>
       </c>
       <c r="J2">
         <v>2.31</v>
@@ -576,7 +573,7 @@
         <v>11</v>
       </c>
       <c r="I3">
-        <v>4.2300000000000004</v>
+        <v>2.2300000000000004</v>
       </c>
       <c r="J3">
         <v>2.3000000000000003</v>
@@ -611,7 +608,7 @@
         <v>15</v>
       </c>
       <c r="I4">
-        <v>4.76</v>
+        <v>2.76</v>
       </c>
       <c r="J4">
         <v>1.17</v>
@@ -646,7 +643,7 @@
         <v>15</v>
       </c>
       <c r="I5">
-        <v>3.58</v>
+        <v>1.58</v>
       </c>
       <c r="J5">
         <v>1.46</v>
@@ -681,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="I6">
-        <v>4.9700000000000006</v>
+        <v>2.9700000000000006</v>
       </c>
       <c r="J6">
         <v>0.97</v>
@@ -716,7 +713,7 @@
         <v>15</v>
       </c>
       <c r="I7">
-        <v>4.3100000000000005</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J7">
         <v>1.99</v>
@@ -751,7 +748,7 @@
         <v>11</v>
       </c>
       <c r="I8">
-        <v>4.9800000000000004</v>
+        <v>2.9800000000000004</v>
       </c>
       <c r="J8">
         <v>1.19</v>
@@ -786,7 +783,7 @@
         <v>15</v>
       </c>
       <c r="I9">
-        <v>5.01</v>
+        <v>2.95</v>
       </c>
       <c r="J9">
         <v>1.1299999999999999</v>
@@ -821,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="I10">
-        <v>4.76</v>
+        <v>2.76</v>
       </c>
       <c r="J10">
         <v>1.95</v>
@@ -856,7 +853,7 @@
         <v>15</v>
       </c>
       <c r="I11">
-        <v>4.57</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="J11">
         <v>2.23</v>
@@ -891,7 +888,7 @@
         <v>15</v>
       </c>
       <c r="I12">
-        <v>3.66</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="J12">
         <v>1.73</v>
@@ -926,7 +923,7 @@
         <v>15</v>
       </c>
       <c r="I13">
-        <v>4.99</v>
+        <v>2.99</v>
       </c>
       <c r="J13">
         <v>1.78</v>
@@ -961,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="I14">
-        <v>4.95</v>
+        <v>2.95</v>
       </c>
       <c r="J14">
         <v>1.91</v>
@@ -996,7 +993,7 @@
         <v>15</v>
       </c>
       <c r="I15">
-        <v>4.79</v>
+        <v>2.79</v>
       </c>
       <c r="J15">
         <v>2.31</v>
@@ -1031,7 +1028,7 @@
         <v>11</v>
       </c>
       <c r="I16">
-        <v>5.01</v>
+        <v>2.96</v>
       </c>
       <c r="J16">
         <v>1.92</v>
@@ -1066,7 +1063,7 @@
         <v>15</v>
       </c>
       <c r="I17">
-        <v>4.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J17">
         <v>1.9</v>
@@ -1101,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="I18">
-        <v>4.3100000000000005</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J18">
         <v>2.37</v>
@@ -1136,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="I19">
-        <v>4.08</v>
+        <v>2.08</v>
       </c>
       <c r="J19">
         <v>2.25</v>
@@ -1171,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="I20">
-        <v>4.6500000000000004</v>
+        <v>2.6500000000000004</v>
       </c>
       <c r="J20">
         <v>1.48</v>
@@ -1206,7 +1203,7 @@
         <v>15</v>
       </c>
       <c r="I21">
-        <v>3.52</v>
+        <v>1.52</v>
       </c>
       <c r="J21">
         <v>1.3499999999999999</v>
@@ -1241,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="I22">
-        <v>4.42</v>
+        <v>2.42</v>
       </c>
       <c r="J22">
         <v>1.24</v>
@@ -1276,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>4.1099999999999994</v>
+        <v>2.1099999999999994</v>
       </c>
       <c r="J23">
         <v>2.14</v>
@@ -1311,7 +1308,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>3.64</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="J24">
         <v>1.69</v>
@@ -1346,7 +1343,7 @@
         <v>11</v>
       </c>
       <c r="I25">
-        <v>4.3599999999999994</v>
+        <v>2.3599999999999994</v>
       </c>
       <c r="J25">
         <v>1.02</v>
@@ -1381,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="I26">
-        <v>5.01</v>
+        <v>2.8</v>
       </c>
       <c r="J26">
         <v>1.28</v>
@@ -1416,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="I27">
-        <v>4.3599999999999994</v>
+        <v>2.3599999999999994</v>
       </c>
       <c r="J27">
         <v>1.92</v>
@@ -1451,7 +1448,7 @@
         <v>11</v>
       </c>
       <c r="I28">
-        <v>4.4000000000000004</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="J28">
         <v>1.82</v>
@@ -1486,7 +1483,7 @@
         <v>11</v>
       </c>
       <c r="I29">
-        <v>3.98</v>
+        <v>1.98</v>
       </c>
       <c r="J29">
         <v>1.31</v>
@@ -1521,7 +1518,7 @@
         <v>11</v>
       </c>
       <c r="I30">
-        <v>3.57</v>
+        <v>1.5699999999999998</v>
       </c>
       <c r="J30">
         <v>1.3399999999999999</v>
@@ -1556,7 +1553,7 @@
         <v>11</v>
       </c>
       <c r="I31">
-        <v>4.99</v>
+        <v>2.99</v>
       </c>
       <c r="J31">
         <v>1.95</v>
@@ -1591,7 +1588,7 @@
         <v>11</v>
       </c>
       <c r="I32">
-        <v>4.07</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="J32">
         <v>1.69</v>
@@ -1626,7 +1623,7 @@
         <v>11</v>
       </c>
       <c r="I33">
-        <v>4.7200000000000006</v>
+        <v>2.7200000000000006</v>
       </c>
       <c r="J33">
         <v>2.29</v>
@@ -1661,7 +1658,7 @@
         <v>11</v>
       </c>
       <c r="I34">
-        <v>4.6899999999999995</v>
+        <v>2.6899999999999995</v>
       </c>
       <c r="J34">
         <v>1.97</v>
@@ -1696,7 +1693,7 @@
         <v>15</v>
       </c>
       <c r="I35">
-        <v>4.3900000000000006</v>
+        <v>2.3900000000000006</v>
       </c>
       <c r="J35">
         <v>2.16</v>
@@ -1731,7 +1728,7 @@
         <v>11</v>
       </c>
       <c r="I36">
-        <v>4.3100000000000005</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J36">
         <v>2.2600000000000002</v>
@@ -1766,7 +1763,7 @@
         <v>11</v>
       </c>
       <c r="I37">
-        <v>4.9000000000000004</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="J37">
         <v>0.97</v>
@@ -1801,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="I38">
-        <v>3.77</v>
+        <v>1.77</v>
       </c>
       <c r="J38">
         <v>2.2200000000000002</v>
@@ -1836,7 +1833,7 @@
         <v>15</v>
       </c>
       <c r="I39">
-        <v>4.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J39">
         <v>2.4000000000000004</v>
@@ -1871,7 +1868,7 @@
         <v>15</v>
       </c>
       <c r="I40">
-        <v>3.68</v>
+        <v>1.6800000000000002</v>
       </c>
       <c r="J40">
         <v>1.8699999999999999</v>
@@ -1906,7 +1903,7 @@
         <v>11</v>
       </c>
       <c r="I41">
-        <v>3.58</v>
+        <v>1.58</v>
       </c>
       <c r="J41">
         <v>1.8599999999999999</v>
@@ -1941,7 +1938,7 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
       <c r="J42">
         <v>2.1500000000000004</v>
@@ -1976,7 +1973,7 @@
         <v>15</v>
       </c>
       <c r="I43">
-        <v>4.58</v>
+        <v>2.58</v>
       </c>
       <c r="J43">
         <v>1.7</v>
@@ -2011,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="I44">
-        <v>3.64</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="J44">
         <v>2.33</v>
@@ -2046,7 +2043,7 @@
         <v>11</v>
       </c>
       <c r="I45">
-        <v>4.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="J45">
         <v>2.3400000000000003</v>
@@ -2081,7 +2078,7 @@
         <v>15</v>
       </c>
       <c r="I46">
-        <v>4.4000000000000004</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="J46">
         <v>2.3600000000000003</v>
@@ -2116,7 +2113,7 @@
         <v>15</v>
       </c>
       <c r="I47">
-        <v>4.63</v>
+        <v>2.63</v>
       </c>
       <c r="J47">
         <v>1.8399999999999999</v>
@@ -2151,7 +2148,7 @@
         <v>15</v>
       </c>
       <c r="I48">
-        <v>3.86</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="J48">
         <v>2.3400000000000003</v>
@@ -2186,7 +2183,7 @@
         <v>15</v>
       </c>
       <c r="I49">
-        <v>4.2300000000000004</v>
+        <v>2.2300000000000004</v>
       </c>
       <c r="J49">
         <v>1.66</v>
@@ -2221,7 +2218,7 @@
         <v>15</v>
       </c>
       <c r="I50">
-        <v>3.81</v>
+        <v>1.81</v>
       </c>
       <c r="J50">
         <v>1.66</v>
@@ -2256,7 +2253,7 @@
         <v>15</v>
       </c>
       <c r="I51">
-        <v>3.86</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="J51">
         <v>2.14</v>
@@ -2291,7 +2288,7 @@
         <v>15</v>
       </c>
       <c r="I52">
-        <v>5.01</v>
+        <v>2.92</v>
       </c>
       <c r="J52">
         <v>0.96</v>
@@ -2326,7 +2323,7 @@
         <v>11</v>
       </c>
       <c r="I53">
-        <v>4.83</v>
+        <v>2.83</v>
       </c>
       <c r="J53">
         <v>1.3599999999999999</v>
@@ -2361,7 +2358,7 @@
         <v>15</v>
       </c>
       <c r="I54">
-        <v>4.6099999999999994</v>
+        <v>2.6099999999999994</v>
       </c>
       <c r="J54">
         <v>1.71</v>
@@ -2396,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="I55">
-        <v>4.18</v>
+        <v>2.1799999999999997</v>
       </c>
       <c r="J55">
         <v>2.06</v>
@@ -2431,7 +2428,7 @@
         <v>15</v>
       </c>
       <c r="I56">
-        <v>4.34</v>
+        <v>2.34</v>
       </c>
       <c r="J56">
         <v>2.4300000000000002</v>
@@ -2466,7 +2463,7 @@
         <v>15</v>
       </c>
       <c r="I57">
-        <v>5.01</v>
+        <v>2.92</v>
       </c>
       <c r="J57">
         <v>2.27</v>
@@ -2501,7 +2498,7 @@
         <v>15</v>
       </c>
       <c r="I58">
-        <v>3.94</v>
+        <v>1.94</v>
       </c>
       <c r="J58">
         <v>1.45</v>
@@ -2536,7 +2533,7 @@
         <v>11</v>
       </c>
       <c r="I59">
-        <v>3.97</v>
+        <v>1.9700000000000002</v>
       </c>
       <c r="J59">
         <v>1.24</v>
@@ -2571,7 +2568,7 @@
         <v>15</v>
       </c>
       <c r="I60">
-        <v>5.01</v>
+        <v>2.9700000000000006</v>
       </c>
       <c r="J60">
         <v>1.51</v>
@@ -2606,7 +2603,7 @@
         <v>15</v>
       </c>
       <c r="I61">
-        <v>3.86</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="J61">
         <v>1.1299999999999999</v>
@@ -2641,7 +2638,7 @@
         <v>15</v>
       </c>
       <c r="I62">
-        <v>4.32</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="J62">
         <v>1.46</v>
@@ -2676,7 +2673,7 @@
         <v>15</v>
       </c>
       <c r="I63">
-        <v>5.01</v>
+        <v>2.74</v>
       </c>
       <c r="J63">
         <v>2.1300000000000003</v>
@@ -2711,7 +2708,7 @@
         <v>15</v>
       </c>
       <c r="I64">
-        <v>3.57</v>
+        <v>1.5699999999999998</v>
       </c>
       <c r="J64">
         <v>1.7</v>
@@ -2746,7 +2743,7 @@
         <v>11</v>
       </c>
       <c r="I65">
-        <v>4.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J65">
         <v>1.51</v>
@@ -2781,7 +2778,7 @@
         <v>11</v>
       </c>
       <c r="I66">
-        <v>4.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J66">
         <v>0.99</v>
@@ -2816,7 +2813,7 @@
         <v>11</v>
       </c>
       <c r="I67">
-        <v>4.9800000000000004</v>
+        <v>2.9800000000000004</v>
       </c>
       <c r="J67">
         <v>1.27</v>
@@ -2851,7 +2848,7 @@
         <v>11</v>
       </c>
       <c r="I68">
-        <v>3.95</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="J68">
         <v>1.91</v>
@@ -2886,7 +2883,7 @@
         <v>15</v>
       </c>
       <c r="I69">
-        <v>5.01</v>
+        <v>2.79</v>
       </c>
       <c r="J69">
         <v>2.25</v>
@@ -2921,7 +2918,7 @@
         <v>15</v>
       </c>
       <c r="I70">
-        <v>4.13</v>
+        <v>2.13</v>
       </c>
       <c r="J70">
         <v>1.05</v>
@@ -2956,7 +2953,7 @@
         <v>15</v>
       </c>
       <c r="I71">
-        <v>4.12</v>
+        <v>2.12</v>
       </c>
       <c r="J71">
         <v>1.07</v>
@@ -2991,7 +2988,7 @@
         <v>11</v>
       </c>
       <c r="I72">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="J72">
         <v>1.73</v>
@@ -3026,7 +3023,7 @@
         <v>15</v>
       </c>
       <c r="I73">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="J73">
         <v>1.79</v>
@@ -3061,7 +3058,7 @@
         <v>11</v>
       </c>
       <c r="I74">
-        <v>4.13</v>
+        <v>2.13</v>
       </c>
       <c r="J74">
         <v>1.95</v>
@@ -3096,7 +3093,7 @@
         <v>11</v>
       </c>
       <c r="I75">
-        <v>4.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="J75">
         <v>1.56</v>
@@ -3131,7 +3128,7 @@
         <v>11</v>
       </c>
       <c r="I76">
-        <v>3.77</v>
+        <v>1.77</v>
       </c>
       <c r="J76">
         <v>1.68</v>
@@ -3166,7 +3163,7 @@
         <v>11</v>
       </c>
       <c r="I77">
-        <v>4.5999999999999996</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="J77">
         <v>2.0700000000000003</v>
@@ -3201,7 +3198,7 @@
         <v>11</v>
       </c>
       <c r="I78">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="J78">
         <v>1.3</v>
@@ -3236,7 +3233,7 @@
         <v>11</v>
       </c>
       <c r="I79">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="J79">
         <v>2.12</v>
@@ -3271,7 +3268,7 @@
         <v>11</v>
       </c>
       <c r="I80">
-        <v>3.84</v>
+        <v>1.8399999999999999</v>
       </c>
       <c r="J80">
         <v>1.91</v>
@@ -3306,7 +3303,7 @@
         <v>15</v>
       </c>
       <c r="I81">
-        <v>3.59</v>
+        <v>1.5899999999999999</v>
       </c>
       <c r="J81">
         <v>1.8</v>
@@ -3341,7 +3338,7 @@
         <v>15</v>
       </c>
       <c r="I82">
-        <v>4.9000000000000004</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="J82">
         <v>0.98</v>
@@ -3376,7 +3373,7 @@
         <v>15</v>
       </c>
       <c r="I83">
-        <v>4.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J83">
         <v>2.23</v>
@@ -3411,7 +3408,7 @@
         <v>11</v>
       </c>
       <c r="I84">
-        <v>3.93</v>
+        <v>1.9300000000000002</v>
       </c>
       <c r="J84">
         <v>2.37</v>
@@ -3446,7 +3443,7 @@
         <v>15</v>
       </c>
       <c r="I85">
-        <v>4.99</v>
+        <v>2.99</v>
       </c>
       <c r="J85">
         <v>1.03</v>
@@ -3481,7 +3478,7 @@
         <v>11</v>
       </c>
       <c r="I86">
-        <v>4.82</v>
+        <v>2.8200000000000003</v>
       </c>
       <c r="J86">
         <v>2.0700000000000003</v>
@@ -3516,7 +3513,7 @@
         <v>15</v>
       </c>
       <c r="I87">
-        <v>4.88</v>
+        <v>2.88</v>
       </c>
       <c r="J87">
         <v>1.9</v>
@@ -3551,7 +3548,7 @@
         <v>11</v>
       </c>
       <c r="I88">
-        <v>3.73</v>
+        <v>1.73</v>
       </c>
       <c r="J88">
         <v>1.05</v>
@@ -3586,7 +3583,7 @@
         <v>11</v>
       </c>
       <c r="I89">
-        <v>3.63</v>
+        <v>1.63</v>
       </c>
       <c r="J89">
         <v>2.1700000000000004</v>
@@ -3621,7 +3618,7 @@
         <v>15</v>
       </c>
       <c r="I90">
-        <v>3.83</v>
+        <v>1.83</v>
       </c>
       <c r="J90">
         <v>2.4400000000000004</v>
@@ -3656,7 +3653,7 @@
         <v>11</v>
       </c>
       <c r="I91">
-        <v>3.83</v>
+        <v>1.83</v>
       </c>
       <c r="J91">
         <v>1.26</v>
@@ -3691,7 +3688,7 @@
         <v>11</v>
       </c>
       <c r="I92">
-        <v>4.42</v>
+        <v>2.42</v>
       </c>
       <c r="J92">
         <v>2.0500000000000003</v>
@@ -3726,7 +3723,7 @@
         <v>11</v>
       </c>
       <c r="I93">
-        <v>3.77</v>
+        <v>1.77</v>
       </c>
       <c r="J93">
         <v>0.97</v>
@@ -3761,7 +3758,7 @@
         <v>11</v>
       </c>
       <c r="I94">
-        <v>4.21</v>
+        <v>2.21</v>
       </c>
       <c r="J94">
         <v>1.07</v>
@@ -3796,7 +3793,7 @@
         <v>11</v>
       </c>
       <c r="I95">
-        <v>4.18</v>
+        <v>2.1799999999999997</v>
       </c>
       <c r="J95">
         <v>2.14</v>
@@ -3831,7 +3828,7 @@
         <v>11</v>
       </c>
       <c r="I96">
-        <v>4.3100000000000005</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J96">
         <v>1.5799999999999998</v>
@@ -3866,7 +3863,7 @@
         <v>11</v>
       </c>
       <c r="I97">
-        <v>3.61</v>
+        <v>1.6099999999999999</v>
       </c>
       <c r="J97">
         <v>1.67</v>
@@ -3901,7 +3898,7 @@
         <v>11</v>
       </c>
       <c r="I98">
-        <v>4.5299999999999994</v>
+        <v>2.5299999999999994</v>
       </c>
       <c r="J98">
         <v>2.0100000000000002</v>
@@ -3936,7 +3933,7 @@
         <v>11</v>
       </c>
       <c r="I99">
-        <v>3.54</v>
+        <v>1.54</v>
       </c>
       <c r="J99">
         <v>1.42</v>
@@ -3971,7 +3968,7 @@
         <v>11</v>
       </c>
       <c r="I100">
-        <v>4.08</v>
+        <v>2.08</v>
       </c>
       <c r="J100">
         <v>2.04</v>
@@ -4006,7 +4003,7 @@
         <v>11</v>
       </c>
       <c r="I101">
-        <v>4.0299999999999994</v>
+        <v>2.0299999999999994</v>
       </c>
       <c r="J101">
         <v>1.0899999999999999</v>
@@ -4041,7 +4038,7 @@
         <v>15</v>
       </c>
       <c r="I102">
-        <v>3.82</v>
+        <v>1.8199999999999998</v>
       </c>
       <c r="J102">
         <v>2.0900000000000003</v>
@@ -4051,7 +4048,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K102" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\No_EyeTr\PAL\Conditions\Version_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A9389C-3905-47AC-B01B-8E4BDB3F5377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE030A3-B991-440C-9792-39CEE70A2697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$115</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="20">
   <si>
     <t>Fractal_img</t>
   </si>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,7 +517,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -523,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -532,16 +535,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I2">
-        <v>2.79</v>
+        <v>3.74</v>
       </c>
       <c r="J2">
-        <v>2.31</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -549,13 +552,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -573,10 +576,10 @@
         <v>11</v>
       </c>
       <c r="I3">
-        <v>2.2300000000000004</v>
+        <v>3.63</v>
       </c>
       <c r="J3">
-        <v>2.3000000000000003</v>
+        <v>0.99</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -584,7 +587,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -608,10 +611,10 @@
         <v>15</v>
       </c>
       <c r="I4">
-        <v>2.76</v>
+        <v>3.6</v>
       </c>
       <c r="J4">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -619,7 +622,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -628,7 +631,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -637,16 +640,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>1.58</v>
+        <v>4.17</v>
       </c>
       <c r="J5">
-        <v>1.46</v>
+        <v>1.99</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -654,16 +657,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -675,13 +678,13 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I6">
-        <v>2.9700000000000006</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="J6">
-        <v>0.97</v>
+        <v>1.3699999999999999</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -689,16 +692,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -707,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>2.3100000000000005</v>
+        <v>3.64</v>
       </c>
       <c r="J7">
-        <v>1.99</v>
+        <v>2.29</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -724,7 +727,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -748,10 +751,10 @@
         <v>11</v>
       </c>
       <c r="I8">
-        <v>2.9800000000000004</v>
+        <v>3.75</v>
       </c>
       <c r="J8">
-        <v>1.19</v>
+        <v>2.4200000000000004</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -759,13 +762,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -777,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
       <c r="I9">
-        <v>2.95</v>
+        <v>4.9399999999999995</v>
       </c>
       <c r="J9">
-        <v>1.1299999999999999</v>
+        <v>2.16</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -794,13 +797,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -809,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
       <c r="I10">
-        <v>2.76</v>
+        <v>4.2200000000000006</v>
       </c>
       <c r="J10">
-        <v>1.95</v>
+        <v>1.06</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -829,13 +832,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -853,10 +856,10 @@
         <v>15</v>
       </c>
       <c r="I11">
-        <v>2.5700000000000003</v>
+        <v>3.67</v>
       </c>
       <c r="J11">
-        <v>2.23</v>
+        <v>1.29</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -864,7 +867,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -873,7 +876,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -882,16 +885,16 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I12">
-        <v>1.6600000000000001</v>
+        <v>4.01</v>
       </c>
       <c r="J12">
-        <v>1.73</v>
+        <v>2.16</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -899,34 +902,34 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I13">
-        <v>2.99</v>
+        <v>4.79</v>
       </c>
       <c r="J13">
-        <v>1.78</v>
+        <v>2.31</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -934,16 +937,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -955,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>2.95</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="J14">
-        <v>1.91</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -969,7 +972,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -993,10 +996,10 @@
         <v>15</v>
       </c>
       <c r="I15">
-        <v>2.79</v>
+        <v>4.76</v>
       </c>
       <c r="J15">
-        <v>2.31</v>
+        <v>1.17</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1004,7 +1007,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1019,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
         <v>11</v>
       </c>
       <c r="I16">
-        <v>2.96</v>
+        <v>3.58</v>
       </c>
       <c r="J16">
-        <v>1.92</v>
+        <v>1.46</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1039,16 +1042,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1060,13 +1063,13 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I17">
-        <v>2.0499999999999998</v>
+        <v>4.9700000000000006</v>
       </c>
       <c r="J17">
-        <v>1.9</v>
+        <v>0.97</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1074,16 +1077,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1092,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I18">
-        <v>2.3100000000000005</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J18">
-        <v>2.37</v>
+        <v>1.99</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1109,13 +1112,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -1133,10 +1136,10 @@
         <v>11</v>
       </c>
       <c r="I19">
-        <v>2.08</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="J19">
-        <v>2.25</v>
+        <v>1.19</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1144,7 +1147,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1168,10 +1171,10 @@
         <v>11</v>
       </c>
       <c r="I20">
-        <v>2.6500000000000004</v>
+        <v>4.95</v>
       </c>
       <c r="J20">
-        <v>1.48</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1179,16 +1182,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1200,13 +1203,13 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I21">
-        <v>1.52</v>
+        <v>4.76</v>
       </c>
       <c r="J21">
-        <v>1.3499999999999999</v>
+        <v>1.95</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1214,13 +1217,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -1229,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1238,10 +1241,10 @@
         <v>11</v>
       </c>
       <c r="I22">
-        <v>2.42</v>
+        <v>4.57</v>
       </c>
       <c r="J22">
-        <v>1.24</v>
+        <v>2.23</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1273,10 +1276,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>2.1099999999999994</v>
+        <v>3.66</v>
       </c>
       <c r="J23">
-        <v>2.14</v>
+        <v>1.73</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1284,16 +1287,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1302,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I24">
-        <v>1.6400000000000001</v>
+        <v>4.99</v>
       </c>
       <c r="J24">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1319,16 +1322,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1337,16 +1340,16 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I25">
-        <v>2.3599999999999994</v>
+        <v>4.95</v>
       </c>
       <c r="J25">
-        <v>1.02</v>
+        <v>1.91</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1354,16 +1357,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1372,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I26">
-        <v>2.8</v>
+        <v>4.79</v>
       </c>
       <c r="J26">
-        <v>1.28</v>
+        <v>2.31</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -1389,31 +1392,31 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I27">
-        <v>2.3599999999999994</v>
+        <v>4.96</v>
       </c>
       <c r="J27">
         <v>1.92</v>
@@ -1424,34 +1427,34 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I28">
-        <v>2.4000000000000004</v>
+        <v>4.05</v>
       </c>
       <c r="J28">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -1459,7 +1462,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1468,25 +1471,25 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I29">
-        <v>1.98</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J29">
-        <v>1.31</v>
+        <v>2.37</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -1494,7 +1497,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1503,7 +1506,7 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1512,16 +1515,16 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I30">
-        <v>1.5699999999999998</v>
+        <v>4.08</v>
       </c>
       <c r="J30">
-        <v>1.3399999999999999</v>
+        <v>2.25</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -1529,16 +1532,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1547,16 +1550,16 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I31">
-        <v>2.99</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="J31">
-        <v>1.95</v>
+        <v>1.48</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -1564,16 +1567,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1585,13 +1588,13 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I32">
-        <v>2.0700000000000003</v>
+        <v>3.52</v>
       </c>
       <c r="J32">
-        <v>1.69</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -1599,7 +1602,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
@@ -1617,16 +1620,16 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>11</v>
       </c>
       <c r="I33">
-        <v>2.7200000000000006</v>
+        <v>4.42</v>
       </c>
       <c r="J33">
-        <v>2.29</v>
+        <v>1.24</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -1634,16 +1637,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1652,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I34">
-        <v>2.6899999999999995</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J34">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -1669,13 +1672,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -1693,10 +1696,10 @@
         <v>15</v>
       </c>
       <c r="I35">
-        <v>2.3900000000000006</v>
+        <v>3.64</v>
       </c>
       <c r="J35">
-        <v>2.16</v>
+        <v>1.69</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -1704,7 +1707,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -1722,16 +1725,16 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
         <v>11</v>
       </c>
       <c r="I36">
-        <v>2.3100000000000005</v>
+        <v>4.3599999999999994</v>
       </c>
       <c r="J36">
-        <v>2.2600000000000002</v>
+        <v>1.02</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -1739,16 +1742,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1760,13 +1763,13 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I37">
-        <v>2.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="J37">
-        <v>0.97</v>
+        <v>1.28</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -1774,13 +1777,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -1798,10 +1801,10 @@
         <v>11</v>
       </c>
       <c r="I38">
-        <v>1.77</v>
+        <v>4.3599999999999994</v>
       </c>
       <c r="J38">
-        <v>2.2200000000000002</v>
+        <v>1.92</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -1809,13 +1812,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
@@ -1833,10 +1836,10 @@
         <v>15</v>
       </c>
       <c r="I39">
-        <v>2.5099999999999998</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J39">
-        <v>2.4000000000000004</v>
+        <v>1.82</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -1844,13 +1847,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
@@ -1868,10 +1871,10 @@
         <v>15</v>
       </c>
       <c r="I40">
-        <v>1.6800000000000002</v>
+        <v>3.98</v>
       </c>
       <c r="J40">
-        <v>1.8699999999999999</v>
+        <v>1.31</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -1888,25 +1891,25 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I41">
-        <v>1.58</v>
+        <v>3.57</v>
       </c>
       <c r="J41">
-        <v>1.8599999999999999</v>
+        <v>1.3399999999999999</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -1914,13 +1917,13 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -1938,10 +1941,10 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>2.25</v>
+        <v>4.99</v>
       </c>
       <c r="J42">
-        <v>2.1500000000000004</v>
+        <v>1.95</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -1949,13 +1952,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
@@ -1973,10 +1976,10 @@
         <v>15</v>
       </c>
       <c r="I43">
-        <v>2.58</v>
+        <v>4.07</v>
       </c>
       <c r="J43">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -1984,13 +1987,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
@@ -1999,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2008,10 +2011,10 @@
         <v>11</v>
       </c>
       <c r="I44">
-        <v>1.6400000000000001</v>
+        <v>4.7200000000000006</v>
       </c>
       <c r="J44">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -2019,13 +2022,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -2043,10 +2046,10 @@
         <v>11</v>
       </c>
       <c r="I45">
-        <v>2.2400000000000002</v>
+        <v>4.6899999999999995</v>
       </c>
       <c r="J45">
-        <v>2.3400000000000003</v>
+        <v>1.97</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -2054,19 +2057,19 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
         <v>14</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2078,10 +2081,10 @@
         <v>15</v>
       </c>
       <c r="I46">
-        <v>2.4000000000000004</v>
+        <v>4.3900000000000006</v>
       </c>
       <c r="J46">
-        <v>2.3600000000000003</v>
+        <v>2.16</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -2089,16 +2092,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2110,13 +2113,13 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I47">
-        <v>2.63</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J47">
-        <v>1.8399999999999999</v>
+        <v>2.2600000000000002</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -2124,16 +2127,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2145,13 +2148,13 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I48">
-        <v>1.8599999999999999</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J48">
-        <v>2.3400000000000003</v>
+        <v>0.97</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -2159,13 +2162,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -2174,19 +2177,19 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
         <v>15</v>
       </c>
       <c r="I49">
-        <v>2.2300000000000004</v>
+        <v>3.77</v>
       </c>
       <c r="J49">
-        <v>1.66</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -2194,13 +2197,13 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
@@ -2218,10 +2221,10 @@
         <v>15</v>
       </c>
       <c r="I50">
-        <v>1.81</v>
+        <v>4.51</v>
       </c>
       <c r="J50">
-        <v>1.66</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
@@ -2253,10 +2256,10 @@
         <v>15</v>
       </c>
       <c r="I51">
-        <v>1.8599999999999999</v>
+        <v>3.68</v>
       </c>
       <c r="J51">
-        <v>2.14</v>
+        <v>1.8699999999999999</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -2264,7 +2267,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -2288,10 +2291,10 @@
         <v>15</v>
       </c>
       <c r="I52">
-        <v>2.92</v>
+        <v>3.58</v>
       </c>
       <c r="J52">
-        <v>0.96</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -2299,16 +2302,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2320,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I53">
-        <v>2.83</v>
+        <v>4.25</v>
       </c>
       <c r="J53">
-        <v>1.3599999999999999</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -2334,7 +2337,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
         <v>12</v>
@@ -2352,16 +2355,16 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="s">
         <v>15</v>
       </c>
       <c r="I54">
-        <v>2.6099999999999994</v>
+        <v>4.58</v>
       </c>
       <c r="J54">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -2369,13 +2372,13 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
         <v>14</v>
@@ -2393,10 +2396,10 @@
         <v>15</v>
       </c>
       <c r="I55">
-        <v>2.1799999999999997</v>
+        <v>3.64</v>
       </c>
       <c r="J55">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -2404,7 +2407,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -2428,10 +2431,10 @@
         <v>15</v>
       </c>
       <c r="I56">
-        <v>2.34</v>
+        <v>4.24</v>
       </c>
       <c r="J56">
-        <v>2.4300000000000002</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -2439,7 +2442,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -2448,25 +2451,25 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I57">
-        <v>2.92</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J57">
-        <v>2.27</v>
+        <v>2.3600000000000003</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -2474,13 +2477,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
@@ -2489,19 +2492,19 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="s">
         <v>15</v>
       </c>
       <c r="I58">
-        <v>1.94</v>
+        <v>4.63</v>
       </c>
       <c r="J58">
-        <v>1.45</v>
+        <v>1.8399999999999999</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -2509,13 +2512,13 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
@@ -2527,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
         <v>11</v>
       </c>
       <c r="I59">
-        <v>1.9700000000000002</v>
+        <v>3.86</v>
       </c>
       <c r="J59">
-        <v>1.24</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -2544,13 +2547,13 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
@@ -2568,10 +2571,10 @@
         <v>15</v>
       </c>
       <c r="I60">
-        <v>2.9700000000000006</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="J60">
-        <v>1.51</v>
+        <v>1.66</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -2588,7 +2591,7 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2597,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I61">
-        <v>1.8599999999999999</v>
+        <v>3.81</v>
       </c>
       <c r="J61">
-        <v>1.1299999999999999</v>
+        <v>1.66</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -2614,7 +2617,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B62" t="s">
         <v>12</v>
@@ -2632,16 +2635,16 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="s">
         <v>15</v>
       </c>
       <c r="I62">
-        <v>2.3200000000000003</v>
+        <v>3.86</v>
       </c>
       <c r="J62">
-        <v>1.46</v>
+        <v>2.14</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -2649,7 +2652,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -2658,7 +2661,7 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2670,13 +2673,13 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I63">
-        <v>2.74</v>
+        <v>4.92</v>
       </c>
       <c r="J63">
-        <v>2.1300000000000003</v>
+        <v>0.96</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -2684,16 +2687,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2705,13 +2708,13 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I64">
-        <v>1.5699999999999998</v>
+        <v>4.83</v>
       </c>
       <c r="J64">
-        <v>1.7</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -2719,16 +2722,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2740,13 +2743,13 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I65">
-        <v>2.2999999999999998</v>
+        <v>4.6099999999999994</v>
       </c>
       <c r="J65">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -2754,16 +2757,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2772,16 +2775,16 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I66">
-        <v>2.0499999999999998</v>
+        <v>4.18</v>
       </c>
       <c r="J66">
-        <v>0.99</v>
+        <v>2.06</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -2789,13 +2792,13 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
         <v>10</v>
@@ -2813,10 +2816,10 @@
         <v>11</v>
       </c>
       <c r="I67">
-        <v>2.9800000000000004</v>
+        <v>4.34</v>
       </c>
       <c r="J67">
-        <v>1.27</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -2824,13 +2827,13 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
         <v>10</v>
@@ -2842,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="s">
         <v>11</v>
       </c>
       <c r="I68">
-        <v>1.9500000000000002</v>
+        <v>4.92</v>
       </c>
       <c r="J68">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -2859,7 +2862,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -2868,7 +2871,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2877,16 +2880,16 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I69">
-        <v>2.79</v>
+        <v>3.94</v>
       </c>
       <c r="J69">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -2894,16 +2897,16 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2915,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I70">
-        <v>2.13</v>
+        <v>3.97</v>
       </c>
       <c r="J70">
-        <v>1.05</v>
+        <v>1.24</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -2929,7 +2932,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -2938,25 +2941,25 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I71">
-        <v>2.12</v>
+        <v>4.9700000000000006</v>
       </c>
       <c r="J71">
-        <v>1.07</v>
+        <v>1.51</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -2964,7 +2967,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -2976,7 +2979,7 @@
         <v>10</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2988,10 +2991,10 @@
         <v>11</v>
       </c>
       <c r="I72">
-        <v>2.7</v>
+        <v>3.86</v>
       </c>
       <c r="J72">
-        <v>1.73</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -2999,7 +3002,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
@@ -3017,16 +3020,16 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="s">
         <v>15</v>
       </c>
       <c r="I73">
-        <v>2.7</v>
+        <v>4.32</v>
       </c>
       <c r="J73">
-        <v>1.79</v>
+        <v>1.46</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -3034,13 +3037,13 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
@@ -3049,19 +3052,19 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="s">
         <v>11</v>
       </c>
       <c r="I74">
-        <v>2.13</v>
+        <v>4.74</v>
       </c>
       <c r="J74">
-        <v>1.95</v>
+        <v>2.1300000000000003</v>
       </c>
       <c r="K74">
         <v>2</v>
@@ -3069,13 +3072,13 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
@@ -3087,16 +3090,16 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="s">
         <v>11</v>
       </c>
       <c r="I75">
-        <v>2.2400000000000002</v>
+        <v>3.57</v>
       </c>
       <c r="J75">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -3104,7 +3107,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
@@ -3128,10 +3131,10 @@
         <v>11</v>
       </c>
       <c r="I76">
-        <v>1.77</v>
+        <v>4.3</v>
       </c>
       <c r="J76">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
@@ -3163,10 +3166,10 @@
         <v>11</v>
       </c>
       <c r="I77">
-        <v>2.5999999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="J77">
-        <v>2.0700000000000003</v>
+        <v>0.99</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -3174,13 +3177,13 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
         <v>10</v>
@@ -3198,10 +3201,10 @@
         <v>11</v>
       </c>
       <c r="I78">
-        <v>1.5</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="J78">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -3209,13 +3212,13 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -3233,10 +3236,10 @@
         <v>11</v>
       </c>
       <c r="I79">
-        <v>2.8</v>
+        <v>3.95</v>
       </c>
       <c r="J79">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -3244,7 +3247,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -3268,10 +3271,10 @@
         <v>11</v>
       </c>
       <c r="I80">
-        <v>1.8399999999999999</v>
+        <v>4.79</v>
       </c>
       <c r="J80">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B81" t="s">
         <v>12</v>
@@ -3297,16 +3300,16 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="s">
         <v>15</v>
       </c>
       <c r="I81">
-        <v>1.5899999999999999</v>
+        <v>4.13</v>
       </c>
       <c r="J81">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -3314,16 +3317,16 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3332,16 +3335,16 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I82">
-        <v>2.9000000000000004</v>
+        <v>4.12</v>
       </c>
       <c r="J82">
-        <v>0.98</v>
+        <v>1.07</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -3349,19 +3352,19 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3373,10 +3376,10 @@
         <v>15</v>
       </c>
       <c r="I83">
-        <v>2.2000000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="J83">
-        <v>2.23</v>
+        <v>1.73</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -3384,16 +3387,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3402,16 +3405,16 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I84">
-        <v>1.9300000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="J84">
-        <v>2.37</v>
+        <v>1.79</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -3419,16 +3422,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3437,16 +3440,16 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I85">
-        <v>2.99</v>
+        <v>4.13</v>
       </c>
       <c r="J85">
-        <v>1.03</v>
+        <v>1.95</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -3454,7 +3457,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
@@ -3478,10 +3481,10 @@
         <v>11</v>
       </c>
       <c r="I86">
-        <v>2.8200000000000003</v>
+        <v>4.24</v>
       </c>
       <c r="J86">
-        <v>2.0700000000000003</v>
+        <v>1.56</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -3489,16 +3492,16 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3507,16 +3510,16 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I87">
-        <v>2.88</v>
+        <v>3.77</v>
       </c>
       <c r="J87">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -3524,13 +3527,13 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
@@ -3548,10 +3551,10 @@
         <v>11</v>
       </c>
       <c r="I88">
-        <v>1.73</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J88">
-        <v>1.05</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -3559,7 +3562,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
@@ -3568,7 +3571,7 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3577,16 +3580,16 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I89">
-        <v>1.63</v>
+        <v>3.5</v>
       </c>
       <c r="J89">
-        <v>2.1700000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="K89">
         <v>2</v>
@@ -3594,13 +3597,13 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
         <v>14</v>
@@ -3612,16 +3615,16 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="s">
         <v>15</v>
       </c>
       <c r="I90">
-        <v>1.83</v>
+        <v>4.8</v>
       </c>
       <c r="J90">
-        <v>2.4400000000000004</v>
+        <v>2.12</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -3629,16 +3632,16 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3647,16 +3650,16 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I91">
-        <v>1.83</v>
+        <v>3.84</v>
       </c>
       <c r="J91">
-        <v>1.26</v>
+        <v>1.91</v>
       </c>
       <c r="K91">
         <v>2</v>
@@ -3664,34 +3667,34 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I92">
-        <v>2.42</v>
+        <v>3.59</v>
       </c>
       <c r="J92">
-        <v>2.0500000000000003</v>
+        <v>1.8</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -3699,16 +3702,16 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3717,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I93">
-        <v>1.77</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J93">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="K93">
         <v>2</v>
@@ -3734,34 +3737,34 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I94">
-        <v>2.21</v>
+        <v>4.2</v>
       </c>
       <c r="J94">
-        <v>1.07</v>
+        <v>2.23</v>
       </c>
       <c r="K94">
         <v>2</v>
@@ -3769,13 +3772,13 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
@@ -3784,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>11</v>
       </c>
       <c r="I95">
-        <v>2.1799999999999997</v>
+        <v>3.93</v>
       </c>
       <c r="J95">
-        <v>2.14</v>
+        <v>2.37</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -3804,16 +3807,16 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3822,16 +3825,16 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I96">
-        <v>2.3100000000000005</v>
+        <v>4.99</v>
       </c>
       <c r="J96">
-        <v>1.5799999999999998</v>
+        <v>1.03</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -3839,13 +3842,13 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
         <v>10</v>
@@ -3857,16 +3860,16 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="s">
         <v>11</v>
       </c>
       <c r="I97">
-        <v>1.6099999999999999</v>
+        <v>4.82</v>
       </c>
       <c r="J97">
-        <v>1.67</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -3874,16 +3877,16 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3892,16 +3895,16 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I98">
-        <v>2.5299999999999994</v>
+        <v>4.88</v>
       </c>
       <c r="J98">
-        <v>2.0100000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -3909,7 +3912,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
@@ -3918,7 +3921,7 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -3927,16 +3930,16 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I99">
-        <v>1.54</v>
+        <v>3.73</v>
       </c>
       <c r="J99">
-        <v>1.42</v>
+        <v>1.05</v>
       </c>
       <c r="K99">
         <v>2</v>
@@ -3944,16 +3947,16 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -3962,16 +3965,16 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I100">
-        <v>2.08</v>
+        <v>4.92</v>
       </c>
       <c r="J100">
-        <v>2.04</v>
+        <v>0.96</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -3979,7 +3982,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
@@ -3988,25 +3991,25 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I101">
-        <v>2.0299999999999994</v>
+        <v>3.63</v>
       </c>
       <c r="J101">
-        <v>1.0899999999999999</v>
+        <v>2.1700000000000004</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -4014,7 +4017,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B102" t="s">
         <v>12</v>
@@ -4032,22 +4035,478 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="s">
         <v>15</v>
       </c>
       <c r="I102">
-        <v>1.8199999999999998</v>
+        <v>3.83</v>
       </c>
       <c r="J102">
+        <v>2.4400000000000004</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>203</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103">
+        <v>3.83</v>
+      </c>
+      <c r="J103">
+        <v>1.26</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>204</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104">
+        <v>4.42</v>
+      </c>
+      <c r="J104">
+        <v>2.0500000000000003</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>205</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105">
+        <v>3.77</v>
+      </c>
+      <c r="J105">
+        <v>0.97</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>206</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106">
+        <v>4.21</v>
+      </c>
+      <c r="J106">
+        <v>1.07</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>207</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107">
+        <v>4.18</v>
+      </c>
+      <c r="J107">
+        <v>2.14</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>208</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108">
+        <v>4.3100000000000005</v>
+      </c>
+      <c r="J108">
+        <v>1.5799999999999998</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>209</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109">
+        <v>3.61</v>
+      </c>
+      <c r="J109">
+        <v>1.67</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>210</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110">
+        <v>4.5299999999999994</v>
+      </c>
+      <c r="J110">
+        <v>2.0100000000000002</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>211</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111">
+        <v>4.2</v>
+      </c>
+      <c r="J111">
+        <v>2.23</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>212</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112">
+        <v>3.54</v>
+      </c>
+      <c r="J112">
+        <v>1.42</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>213</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113">
+        <v>4.08</v>
+      </c>
+      <c r="J113">
+        <v>2.04</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>214</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114">
+        <v>4.0299999999999994</v>
+      </c>
+      <c r="J114">
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>215</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115">
+        <v>3.82</v>
+      </c>
+      <c r="J115">
         <v>2.0900000000000003</v>
       </c>
-      <c r="K102">
+      <c r="K115">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\No_EyeTr\PAL\Conditions\Version_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A9389C-3905-47AC-B01B-8E4BDB3F5377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2282457E-659D-4C53-A137-0D9EF46E434C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$115</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="20">
   <si>
     <t>Fractal_img</t>
   </si>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,7 +517,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -523,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -532,16 +535,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I2">
-        <v>2.79</v>
+        <v>1.7400000000000002</v>
       </c>
       <c r="J2">
-        <v>2.31</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -549,13 +552,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -573,10 +576,10 @@
         <v>11</v>
       </c>
       <c r="I3">
-        <v>2.2300000000000004</v>
+        <v>1.63</v>
       </c>
       <c r="J3">
-        <v>2.3000000000000003</v>
+        <v>0.99</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -584,7 +587,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -608,10 +611,10 @@
         <v>15</v>
       </c>
       <c r="I4">
-        <v>2.76</v>
+        <v>1.6</v>
       </c>
       <c r="J4">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -619,7 +622,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -628,7 +631,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -637,16 +640,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>1.58</v>
+        <v>2.17</v>
       </c>
       <c r="J5">
-        <v>1.46</v>
+        <v>1.99</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -654,16 +657,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -675,13 +678,13 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I6">
-        <v>2.9700000000000006</v>
+        <v>2.7300000000000004</v>
       </c>
       <c r="J6">
-        <v>0.97</v>
+        <v>1.3699999999999999</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -689,16 +692,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -707,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>2.3100000000000005</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="J7">
-        <v>1.99</v>
+        <v>2.29</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -724,7 +727,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -748,10 +751,10 @@
         <v>11</v>
       </c>
       <c r="I8">
-        <v>2.9800000000000004</v>
+        <v>1.75</v>
       </c>
       <c r="J8">
-        <v>1.19</v>
+        <v>2.4200000000000004</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -759,13 +762,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -777,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
       <c r="I9">
-        <v>2.95</v>
+        <v>2.9399999999999995</v>
       </c>
       <c r="J9">
-        <v>1.1299999999999999</v>
+        <v>2.16</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -794,13 +797,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -809,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
       <c r="I10">
-        <v>2.76</v>
+        <v>2.2200000000000006</v>
       </c>
       <c r="J10">
-        <v>1.95</v>
+        <v>1.06</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -829,13 +832,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -853,10 +856,10 @@
         <v>15</v>
       </c>
       <c r="I11">
-        <v>2.5700000000000003</v>
+        <v>1.67</v>
       </c>
       <c r="J11">
-        <v>2.23</v>
+        <v>1.29</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -864,7 +867,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -873,7 +876,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -882,16 +885,16 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I12">
-        <v>1.6600000000000001</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J12">
-        <v>1.73</v>
+        <v>2.16</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -899,34 +902,34 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I13">
-        <v>2.99</v>
+        <v>2.79</v>
       </c>
       <c r="J13">
-        <v>1.78</v>
+        <v>2.31</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -934,16 +937,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -955,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>2.95</v>
+        <v>2.2300000000000004</v>
       </c>
       <c r="J14">
-        <v>1.91</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -969,7 +972,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -993,10 +996,10 @@
         <v>15</v>
       </c>
       <c r="I15">
-        <v>2.79</v>
+        <v>2.76</v>
       </c>
       <c r="J15">
-        <v>2.31</v>
+        <v>1.17</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1004,7 +1007,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1019,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
         <v>11</v>
       </c>
       <c r="I16">
-        <v>2.96</v>
+        <v>1.58</v>
       </c>
       <c r="J16">
-        <v>1.92</v>
+        <v>1.46</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1039,16 +1042,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1060,13 +1063,13 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I17">
-        <v>2.0499999999999998</v>
+        <v>2.9700000000000006</v>
       </c>
       <c r="J17">
-        <v>1.9</v>
+        <v>0.97</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1074,16 +1077,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1092,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I18">
         <v>2.3100000000000005</v>
       </c>
       <c r="J18">
-        <v>2.37</v>
+        <v>1.99</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1109,13 +1112,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -1133,10 +1136,10 @@
         <v>11</v>
       </c>
       <c r="I19">
-        <v>2.08</v>
+        <v>2.9800000000000004</v>
       </c>
       <c r="J19">
-        <v>2.25</v>
+        <v>1.19</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1144,7 +1147,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1168,10 +1171,10 @@
         <v>11</v>
       </c>
       <c r="I20">
-        <v>2.6500000000000004</v>
+        <v>2.95</v>
       </c>
       <c r="J20">
-        <v>1.48</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1179,16 +1182,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1200,13 +1203,13 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I21">
-        <v>1.52</v>
+        <v>2.76</v>
       </c>
       <c r="J21">
-        <v>1.3499999999999999</v>
+        <v>1.95</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1214,13 +1217,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -1229,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1238,10 +1241,10 @@
         <v>11</v>
       </c>
       <c r="I22">
-        <v>2.42</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="J22">
-        <v>1.24</v>
+        <v>2.23</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1273,10 +1276,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>2.1099999999999994</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="J23">
-        <v>2.14</v>
+        <v>1.73</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1284,16 +1287,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1302,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I24">
-        <v>1.6400000000000001</v>
+        <v>2.99</v>
       </c>
       <c r="J24">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1319,16 +1322,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1337,16 +1340,16 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I25">
-        <v>2.3599999999999994</v>
+        <v>2.95</v>
       </c>
       <c r="J25">
-        <v>1.02</v>
+        <v>1.91</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1354,16 +1357,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1372,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I26">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="J26">
-        <v>1.28</v>
+        <v>2.31</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -1389,31 +1392,31 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I27">
-        <v>2.3599999999999994</v>
+        <v>2.96</v>
       </c>
       <c r="J27">
         <v>1.92</v>
@@ -1424,34 +1427,34 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I28">
-        <v>2.4000000000000004</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J28">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -1459,7 +1462,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1468,25 +1471,25 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I29">
-        <v>1.98</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J29">
-        <v>1.31</v>
+        <v>2.37</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -1494,7 +1497,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1503,7 +1506,7 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1512,16 +1515,16 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I30">
-        <v>1.5699999999999998</v>
+        <v>2.08</v>
       </c>
       <c r="J30">
-        <v>1.3399999999999999</v>
+        <v>2.25</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -1529,16 +1532,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1547,16 +1550,16 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I31">
-        <v>2.99</v>
+        <v>2.6500000000000004</v>
       </c>
       <c r="J31">
-        <v>1.95</v>
+        <v>1.48</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -1564,16 +1567,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1585,13 +1588,13 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I32">
-        <v>2.0700000000000003</v>
+        <v>1.52</v>
       </c>
       <c r="J32">
-        <v>1.69</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -1599,7 +1602,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
@@ -1617,16 +1620,16 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>11</v>
       </c>
       <c r="I33">
-        <v>2.7200000000000006</v>
+        <v>2.42</v>
       </c>
       <c r="J33">
-        <v>2.29</v>
+        <v>1.24</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -1634,16 +1637,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1652,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I34">
-        <v>2.6899999999999995</v>
+        <v>2.1099999999999994</v>
       </c>
       <c r="J34">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -1669,13 +1672,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -1693,10 +1696,10 @@
         <v>15</v>
       </c>
       <c r="I35">
-        <v>2.3900000000000006</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="J35">
-        <v>2.16</v>
+        <v>1.69</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -1704,7 +1707,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -1722,16 +1725,16 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
         <v>11</v>
       </c>
       <c r="I36">
-        <v>2.3100000000000005</v>
+        <v>2.3599999999999994</v>
       </c>
       <c r="J36">
-        <v>2.2600000000000002</v>
+        <v>1.02</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -1739,16 +1742,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1760,13 +1763,13 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I37">
-        <v>2.9000000000000004</v>
+        <v>2.8</v>
       </c>
       <c r="J37">
-        <v>0.97</v>
+        <v>1.28</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -1774,13 +1777,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -1798,10 +1801,10 @@
         <v>11</v>
       </c>
       <c r="I38">
-        <v>1.77</v>
+        <v>2.3599999999999994</v>
       </c>
       <c r="J38">
-        <v>2.2200000000000002</v>
+        <v>1.92</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -1809,13 +1812,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
@@ -1833,10 +1836,10 @@
         <v>15</v>
       </c>
       <c r="I39">
-        <v>2.5099999999999998</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="J39">
-        <v>2.4000000000000004</v>
+        <v>1.82</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -1844,13 +1847,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
@@ -1868,10 +1871,10 @@
         <v>15</v>
       </c>
       <c r="I40">
-        <v>1.6800000000000002</v>
+        <v>1.98</v>
       </c>
       <c r="J40">
-        <v>1.8699999999999999</v>
+        <v>1.31</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -1888,25 +1891,25 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I41">
-        <v>1.58</v>
+        <v>1.5699999999999998</v>
       </c>
       <c r="J41">
-        <v>1.8599999999999999</v>
+        <v>1.3399999999999999</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -1914,13 +1917,13 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -1938,10 +1941,10 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>2.25</v>
+        <v>2.99</v>
       </c>
       <c r="J42">
-        <v>2.1500000000000004</v>
+        <v>1.95</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -1949,13 +1952,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
@@ -1973,10 +1976,10 @@
         <v>15</v>
       </c>
       <c r="I43">
-        <v>2.58</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="J43">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -1984,13 +1987,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
@@ -1999,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2008,10 +2011,10 @@
         <v>11</v>
       </c>
       <c r="I44">
-        <v>1.6400000000000001</v>
+        <v>2.7200000000000006</v>
       </c>
       <c r="J44">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -2019,13 +2022,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -2043,10 +2046,10 @@
         <v>11</v>
       </c>
       <c r="I45">
-        <v>2.2400000000000002</v>
+        <v>2.6899999999999995</v>
       </c>
       <c r="J45">
-        <v>2.3400000000000003</v>
+        <v>1.97</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -2054,19 +2057,19 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
         <v>14</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2078,10 +2081,10 @@
         <v>15</v>
       </c>
       <c r="I46">
-        <v>2.4000000000000004</v>
+        <v>2.3900000000000006</v>
       </c>
       <c r="J46">
-        <v>2.3600000000000003</v>
+        <v>2.16</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -2089,16 +2092,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2110,13 +2113,13 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I47">
-        <v>2.63</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J47">
-        <v>1.8399999999999999</v>
+        <v>2.2600000000000002</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -2124,16 +2127,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2145,13 +2148,13 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I48">
-        <v>1.8599999999999999</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="J48">
-        <v>2.3400000000000003</v>
+        <v>0.97</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -2159,13 +2162,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -2174,19 +2177,19 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
         <v>15</v>
       </c>
       <c r="I49">
-        <v>2.2300000000000004</v>
+        <v>1.77</v>
       </c>
       <c r="J49">
-        <v>1.66</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -2194,13 +2197,13 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
@@ -2218,10 +2221,10 @@
         <v>15</v>
       </c>
       <c r="I50">
-        <v>1.81</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J50">
-        <v>1.66</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
@@ -2253,10 +2256,10 @@
         <v>15</v>
       </c>
       <c r="I51">
-        <v>1.8599999999999999</v>
+        <v>1.6800000000000002</v>
       </c>
       <c r="J51">
-        <v>2.14</v>
+        <v>1.8699999999999999</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -2264,7 +2267,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -2288,10 +2291,10 @@
         <v>15</v>
       </c>
       <c r="I52">
-        <v>2.92</v>
+        <v>1.58</v>
       </c>
       <c r="J52">
-        <v>0.96</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -2299,16 +2302,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2320,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I53">
-        <v>2.83</v>
+        <v>2.25</v>
       </c>
       <c r="J53">
-        <v>1.3599999999999999</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -2334,7 +2337,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
         <v>12</v>
@@ -2352,16 +2355,16 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="s">
         <v>15</v>
       </c>
       <c r="I54">
-        <v>2.6099999999999994</v>
+        <v>2.58</v>
       </c>
       <c r="J54">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -2369,13 +2372,13 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
         <v>14</v>
@@ -2393,10 +2396,10 @@
         <v>15</v>
       </c>
       <c r="I55">
-        <v>2.1799999999999997</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="J55">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -2404,7 +2407,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -2428,10 +2431,10 @@
         <v>15</v>
       </c>
       <c r="I56">
-        <v>2.34</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="J56">
-        <v>2.4300000000000002</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -2439,7 +2442,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -2448,25 +2451,25 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I57">
-        <v>2.92</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="J57">
-        <v>2.27</v>
+        <v>2.3600000000000003</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -2474,13 +2477,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
@@ -2489,19 +2492,19 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="s">
         <v>15</v>
       </c>
       <c r="I58">
-        <v>1.94</v>
+        <v>2.63</v>
       </c>
       <c r="J58">
-        <v>1.45</v>
+        <v>1.8399999999999999</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -2509,13 +2512,13 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
@@ -2527,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
         <v>11</v>
       </c>
       <c r="I59">
-        <v>1.9700000000000002</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="J59">
-        <v>1.24</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -2544,13 +2547,13 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
@@ -2568,10 +2571,10 @@
         <v>15</v>
       </c>
       <c r="I60">
-        <v>2.9700000000000006</v>
+        <v>2.2300000000000004</v>
       </c>
       <c r="J60">
-        <v>1.51</v>
+        <v>1.66</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -2588,7 +2591,7 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2597,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I61">
-        <v>1.8599999999999999</v>
+        <v>1.81</v>
       </c>
       <c r="J61">
-        <v>1.1299999999999999</v>
+        <v>1.66</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -2614,7 +2617,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B62" t="s">
         <v>12</v>
@@ -2632,16 +2635,16 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="s">
         <v>15</v>
       </c>
       <c r="I62">
-        <v>2.3200000000000003</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="J62">
-        <v>1.46</v>
+        <v>2.14</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -2649,7 +2652,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -2658,7 +2661,7 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2670,13 +2673,13 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I63">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="J63">
-        <v>2.1300000000000003</v>
+        <v>0.96</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -2684,16 +2687,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2705,13 +2708,13 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I64">
-        <v>1.5699999999999998</v>
+        <v>2.83</v>
       </c>
       <c r="J64">
-        <v>1.7</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -2719,16 +2722,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2740,13 +2743,13 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I65">
-        <v>2.2999999999999998</v>
+        <v>2.6099999999999994</v>
       </c>
       <c r="J65">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -2754,16 +2757,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2772,16 +2775,16 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I66">
-        <v>2.0499999999999998</v>
+        <v>2.1799999999999997</v>
       </c>
       <c r="J66">
-        <v>0.99</v>
+        <v>2.06</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -2789,13 +2792,13 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
         <v>10</v>
@@ -2813,10 +2816,10 @@
         <v>11</v>
       </c>
       <c r="I67">
-        <v>2.9800000000000004</v>
+        <v>2.34</v>
       </c>
       <c r="J67">
-        <v>1.27</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -2824,13 +2827,13 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
         <v>10</v>
@@ -2842,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="s">
         <v>11</v>
       </c>
       <c r="I68">
-        <v>1.9500000000000002</v>
+        <v>2.92</v>
       </c>
       <c r="J68">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -2859,7 +2862,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -2868,7 +2871,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2877,16 +2880,16 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I69">
-        <v>2.79</v>
+        <v>1.94</v>
       </c>
       <c r="J69">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -2894,16 +2897,16 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2915,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I70">
-        <v>2.13</v>
+        <v>1.9700000000000002</v>
       </c>
       <c r="J70">
-        <v>1.05</v>
+        <v>1.24</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -2929,7 +2932,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -2938,25 +2941,25 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I71">
-        <v>2.12</v>
+        <v>2.9700000000000006</v>
       </c>
       <c r="J71">
-        <v>1.07</v>
+        <v>1.51</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -2964,7 +2967,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -2976,7 +2979,7 @@
         <v>10</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2988,10 +2991,10 @@
         <v>11</v>
       </c>
       <c r="I72">
-        <v>2.7</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="J72">
-        <v>1.73</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -2999,7 +3002,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
@@ -3017,16 +3020,16 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="s">
         <v>15</v>
       </c>
       <c r="I73">
-        <v>2.7</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="J73">
-        <v>1.79</v>
+        <v>1.46</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -3034,13 +3037,13 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
@@ -3049,19 +3052,19 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="s">
         <v>11</v>
       </c>
       <c r="I74">
-        <v>2.13</v>
+        <v>2.74</v>
       </c>
       <c r="J74">
-        <v>1.95</v>
+        <v>2.1300000000000003</v>
       </c>
       <c r="K74">
         <v>2</v>
@@ -3069,13 +3072,13 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
@@ -3087,16 +3090,16 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="s">
         <v>11</v>
       </c>
       <c r="I75">
-        <v>2.2400000000000002</v>
+        <v>1.5699999999999998</v>
       </c>
       <c r="J75">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -3104,7 +3107,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
@@ -3128,10 +3131,10 @@
         <v>11</v>
       </c>
       <c r="I76">
-        <v>1.77</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J76">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
@@ -3163,10 +3166,10 @@
         <v>11</v>
       </c>
       <c r="I77">
-        <v>2.5999999999999996</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J77">
-        <v>2.0700000000000003</v>
+        <v>0.99</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -3174,13 +3177,13 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
         <v>10</v>
@@ -3198,10 +3201,10 @@
         <v>11</v>
       </c>
       <c r="I78">
-        <v>1.5</v>
+        <v>2.9800000000000004</v>
       </c>
       <c r="J78">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -3209,13 +3212,13 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -3233,10 +3236,10 @@
         <v>11</v>
       </c>
       <c r="I79">
-        <v>2.8</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="J79">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -3244,7 +3247,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -3268,10 +3271,10 @@
         <v>11</v>
       </c>
       <c r="I80">
-        <v>1.8399999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="J80">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B81" t="s">
         <v>12</v>
@@ -3297,16 +3300,16 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="s">
         <v>15</v>
       </c>
       <c r="I81">
-        <v>1.5899999999999999</v>
+        <v>2.13</v>
       </c>
       <c r="J81">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -3314,16 +3317,16 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3332,16 +3335,16 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I82">
-        <v>2.9000000000000004</v>
+        <v>2.12</v>
       </c>
       <c r="J82">
-        <v>0.98</v>
+        <v>1.07</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -3349,19 +3352,19 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3373,10 +3376,10 @@
         <v>15</v>
       </c>
       <c r="I83">
-        <v>2.2000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="J83">
-        <v>2.23</v>
+        <v>1.73</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -3384,16 +3387,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3402,16 +3405,16 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I84">
-        <v>1.9300000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="J84">
-        <v>2.37</v>
+        <v>1.79</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -3419,16 +3422,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3437,16 +3440,16 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I85">
-        <v>2.99</v>
+        <v>2.13</v>
       </c>
       <c r="J85">
-        <v>1.03</v>
+        <v>1.95</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -3454,7 +3457,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
@@ -3478,10 +3481,10 @@
         <v>11</v>
       </c>
       <c r="I86">
-        <v>2.8200000000000003</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="J86">
-        <v>2.0700000000000003</v>
+        <v>1.56</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -3489,16 +3492,16 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3507,16 +3510,16 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I87">
-        <v>2.88</v>
+        <v>1.77</v>
       </c>
       <c r="J87">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -3524,13 +3527,13 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
@@ -3548,10 +3551,10 @@
         <v>11</v>
       </c>
       <c r="I88">
-        <v>1.73</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="J88">
-        <v>1.05</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -3559,7 +3562,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
@@ -3568,7 +3571,7 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3577,16 +3580,16 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I89">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="J89">
-        <v>2.1700000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="K89">
         <v>2</v>
@@ -3594,13 +3597,13 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
         <v>14</v>
@@ -3612,16 +3615,16 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="s">
         <v>15</v>
       </c>
       <c r="I90">
-        <v>1.83</v>
+        <v>2.8</v>
       </c>
       <c r="J90">
-        <v>2.4400000000000004</v>
+        <v>2.12</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -3629,16 +3632,16 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3647,16 +3650,16 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I91">
-        <v>1.83</v>
+        <v>1.8399999999999999</v>
       </c>
       <c r="J91">
-        <v>1.26</v>
+        <v>1.91</v>
       </c>
       <c r="K91">
         <v>2</v>
@@ -3664,34 +3667,34 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I92">
-        <v>2.42</v>
+        <v>1.5899999999999999</v>
       </c>
       <c r="J92">
-        <v>2.0500000000000003</v>
+        <v>1.8</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -3699,16 +3702,16 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3717,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I93">
-        <v>1.77</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="J93">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="K93">
         <v>2</v>
@@ -3734,34 +3737,34 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I94">
-        <v>2.21</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J94">
-        <v>1.07</v>
+        <v>2.23</v>
       </c>
       <c r="K94">
         <v>2</v>
@@ -3769,13 +3772,13 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
@@ -3784,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>11</v>
       </c>
       <c r="I95">
-        <v>2.1799999999999997</v>
+        <v>1.9300000000000002</v>
       </c>
       <c r="J95">
-        <v>2.14</v>
+        <v>2.37</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -3804,16 +3807,16 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3822,16 +3825,16 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I96">
-        <v>2.3100000000000005</v>
+        <v>2.99</v>
       </c>
       <c r="J96">
-        <v>1.5799999999999998</v>
+        <v>1.03</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -3839,13 +3842,13 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
         <v>10</v>
@@ -3857,16 +3860,16 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="s">
         <v>11</v>
       </c>
       <c r="I97">
-        <v>1.6099999999999999</v>
+        <v>2.8200000000000003</v>
       </c>
       <c r="J97">
-        <v>1.67</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -3874,16 +3877,16 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3892,16 +3895,16 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I98">
-        <v>2.5299999999999994</v>
+        <v>2.88</v>
       </c>
       <c r="J98">
-        <v>2.0100000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -3909,7 +3912,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
@@ -3918,7 +3921,7 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -3927,16 +3930,16 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I99">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="J99">
-        <v>1.42</v>
+        <v>1.05</v>
       </c>
       <c r="K99">
         <v>2</v>
@@ -3944,16 +3947,16 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -3962,16 +3965,16 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I100">
-        <v>2.08</v>
+        <v>2.92</v>
       </c>
       <c r="J100">
-        <v>2.04</v>
+        <v>0.96</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -3979,7 +3982,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
@@ -3988,25 +3991,25 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I101">
-        <v>2.0299999999999994</v>
+        <v>1.63</v>
       </c>
       <c r="J101">
-        <v>1.0899999999999999</v>
+        <v>2.1700000000000004</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -4014,7 +4017,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B102" t="s">
         <v>12</v>
@@ -4032,22 +4035,478 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="s">
         <v>15</v>
       </c>
       <c r="I102">
+        <v>1.83</v>
+      </c>
+      <c r="J102">
+        <v>2.4400000000000004</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>203</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103">
+        <v>1.83</v>
+      </c>
+      <c r="J103">
+        <v>1.26</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>204</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104">
+        <v>2.42</v>
+      </c>
+      <c r="J104">
+        <v>2.0500000000000003</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>205</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105">
+        <v>1.77</v>
+      </c>
+      <c r="J105">
+        <v>0.97</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>206</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106">
+        <v>2.21</v>
+      </c>
+      <c r="J106">
+        <v>1.07</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>207</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107">
+        <v>2.1799999999999997</v>
+      </c>
+      <c r="J107">
+        <v>2.14</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>208</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108">
+        <v>2.3100000000000005</v>
+      </c>
+      <c r="J108">
+        <v>1.5799999999999998</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>209</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109">
+        <v>1.6099999999999999</v>
+      </c>
+      <c r="J109">
+        <v>1.67</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>210</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110">
+        <v>2.5299999999999994</v>
+      </c>
+      <c r="J110">
+        <v>2.0100000000000002</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>211</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J111">
+        <v>2.23</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>212</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112">
+        <v>1.54</v>
+      </c>
+      <c r="J112">
+        <v>1.42</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>213</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113">
+        <v>2.08</v>
+      </c>
+      <c r="J113">
+        <v>2.04</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>214</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114">
+        <v>2.0299999999999994</v>
+      </c>
+      <c r="J114">
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>215</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115">
         <v>1.8199999999999998</v>
       </c>
-      <c r="J102">
+      <c r="J115">
         <v>2.0900000000000003</v>
       </c>
-      <c r="K102">
+      <c r="K115">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE030A3-B991-440C-9792-39CEE70A2697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCA5080-FC64-4666-9B12-E503D683F304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -786,7 +786,7 @@
         <v>15</v>
       </c>
       <c r="I9">
-        <v>4.9399999999999995</v>
+        <v>5.01</v>
       </c>
       <c r="J9">
         <v>2.16</v>
@@ -926,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="I13">
-        <v>4.79</v>
+        <v>5.01</v>
       </c>
       <c r="J13">
         <v>2.31</v>
@@ -1066,7 +1066,7 @@
         <v>11</v>
       </c>
       <c r="I17">
-        <v>4.9700000000000006</v>
+        <v>5.01</v>
       </c>
       <c r="J17">
         <v>0.97</v>
@@ -1136,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="I19">
-        <v>4.9800000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J19">
         <v>1.19</v>
@@ -1171,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="I20">
-        <v>4.95</v>
+        <v>5.01</v>
       </c>
       <c r="J20">
         <v>1.1299999999999999</v>
@@ -1311,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="I24">
-        <v>4.99</v>
+        <v>5.01</v>
       </c>
       <c r="J24">
         <v>1.78</v>
@@ -1346,7 +1346,7 @@
         <v>15</v>
       </c>
       <c r="I25">
-        <v>4.95</v>
+        <v>5.01</v>
       </c>
       <c r="J25">
         <v>1.91</v>
@@ -1416,7 +1416,7 @@
         <v>15</v>
       </c>
       <c r="I27">
-        <v>4.96</v>
+        <v>5.01</v>
       </c>
       <c r="J27">
         <v>1.92</v>
@@ -1556,7 +1556,7 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>4.6500000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J31">
         <v>1.48</v>
@@ -1766,7 +1766,7 @@
         <v>15</v>
       </c>
       <c r="I37">
-        <v>4.8</v>
+        <v>5.01</v>
       </c>
       <c r="J37">
         <v>1.28</v>
@@ -1941,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>4.99</v>
+        <v>5.01</v>
       </c>
       <c r="J42">
         <v>1.95</v>
@@ -2151,7 +2151,7 @@
         <v>11</v>
       </c>
       <c r="I48">
-        <v>4.9000000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J48">
         <v>0.97</v>
@@ -2676,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="I63">
-        <v>4.92</v>
+        <v>5.01</v>
       </c>
       <c r="J63">
         <v>0.96</v>
@@ -2711,7 +2711,7 @@
         <v>11</v>
       </c>
       <c r="I64">
-        <v>4.83</v>
+        <v>5.01</v>
       </c>
       <c r="J64">
         <v>1.3599999999999999</v>
@@ -2851,7 +2851,7 @@
         <v>11</v>
       </c>
       <c r="I68">
-        <v>4.92</v>
+        <v>5.01</v>
       </c>
       <c r="J68">
         <v>2.27</v>
@@ -2956,7 +2956,7 @@
         <v>11</v>
       </c>
       <c r="I71">
-        <v>4.9700000000000006</v>
+        <v>5.01</v>
       </c>
       <c r="J71">
         <v>1.51</v>
@@ -3061,7 +3061,7 @@
         <v>11</v>
       </c>
       <c r="I74">
-        <v>4.74</v>
+        <v>5.01</v>
       </c>
       <c r="J74">
         <v>2.1300000000000003</v>
@@ -3201,7 +3201,7 @@
         <v>11</v>
       </c>
       <c r="I78">
-        <v>4.9800000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J78">
         <v>1.27</v>
@@ -3271,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="I80">
-        <v>4.79</v>
+        <v>5.01</v>
       </c>
       <c r="J80">
         <v>2.25</v>
@@ -3376,7 +3376,7 @@
         <v>15</v>
       </c>
       <c r="I83">
-        <v>4.7</v>
+        <v>5.01</v>
       </c>
       <c r="J83">
         <v>1.73</v>
@@ -3621,7 +3621,7 @@
         <v>15</v>
       </c>
       <c r="I90">
-        <v>4.8</v>
+        <v>5.01</v>
       </c>
       <c r="J90">
         <v>2.12</v>
@@ -3726,7 +3726,7 @@
         <v>15</v>
       </c>
       <c r="I93">
-        <v>4.9000000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J93">
         <v>0.98</v>
@@ -3831,7 +3831,7 @@
         <v>15</v>
       </c>
       <c r="I96">
-        <v>4.99</v>
+        <v>5.01</v>
       </c>
       <c r="J96">
         <v>1.03</v>
@@ -3866,7 +3866,7 @@
         <v>11</v>
       </c>
       <c r="I97">
-        <v>4.82</v>
+        <v>5.01</v>
       </c>
       <c r="J97">
         <v>2.0700000000000003</v>
@@ -3901,7 +3901,7 @@
         <v>15</v>
       </c>
       <c r="I98">
-        <v>4.88</v>
+        <v>5.01</v>
       </c>
       <c r="J98">
         <v>1.9</v>
@@ -3971,7 +3971,7 @@
         <v>15</v>
       </c>
       <c r="I100">
-        <v>4.92</v>
+        <v>5.01</v>
       </c>
       <c r="J100">
         <v>0.96</v>

--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCA5080-FC64-4666-9B12-E503D683F304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDF88BB-45D3-4BD7-8FA0-8650F38AA602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$114</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="20">
   <si>
     <t>Fractal_img</t>
   </si>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,7 +517,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -535,16 +535,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2">
-        <v>3.74</v>
+        <v>3.63</v>
       </c>
       <c r="J2">
-        <v>1.1399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,16 +552,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -573,13 +573,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3">
-        <v>3.63</v>
+        <v>3.6</v>
       </c>
       <c r="J3">
-        <v>0.99</v>
+        <v>1.43</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -587,16 +587,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I4">
-        <v>3.6</v>
+        <v>4.17</v>
       </c>
       <c r="J4">
-        <v>1.43</v>
+        <v>1.99</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -622,16 +622,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -643,13 +643,13 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I5">
-        <v>4.17</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="J5">
-        <v>1.99</v>
+        <v>1.3699999999999999</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -657,16 +657,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I6">
-        <v>4.7300000000000004</v>
+        <v>3.64</v>
       </c>
       <c r="J6">
-        <v>1.3699999999999999</v>
+        <v>2.29</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -692,13 +692,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -716,10 +716,10 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>3.64</v>
+        <v>3.75</v>
       </c>
       <c r="J7">
-        <v>2.29</v>
+        <v>2.4200000000000004</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -727,16 +727,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -748,13 +748,13 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I8">
-        <v>3.75</v>
+        <v>5.01</v>
       </c>
       <c r="J8">
-        <v>2.4200000000000004</v>
+        <v>2.16</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -762,34 +762,34 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I9">
-        <v>5.01</v>
+        <v>4.2200000000000006</v>
       </c>
       <c r="J9">
-        <v>2.16</v>
+        <v>1.06</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -797,34 +797,34 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I10">
-        <v>4.2200000000000006</v>
+        <v>3.67</v>
       </c>
       <c r="J10">
-        <v>1.06</v>
+        <v>1.29</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -832,16 +832,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I11">
-        <v>3.67</v>
+        <v>4.01</v>
       </c>
       <c r="J11">
-        <v>1.29</v>
+        <v>2.16</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -891,10 +891,10 @@
         <v>11</v>
       </c>
       <c r="I12">
-        <v>4.01</v>
+        <v>5.01</v>
       </c>
       <c r="J12">
-        <v>2.16</v>
+        <v>2.31</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -902,13 +902,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -920,16 +920,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
       </c>
       <c r="I13">
-        <v>5.01</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="J13">
-        <v>2.31</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -937,16 +937,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>4.2300000000000004</v>
+        <v>4.76</v>
       </c>
       <c r="J14">
-        <v>2.3000000000000003</v>
+        <v>1.17</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -972,34 +972,34 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I15">
-        <v>4.76</v>
+        <v>3.58</v>
       </c>
       <c r="J15">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1007,13 +1007,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s">
         <v>11</v>
       </c>
       <c r="I16">
-        <v>3.58</v>
+        <v>5.01</v>
       </c>
       <c r="J16">
-        <v>1.46</v>
+        <v>0.97</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1042,16 +1042,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I17">
-        <v>5.01</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J17">
-        <v>0.97</v>
+        <v>1.99</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I18">
-        <v>4.3100000000000005</v>
+        <v>5.01</v>
       </c>
       <c r="J18">
-        <v>1.99</v>
+        <v>1.19</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1112,13 +1112,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -1139,7 +1139,7 @@
         <v>5.01</v>
       </c>
       <c r="J19">
-        <v>1.19</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1147,13 +1147,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -1171,10 +1171,10 @@
         <v>11</v>
       </c>
       <c r="I20">
-        <v>5.01</v>
+        <v>4.76</v>
       </c>
       <c r="J20">
-        <v>1.1299999999999999</v>
+        <v>1.95</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1182,13 +1182,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1206,10 +1206,10 @@
         <v>11</v>
       </c>
       <c r="I21">
-        <v>4.76</v>
+        <v>4.57</v>
       </c>
       <c r="J21">
-        <v>1.95</v>
+        <v>2.23</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1241,10 +1241,10 @@
         <v>11</v>
       </c>
       <c r="I22">
-        <v>4.57</v>
+        <v>3.66</v>
       </c>
       <c r="J22">
-        <v>2.23</v>
+        <v>1.73</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1252,16 +1252,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1270,16 +1270,16 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I23">
-        <v>3.66</v>
+        <v>5.01</v>
       </c>
       <c r="J23">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -1314,7 +1314,7 @@
         <v>5.01</v>
       </c>
       <c r="J24">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -1346,10 +1346,10 @@
         <v>15</v>
       </c>
       <c r="I25">
-        <v>5.01</v>
+        <v>4.79</v>
       </c>
       <c r="J25">
-        <v>1.91</v>
+        <v>2.31</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1357,19 +1357,19 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>15</v>
       </c>
       <c r="I26">
-        <v>4.79</v>
+        <v>5.01</v>
       </c>
       <c r="J26">
-        <v>2.31</v>
+        <v>1.92</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -1392,34 +1392,34 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
       </c>
       <c r="I27">
-        <v>5.01</v>
+        <v>4.05</v>
       </c>
       <c r="J27">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -1427,13 +1427,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -1445,16 +1445,16 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
       </c>
       <c r="I28">
-        <v>4.05</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J28">
-        <v>1.9</v>
+        <v>2.37</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1486,10 +1486,10 @@
         <v>15</v>
       </c>
       <c r="I29">
-        <v>4.3100000000000005</v>
+        <v>4.08</v>
       </c>
       <c r="J29">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1521,10 +1521,10 @@
         <v>15</v>
       </c>
       <c r="I30">
-        <v>4.08</v>
+        <v>5.01</v>
       </c>
       <c r="J30">
-        <v>2.25</v>
+        <v>1.48</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -1532,13 +1532,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -1550,16 +1550,16 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
       </c>
       <c r="I31">
-        <v>5.01</v>
+        <v>3.52</v>
       </c>
       <c r="J31">
-        <v>1.48</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -1567,16 +1567,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I32">
-        <v>3.52</v>
+        <v>4.42</v>
       </c>
       <c r="J32">
-        <v>1.3499999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -1602,16 +1602,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1620,16 +1620,16 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I33">
-        <v>4.42</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J33">
-        <v>1.24</v>
+        <v>2.14</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1661,10 +1661,10 @@
         <v>15</v>
       </c>
       <c r="I34">
-        <v>4.1099999999999994</v>
+        <v>3.64</v>
       </c>
       <c r="J34">
-        <v>2.14</v>
+        <v>1.69</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -1672,16 +1672,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I35">
-        <v>3.64</v>
+        <v>4.3599999999999994</v>
       </c>
       <c r="J35">
-        <v>1.69</v>
+        <v>1.02</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -1707,16 +1707,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1728,13 +1728,13 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I36">
-        <v>4.3599999999999994</v>
+        <v>5.01</v>
       </c>
       <c r="J36">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -1742,16 +1742,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1763,13 +1763,13 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I37">
-        <v>5.01</v>
+        <v>4.3599999999999994</v>
       </c>
       <c r="J37">
-        <v>1.28</v>
+        <v>1.92</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1795,16 +1795,16 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I38">
-        <v>4.3599999999999994</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J38">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -1836,10 +1836,10 @@
         <v>15</v>
       </c>
       <c r="I39">
-        <v>4.4000000000000004</v>
+        <v>3.98</v>
       </c>
       <c r="J39">
-        <v>1.82</v>
+        <v>1.31</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -1862,19 +1862,19 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
         <v>15</v>
       </c>
       <c r="I40">
-        <v>3.98</v>
+        <v>3.57</v>
       </c>
       <c r="J40">
-        <v>1.31</v>
+        <v>1.3399999999999999</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -1882,34 +1882,34 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I41">
-        <v>3.57</v>
+        <v>5.01</v>
       </c>
       <c r="J41">
-        <v>1.3399999999999999</v>
+        <v>1.95</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I42">
-        <v>5.01</v>
+        <v>4.07</v>
       </c>
       <c r="J42">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -1952,16 +1952,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I43">
-        <v>4.07</v>
+        <v>4.7200000000000006</v>
       </c>
       <c r="J43">
-        <v>1.69</v>
+        <v>2.29</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>11</v>
       </c>
       <c r="I44">
-        <v>4.7200000000000006</v>
+        <v>4.6899999999999995</v>
       </c>
       <c r="J44">
-        <v>2.29</v>
+        <v>1.97</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -2022,16 +2022,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2040,16 +2040,16 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I45">
-        <v>4.6899999999999995</v>
+        <v>4.3900000000000006</v>
       </c>
       <c r="J45">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I46">
-        <v>4.3900000000000006</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J46">
-        <v>2.16</v>
+        <v>2.2600000000000002</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -2110,16 +2110,16 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="s">
         <v>11</v>
       </c>
       <c r="I47">
-        <v>4.3100000000000005</v>
+        <v>5.01</v>
       </c>
       <c r="J47">
-        <v>2.2600000000000002</v>
+        <v>0.97</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -2127,34 +2127,34 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I48">
-        <v>5.01</v>
+        <v>3.77</v>
       </c>
       <c r="J48">
-        <v>0.97</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -2162,13 +2162,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -2177,19 +2177,19 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="s">
         <v>15</v>
       </c>
       <c r="I49">
-        <v>3.77</v>
+        <v>4.51</v>
       </c>
       <c r="J49">
-        <v>2.2200000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
@@ -2221,10 +2221,10 @@
         <v>15</v>
       </c>
       <c r="I50">
-        <v>4.51</v>
+        <v>3.68</v>
       </c>
       <c r="J50">
-        <v>2.4000000000000004</v>
+        <v>1.8699999999999999</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -2232,13 +2232,13 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
@@ -2256,10 +2256,10 @@
         <v>15</v>
       </c>
       <c r="I51">
-        <v>3.68</v>
+        <v>3.58</v>
       </c>
       <c r="J51">
-        <v>1.8699999999999999</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -2291,10 +2291,10 @@
         <v>15</v>
       </c>
       <c r="I52">
-        <v>3.58</v>
+        <v>4.25</v>
       </c>
       <c r="J52">
-        <v>1.8599999999999999</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -2302,13 +2302,13 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
@@ -2326,10 +2326,10 @@
         <v>15</v>
       </c>
       <c r="I53">
-        <v>4.25</v>
+        <v>4.58</v>
       </c>
       <c r="J53">
-        <v>2.1500000000000004</v>
+        <v>1.7</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -2337,13 +2337,13 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
@@ -2361,10 +2361,10 @@
         <v>15</v>
       </c>
       <c r="I54">
-        <v>4.58</v>
+        <v>3.64</v>
       </c>
       <c r="J54">
-        <v>1.7</v>
+        <v>2.33</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2396,10 +2396,10 @@
         <v>15</v>
       </c>
       <c r="I55">
-        <v>3.64</v>
+        <v>4.24</v>
       </c>
       <c r="J55">
-        <v>2.33</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -2416,25 +2416,25 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I56">
-        <v>4.24</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J56">
-        <v>2.3400000000000003</v>
+        <v>2.3600000000000003</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -2442,34 +2442,34 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I57">
-        <v>4.4000000000000004</v>
+        <v>4.63</v>
       </c>
       <c r="J57">
-        <v>2.3600000000000003</v>
+        <v>1.8399999999999999</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2495,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I58">
-        <v>4.63</v>
+        <v>3.86</v>
       </c>
       <c r="J58">
-        <v>1.8399999999999999</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -2512,16 +2512,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I59">
-        <v>3.86</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="J59">
-        <v>2.3400000000000003</v>
+        <v>1.66</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -2547,16 +2547,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2565,13 +2565,13 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I60">
-        <v>4.2300000000000004</v>
+        <v>3.81</v>
       </c>
       <c r="J60">
         <v>1.66</v>
@@ -2582,16 +2582,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I61">
-        <v>3.81</v>
+        <v>3.86</v>
       </c>
       <c r="J61">
-        <v>1.66</v>
+        <v>2.14</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -2617,16 +2617,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2638,13 +2638,13 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I62">
-        <v>3.86</v>
+        <v>5.01</v>
       </c>
       <c r="J62">
-        <v>2.14</v>
+        <v>0.96</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -2652,13 +2652,13 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
@@ -2679,7 +2679,7 @@
         <v>5.01</v>
       </c>
       <c r="J63">
-        <v>0.96</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -2687,16 +2687,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2705,16 +2705,16 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I64">
-        <v>5.01</v>
+        <v>4.6099999999999994</v>
       </c>
       <c r="J64">
-        <v>1.3599999999999999</v>
+        <v>1.71</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
@@ -2740,16 +2740,16 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="s">
         <v>15</v>
       </c>
       <c r="I65">
-        <v>4.6099999999999994</v>
+        <v>4.18</v>
       </c>
       <c r="J65">
-        <v>1.71</v>
+        <v>2.06</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -2757,16 +2757,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2775,16 +2775,16 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I66">
-        <v>4.18</v>
+        <v>4.34</v>
       </c>
       <c r="J66">
-        <v>2.06</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -2810,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="s">
         <v>11</v>
       </c>
       <c r="I67">
-        <v>4.34</v>
+        <v>5.01</v>
       </c>
       <c r="J67">
-        <v>2.4300000000000002</v>
+        <v>2.27</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="s">
         <v>11</v>
       </c>
       <c r="I68">
-        <v>5.01</v>
+        <v>3.94</v>
       </c>
       <c r="J68">
-        <v>2.27</v>
+        <v>1.45</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -2862,13 +2862,13 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
@@ -2880,16 +2880,16 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="s">
         <v>11</v>
       </c>
       <c r="I69">
-        <v>3.94</v>
+        <v>3.97</v>
       </c>
       <c r="J69">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -2897,13 +2897,13 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
@@ -2915,16 +2915,16 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
         <v>11</v>
       </c>
       <c r="I70">
-        <v>3.97</v>
+        <v>5.01</v>
       </c>
       <c r="J70">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -2956,10 +2956,10 @@
         <v>11</v>
       </c>
       <c r="I71">
-        <v>5.01</v>
+        <v>3.86</v>
       </c>
       <c r="J71">
-        <v>1.51</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -2967,16 +2967,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2988,13 +2988,13 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I72">
-        <v>3.86</v>
+        <v>4.32</v>
       </c>
       <c r="J72">
-        <v>1.1299999999999999</v>
+        <v>1.46</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -3002,34 +3002,34 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I73">
-        <v>4.32</v>
+        <v>5.01</v>
       </c>
       <c r="J73">
-        <v>1.46</v>
+        <v>2.1300000000000003</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -3052,19 +3052,19 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="s">
         <v>11</v>
       </c>
       <c r="I74">
-        <v>5.01</v>
+        <v>3.57</v>
       </c>
       <c r="J74">
-        <v>2.1300000000000003</v>
+        <v>1.7</v>
       </c>
       <c r="K74">
         <v>2</v>
@@ -3072,13 +3072,13 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
@@ -3096,10 +3096,10 @@
         <v>11</v>
       </c>
       <c r="I75">
-        <v>3.57</v>
+        <v>4.3</v>
       </c>
       <c r="J75">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
@@ -3131,10 +3131,10 @@
         <v>11</v>
       </c>
       <c r="I76">
-        <v>4.3</v>
+        <v>4.05</v>
       </c>
       <c r="J76">
-        <v>1.51</v>
+        <v>0.99</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
@@ -3166,10 +3166,10 @@
         <v>11</v>
       </c>
       <c r="I77">
-        <v>4.05</v>
+        <v>5.01</v>
       </c>
       <c r="J77">
-        <v>0.99</v>
+        <v>1.27</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
@@ -3201,10 +3201,10 @@
         <v>11</v>
       </c>
       <c r="I78">
-        <v>5.01</v>
+        <v>3.95</v>
       </c>
       <c r="J78">
-        <v>1.27</v>
+        <v>1.91</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -3212,13 +3212,13 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -3236,10 +3236,10 @@
         <v>11</v>
       </c>
       <c r="I79">
-        <v>3.95</v>
+        <v>5.01</v>
       </c>
       <c r="J79">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -3247,16 +3247,16 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I80">
-        <v>5.01</v>
+        <v>4.13</v>
       </c>
       <c r="J80">
-        <v>2.25</v>
+        <v>1.05</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -3282,16 +3282,16 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3300,16 +3300,16 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I81">
-        <v>4.13</v>
+        <v>4.12</v>
       </c>
       <c r="J81">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -3326,25 +3326,25 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I82">
-        <v>4.12</v>
+        <v>5.01</v>
       </c>
       <c r="J82">
-        <v>1.07</v>
+        <v>1.73</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -3352,19 +3352,19 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3376,10 +3376,10 @@
         <v>15</v>
       </c>
       <c r="I83">
-        <v>5.01</v>
+        <v>4.7</v>
       </c>
       <c r="J83">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -3387,16 +3387,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3405,16 +3405,16 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I84">
-        <v>4.7</v>
+        <v>4.13</v>
       </c>
       <c r="J84">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
@@ -3440,16 +3440,16 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="s">
         <v>11</v>
       </c>
       <c r="I85">
-        <v>4.13</v>
+        <v>4.24</v>
       </c>
       <c r="J85">
-        <v>1.95</v>
+        <v>1.56</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
@@ -3475,16 +3475,16 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
         <v>11</v>
       </c>
       <c r="I86">
-        <v>4.24</v>
+        <v>3.77</v>
       </c>
       <c r="J86">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
@@ -3516,10 +3516,10 @@
         <v>11</v>
       </c>
       <c r="I87">
-        <v>3.77</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J87">
-        <v>1.68</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -3527,16 +3527,16 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3545,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I88">
-        <v>4.5999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="J88">
-        <v>2.0700000000000003</v>
+        <v>1.3</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
@@ -3580,16 +3580,16 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="s">
         <v>15</v>
       </c>
       <c r="I89">
-        <v>3.5</v>
+        <v>5.01</v>
       </c>
       <c r="J89">
-        <v>1.3</v>
+        <v>2.12</v>
       </c>
       <c r="K89">
         <v>2</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
@@ -3615,16 +3615,16 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="s">
         <v>15</v>
       </c>
       <c r="I90">
-        <v>5.01</v>
+        <v>3.84</v>
       </c>
       <c r="J90">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -3632,13 +3632,13 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
@@ -3650,16 +3650,16 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
         <v>15</v>
       </c>
       <c r="I91">
-        <v>3.84</v>
+        <v>3.59</v>
       </c>
       <c r="J91">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="K91">
         <v>2</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
@@ -3685,16 +3685,16 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="s">
         <v>15</v>
       </c>
       <c r="I92">
-        <v>3.59</v>
+        <v>5.01</v>
       </c>
       <c r="J92">
-        <v>1.8</v>
+        <v>0.98</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B93" t="s">
         <v>12</v>
@@ -3726,10 +3726,10 @@
         <v>15</v>
       </c>
       <c r="I93">
-        <v>5.01</v>
+        <v>4.2</v>
       </c>
       <c r="J93">
-        <v>0.98</v>
+        <v>2.23</v>
       </c>
       <c r="K93">
         <v>2</v>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3755,16 +3755,16 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I94">
-        <v>4.2</v>
+        <v>3.93</v>
       </c>
       <c r="J94">
-        <v>2.23</v>
+        <v>2.37</v>
       </c>
       <c r="K94">
         <v>2</v>
@@ -3772,16 +3772,16 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I95">
-        <v>3.93</v>
+        <v>5.01</v>
       </c>
       <c r="J95">
-        <v>2.37</v>
+        <v>1.03</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -3807,16 +3807,16 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3828,13 +3828,13 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I96">
         <v>5.01</v>
       </c>
       <c r="J96">
-        <v>1.03</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -3842,16 +3842,16 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -3863,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I97">
         <v>5.01</v>
       </c>
       <c r="J97">
-        <v>2.0700000000000003</v>
+        <v>1.9</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -3877,13 +3877,13 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
@@ -3901,10 +3901,10 @@
         <v>15</v>
       </c>
       <c r="I98">
-        <v>5.01</v>
+        <v>3.73</v>
       </c>
       <c r="J98">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
@@ -3936,10 +3936,10 @@
         <v>15</v>
       </c>
       <c r="I99">
-        <v>3.73</v>
+        <v>5.01</v>
       </c>
       <c r="J99">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="K99">
         <v>2</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3971,10 +3971,10 @@
         <v>15</v>
       </c>
       <c r="I100">
-        <v>5.01</v>
+        <v>3.63</v>
       </c>
       <c r="J100">
-        <v>0.96</v>
+        <v>2.1700000000000004</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -3982,13 +3982,13 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -4006,10 +4006,10 @@
         <v>15</v>
       </c>
       <c r="I101">
-        <v>3.63</v>
+        <v>3.83</v>
       </c>
       <c r="J101">
-        <v>2.1700000000000004</v>
+        <v>2.4400000000000004</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -4017,16 +4017,16 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4035,16 +4035,16 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I102">
         <v>3.83</v>
       </c>
       <c r="J102">
-        <v>2.4400000000000004</v>
+        <v>1.26</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -4052,16 +4052,16 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4070,16 +4070,16 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I103">
-        <v>3.83</v>
+        <v>4.42</v>
       </c>
       <c r="J103">
-        <v>1.26</v>
+        <v>2.0500000000000003</v>
       </c>
       <c r="K103">
         <v>2</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
@@ -4111,10 +4111,10 @@
         <v>15</v>
       </c>
       <c r="I104">
-        <v>4.42</v>
+        <v>3.77</v>
       </c>
       <c r="J104">
-        <v>2.0500000000000003</v>
+        <v>0.97</v>
       </c>
       <c r="K104">
         <v>2</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
@@ -4146,10 +4146,10 @@
         <v>15</v>
       </c>
       <c r="I105">
-        <v>3.77</v>
+        <v>4.21</v>
       </c>
       <c r="J105">
-        <v>0.97</v>
+        <v>1.07</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
@@ -4172,19 +4172,19 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" t="s">
         <v>15</v>
       </c>
       <c r="I106">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="J106">
-        <v>1.07</v>
+        <v>2.14</v>
       </c>
       <c r="K106">
         <v>2</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
@@ -4207,19 +4207,19 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" t="s">
         <v>15</v>
       </c>
       <c r="I107">
-        <v>4.18</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J107">
-        <v>2.14</v>
+        <v>1.5799999999999998</v>
       </c>
       <c r="K107">
         <v>2</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
@@ -4242,19 +4242,19 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="s">
         <v>15</v>
       </c>
       <c r="I108">
-        <v>4.3100000000000005</v>
+        <v>3.61</v>
       </c>
       <c r="J108">
-        <v>1.5799999999999998</v>
+        <v>1.67</v>
       </c>
       <c r="K108">
         <v>2</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -4277,19 +4277,19 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" t="s">
         <v>15</v>
       </c>
       <c r="I109">
-        <v>3.61</v>
+        <v>4.5299999999999994</v>
       </c>
       <c r="J109">
-        <v>1.67</v>
+        <v>2.0100000000000002</v>
       </c>
       <c r="K109">
         <v>2</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
@@ -4321,10 +4321,10 @@
         <v>15</v>
       </c>
       <c r="I110">
-        <v>4.5299999999999994</v>
+        <v>4.2</v>
       </c>
       <c r="J110">
-        <v>2.0100000000000002</v>
+        <v>2.23</v>
       </c>
       <c r="K110">
         <v>2</v>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
@@ -4347,19 +4347,19 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="s">
         <v>15</v>
       </c>
       <c r="I111">
-        <v>4.2</v>
+        <v>3.54</v>
       </c>
       <c r="J111">
-        <v>2.23</v>
+        <v>1.42</v>
       </c>
       <c r="K111">
         <v>2</v>
@@ -4367,34 +4367,34 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112">
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I112">
-        <v>3.54</v>
+        <v>4.08</v>
       </c>
       <c r="J112">
-        <v>1.42</v>
+        <v>2.04</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -4402,16 +4402,16 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -4420,16 +4420,16 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I113">
-        <v>4.08</v>
+        <v>4.0299999999999994</v>
       </c>
       <c r="J113">
-        <v>2.04</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="K113">
         <v>2</v>
@@ -4437,13 +4437,13 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" t="s">
         <v>14</v>
@@ -4455,58 +4455,23 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" t="s">
         <v>15</v>
       </c>
       <c r="I114">
-        <v>4.0299999999999994</v>
+        <v>3.82</v>
       </c>
       <c r="J114">
-        <v>1.0899999999999999</v>
+        <v>2.0900000000000003</v>
       </c>
       <c r="K114">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A115">
-        <v>215</v>
-      </c>
-      <c r="B115" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
-      <c r="H115" t="s">
-        <v>15</v>
-      </c>
-      <c r="I115">
-        <v>3.82</v>
-      </c>
-      <c r="J115">
-        <v>2.0900000000000003</v>
-      </c>
-      <c r="K115">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K114" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2282457E-659D-4C53-A137-0D9EF46E434C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4B2F16-09CD-44A3-BFF4-CF28938F2AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$114</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="20">
   <si>
     <t>Fractal_img</t>
   </si>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,7 +517,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -535,16 +535,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2">
-        <v>1.7400000000000002</v>
+        <v>1.63</v>
       </c>
       <c r="J2">
-        <v>1.1399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,16 +552,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -573,13 +573,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="J3">
-        <v>0.99</v>
+        <v>1.43</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -587,16 +587,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I4">
-        <v>1.6</v>
+        <v>2.17</v>
       </c>
       <c r="J4">
-        <v>1.43</v>
+        <v>1.99</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -622,16 +622,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -643,13 +643,13 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I5">
-        <v>2.17</v>
+        <v>2.7300000000000004</v>
       </c>
       <c r="J5">
-        <v>1.99</v>
+        <v>1.3699999999999999</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -657,16 +657,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I6">
-        <v>2.7300000000000004</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="J6">
-        <v>1.3699999999999999</v>
+        <v>2.29</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -692,13 +692,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -716,10 +716,10 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>1.6400000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="J7">
-        <v>2.29</v>
+        <v>2.4200000000000004</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -727,16 +727,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -748,13 +748,13 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I8">
-        <v>1.75</v>
+        <v>2.9399999999999995</v>
       </c>
       <c r="J8">
-        <v>2.4200000000000004</v>
+        <v>2.16</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -762,34 +762,34 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I9">
-        <v>2.9399999999999995</v>
+        <v>2.2200000000000006</v>
       </c>
       <c r="J9">
-        <v>2.16</v>
+        <v>1.06</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -797,34 +797,34 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I10">
-        <v>2.2200000000000006</v>
+        <v>1.67</v>
       </c>
       <c r="J10">
-        <v>1.06</v>
+        <v>1.29</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -832,16 +832,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I11">
-        <v>1.67</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J11">
-        <v>1.29</v>
+        <v>2.16</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -891,10 +891,10 @@
         <v>11</v>
       </c>
       <c r="I12">
-        <v>2.0099999999999998</v>
+        <v>2.79</v>
       </c>
       <c r="J12">
-        <v>2.16</v>
+        <v>2.31</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -902,13 +902,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -920,16 +920,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
       </c>
       <c r="I13">
-        <v>2.79</v>
+        <v>2.2300000000000004</v>
       </c>
       <c r="J13">
-        <v>2.31</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -937,16 +937,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>2.2300000000000004</v>
+        <v>2.76</v>
       </c>
       <c r="J14">
-        <v>2.3000000000000003</v>
+        <v>1.17</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -972,34 +972,34 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I15">
-        <v>2.76</v>
+        <v>1.58</v>
       </c>
       <c r="J15">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1007,13 +1007,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s">
         <v>11</v>
       </c>
       <c r="I16">
-        <v>1.58</v>
+        <v>2.9700000000000006</v>
       </c>
       <c r="J16">
-        <v>1.46</v>
+        <v>0.97</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1042,16 +1042,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I17">
-        <v>2.9700000000000006</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J17">
-        <v>0.97</v>
+        <v>1.99</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I18">
-        <v>2.3100000000000005</v>
+        <v>2.9800000000000004</v>
       </c>
       <c r="J18">
-        <v>1.99</v>
+        <v>1.19</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1112,13 +1112,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -1136,10 +1136,10 @@
         <v>11</v>
       </c>
       <c r="I19">
-        <v>2.9800000000000004</v>
+        <v>2.95</v>
       </c>
       <c r="J19">
-        <v>1.19</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1147,13 +1147,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -1171,10 +1171,10 @@
         <v>11</v>
       </c>
       <c r="I20">
-        <v>2.95</v>
+        <v>2.76</v>
       </c>
       <c r="J20">
-        <v>1.1299999999999999</v>
+        <v>1.95</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1182,13 +1182,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1206,10 +1206,10 @@
         <v>11</v>
       </c>
       <c r="I21">
-        <v>2.76</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="J21">
-        <v>1.95</v>
+        <v>2.23</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1241,10 +1241,10 @@
         <v>11</v>
       </c>
       <c r="I22">
-        <v>2.5700000000000003</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="J22">
-        <v>2.23</v>
+        <v>1.73</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1252,16 +1252,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1270,16 +1270,16 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I23">
-        <v>1.6600000000000001</v>
+        <v>2.99</v>
       </c>
       <c r="J23">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -1311,10 +1311,10 @@
         <v>15</v>
       </c>
       <c r="I24">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="J24">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -1346,10 +1346,10 @@
         <v>15</v>
       </c>
       <c r="I25">
-        <v>2.95</v>
+        <v>2.79</v>
       </c>
       <c r="J25">
-        <v>1.91</v>
+        <v>2.31</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1357,19 +1357,19 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>15</v>
       </c>
       <c r="I26">
-        <v>2.79</v>
+        <v>2.96</v>
       </c>
       <c r="J26">
-        <v>2.31</v>
+        <v>1.92</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -1392,34 +1392,34 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
       </c>
       <c r="I27">
-        <v>2.96</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J27">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -1427,13 +1427,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -1445,16 +1445,16 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
       </c>
       <c r="I28">
-        <v>2.0499999999999998</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J28">
-        <v>1.9</v>
+        <v>2.37</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1486,10 +1486,10 @@
         <v>15</v>
       </c>
       <c r="I29">
-        <v>2.3100000000000005</v>
+        <v>2.08</v>
       </c>
       <c r="J29">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1521,10 +1521,10 @@
         <v>15</v>
       </c>
       <c r="I30">
-        <v>2.08</v>
+        <v>2.6500000000000004</v>
       </c>
       <c r="J30">
-        <v>2.25</v>
+        <v>1.48</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -1532,13 +1532,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -1550,16 +1550,16 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
       </c>
       <c r="I31">
-        <v>2.6500000000000004</v>
+        <v>1.52</v>
       </c>
       <c r="J31">
-        <v>1.48</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -1567,16 +1567,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I32">
-        <v>1.52</v>
+        <v>2.42</v>
       </c>
       <c r="J32">
-        <v>1.3499999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -1602,16 +1602,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1620,16 +1620,16 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I33">
-        <v>2.42</v>
+        <v>2.1099999999999994</v>
       </c>
       <c r="J33">
-        <v>1.24</v>
+        <v>2.14</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1661,10 +1661,10 @@
         <v>15</v>
       </c>
       <c r="I34">
-        <v>2.1099999999999994</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="J34">
-        <v>2.14</v>
+        <v>1.69</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -1672,16 +1672,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I35">
-        <v>1.6400000000000001</v>
+        <v>2.3599999999999994</v>
       </c>
       <c r="J35">
-        <v>1.69</v>
+        <v>1.02</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -1707,16 +1707,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1728,13 +1728,13 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I36">
-        <v>2.3599999999999994</v>
+        <v>2.8</v>
       </c>
       <c r="J36">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -1742,16 +1742,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1763,13 +1763,13 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I37">
-        <v>2.8</v>
+        <v>2.3599999999999994</v>
       </c>
       <c r="J37">
-        <v>1.28</v>
+        <v>1.92</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1795,16 +1795,16 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I38">
-        <v>2.3599999999999994</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="J38">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -1836,10 +1836,10 @@
         <v>15</v>
       </c>
       <c r="I39">
-        <v>2.4000000000000004</v>
+        <v>1.98</v>
       </c>
       <c r="J39">
-        <v>1.82</v>
+        <v>1.31</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -1862,19 +1862,19 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
         <v>15</v>
       </c>
       <c r="I40">
-        <v>1.98</v>
+        <v>1.5699999999999998</v>
       </c>
       <c r="J40">
-        <v>1.31</v>
+        <v>1.3399999999999999</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -1882,34 +1882,34 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I41">
-        <v>1.5699999999999998</v>
+        <v>2.99</v>
       </c>
       <c r="J41">
-        <v>1.3399999999999999</v>
+        <v>1.95</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I42">
-        <v>2.99</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="J42">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -1952,16 +1952,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I43">
-        <v>2.0700000000000003</v>
+        <v>2.7200000000000006</v>
       </c>
       <c r="J43">
-        <v>1.69</v>
+        <v>2.29</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>11</v>
       </c>
       <c r="I44">
-        <v>2.7200000000000006</v>
+        <v>2.6899999999999995</v>
       </c>
       <c r="J44">
-        <v>2.29</v>
+        <v>1.97</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -2022,16 +2022,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2040,16 +2040,16 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I45">
-        <v>2.6899999999999995</v>
+        <v>2.3900000000000006</v>
       </c>
       <c r="J45">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I46">
-        <v>2.3900000000000006</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J46">
-        <v>2.16</v>
+        <v>2.2600000000000002</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -2110,16 +2110,16 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="s">
         <v>11</v>
       </c>
       <c r="I47">
-        <v>2.3100000000000005</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="J47">
-        <v>2.2600000000000002</v>
+        <v>0.97</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -2127,34 +2127,34 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I48">
-        <v>2.9000000000000004</v>
+        <v>1.77</v>
       </c>
       <c r="J48">
-        <v>0.97</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -2162,13 +2162,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -2177,19 +2177,19 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="s">
         <v>15</v>
       </c>
       <c r="I49">
-        <v>1.77</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J49">
-        <v>2.2200000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
@@ -2221,10 +2221,10 @@
         <v>15</v>
       </c>
       <c r="I50">
-        <v>2.5099999999999998</v>
+        <v>1.6800000000000002</v>
       </c>
       <c r="J50">
-        <v>2.4000000000000004</v>
+        <v>1.8699999999999999</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -2232,13 +2232,13 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
@@ -2256,10 +2256,10 @@
         <v>15</v>
       </c>
       <c r="I51">
-        <v>1.6800000000000002</v>
+        <v>1.58</v>
       </c>
       <c r="J51">
-        <v>1.8699999999999999</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -2291,10 +2291,10 @@
         <v>15</v>
       </c>
       <c r="I52">
-        <v>1.58</v>
+        <v>2.25</v>
       </c>
       <c r="J52">
-        <v>1.8599999999999999</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -2302,13 +2302,13 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
@@ -2326,10 +2326,10 @@
         <v>15</v>
       </c>
       <c r="I53">
-        <v>2.25</v>
+        <v>2.58</v>
       </c>
       <c r="J53">
-        <v>2.1500000000000004</v>
+        <v>1.7</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -2337,13 +2337,13 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
@@ -2361,10 +2361,10 @@
         <v>15</v>
       </c>
       <c r="I54">
-        <v>2.58</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="J54">
-        <v>1.7</v>
+        <v>2.33</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2396,10 +2396,10 @@
         <v>15</v>
       </c>
       <c r="I55">
-        <v>1.6400000000000001</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="J55">
-        <v>2.33</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -2416,25 +2416,25 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I56">
-        <v>2.2400000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="J56">
-        <v>2.3400000000000003</v>
+        <v>2.3600000000000003</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -2442,34 +2442,34 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I57">
-        <v>2.4000000000000004</v>
+        <v>2.63</v>
       </c>
       <c r="J57">
-        <v>2.3600000000000003</v>
+        <v>1.8399999999999999</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2495,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I58">
-        <v>2.63</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="J58">
-        <v>1.8399999999999999</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -2512,16 +2512,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I59">
-        <v>1.8599999999999999</v>
+        <v>2.2300000000000004</v>
       </c>
       <c r="J59">
-        <v>2.3400000000000003</v>
+        <v>1.66</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -2547,16 +2547,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2565,13 +2565,13 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I60">
-        <v>2.2300000000000004</v>
+        <v>1.81</v>
       </c>
       <c r="J60">
         <v>1.66</v>
@@ -2582,16 +2582,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I61">
-        <v>1.81</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="J61">
-        <v>1.66</v>
+        <v>2.14</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -2617,16 +2617,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2638,13 +2638,13 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I62">
-        <v>1.8599999999999999</v>
+        <v>2.92</v>
       </c>
       <c r="J62">
-        <v>2.14</v>
+        <v>0.96</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -2652,13 +2652,13 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
@@ -2676,10 +2676,10 @@
         <v>11</v>
       </c>
       <c r="I63">
-        <v>2.92</v>
+        <v>2.83</v>
       </c>
       <c r="J63">
-        <v>0.96</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -2687,16 +2687,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2705,16 +2705,16 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I64">
-        <v>2.83</v>
+        <v>2.6099999999999994</v>
       </c>
       <c r="J64">
-        <v>1.3599999999999999</v>
+        <v>1.71</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
@@ -2740,16 +2740,16 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="s">
         <v>15</v>
       </c>
       <c r="I65">
-        <v>2.6099999999999994</v>
+        <v>2.1799999999999997</v>
       </c>
       <c r="J65">
-        <v>1.71</v>
+        <v>2.06</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -2757,16 +2757,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2775,16 +2775,16 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I66">
-        <v>2.1799999999999997</v>
+        <v>2.34</v>
       </c>
       <c r="J66">
-        <v>2.06</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -2810,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="s">
         <v>11</v>
       </c>
       <c r="I67">
-        <v>2.34</v>
+        <v>2.92</v>
       </c>
       <c r="J67">
-        <v>2.4300000000000002</v>
+        <v>2.27</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="s">
         <v>11</v>
       </c>
       <c r="I68">
-        <v>2.92</v>
+        <v>1.94</v>
       </c>
       <c r="J68">
-        <v>2.27</v>
+        <v>1.45</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -2862,13 +2862,13 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
@@ -2880,16 +2880,16 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="s">
         <v>11</v>
       </c>
       <c r="I69">
-        <v>1.94</v>
+        <v>1.9700000000000002</v>
       </c>
       <c r="J69">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -2897,13 +2897,13 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
@@ -2915,16 +2915,16 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
         <v>11</v>
       </c>
       <c r="I70">
-        <v>1.9700000000000002</v>
+        <v>2.9700000000000006</v>
       </c>
       <c r="J70">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -2956,10 +2956,10 @@
         <v>11</v>
       </c>
       <c r="I71">
-        <v>2.9700000000000006</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="J71">
-        <v>1.51</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -2967,16 +2967,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2988,13 +2988,13 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I72">
-        <v>1.8599999999999999</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="J72">
-        <v>1.1299999999999999</v>
+        <v>1.46</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -3002,34 +3002,34 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I73">
-        <v>2.3200000000000003</v>
+        <v>2.74</v>
       </c>
       <c r="J73">
-        <v>1.46</v>
+        <v>2.1300000000000003</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -3052,19 +3052,19 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="s">
         <v>11</v>
       </c>
       <c r="I74">
-        <v>2.74</v>
+        <v>1.5699999999999998</v>
       </c>
       <c r="J74">
-        <v>2.1300000000000003</v>
+        <v>1.7</v>
       </c>
       <c r="K74">
         <v>2</v>
@@ -3072,13 +3072,13 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
@@ -3096,10 +3096,10 @@
         <v>11</v>
       </c>
       <c r="I75">
-        <v>1.5699999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J75">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
@@ -3131,10 +3131,10 @@
         <v>11</v>
       </c>
       <c r="I76">
-        <v>2.2999999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J76">
-        <v>1.51</v>
+        <v>0.99</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
@@ -3166,10 +3166,10 @@
         <v>11</v>
       </c>
       <c r="I77">
-        <v>2.0499999999999998</v>
+        <v>2.9800000000000004</v>
       </c>
       <c r="J77">
-        <v>0.99</v>
+        <v>1.27</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
@@ -3201,10 +3201,10 @@
         <v>11</v>
       </c>
       <c r="I78">
-        <v>2.9800000000000004</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="J78">
-        <v>1.27</v>
+        <v>1.91</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -3212,13 +3212,13 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -3236,10 +3236,10 @@
         <v>11</v>
       </c>
       <c r="I79">
-        <v>1.9500000000000002</v>
+        <v>2.79</v>
       </c>
       <c r="J79">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -3247,16 +3247,16 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I80">
-        <v>2.79</v>
+        <v>2.13</v>
       </c>
       <c r="J80">
-        <v>2.25</v>
+        <v>1.05</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -3282,16 +3282,16 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3300,16 +3300,16 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I81">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="J81">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -3326,25 +3326,25 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I82">
-        <v>2.12</v>
+        <v>2.7</v>
       </c>
       <c r="J82">
-        <v>1.07</v>
+        <v>1.73</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -3352,19 +3352,19 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3379,7 +3379,7 @@
         <v>2.7</v>
       </c>
       <c r="J83">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -3387,16 +3387,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3405,16 +3405,16 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I84">
-        <v>2.7</v>
+        <v>2.13</v>
       </c>
       <c r="J84">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
@@ -3440,16 +3440,16 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="s">
         <v>11</v>
       </c>
       <c r="I85">
-        <v>2.13</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="J85">
-        <v>1.95</v>
+        <v>1.56</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
@@ -3475,16 +3475,16 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
         <v>11</v>
       </c>
       <c r="I86">
-        <v>2.2400000000000002</v>
+        <v>1.77</v>
       </c>
       <c r="J86">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
@@ -3516,10 +3516,10 @@
         <v>11</v>
       </c>
       <c r="I87">
-        <v>1.77</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="J87">
-        <v>1.68</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -3527,16 +3527,16 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3545,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I88">
-        <v>2.5999999999999996</v>
+        <v>1.5</v>
       </c>
       <c r="J88">
-        <v>2.0700000000000003</v>
+        <v>1.3</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
@@ -3580,16 +3580,16 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="s">
         <v>15</v>
       </c>
       <c r="I89">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="J89">
-        <v>1.3</v>
+        <v>2.12</v>
       </c>
       <c r="K89">
         <v>2</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
@@ -3615,16 +3615,16 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="s">
         <v>15</v>
       </c>
       <c r="I90">
-        <v>2.8</v>
+        <v>1.8399999999999999</v>
       </c>
       <c r="J90">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -3632,13 +3632,13 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
@@ -3650,16 +3650,16 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
         <v>15</v>
       </c>
       <c r="I91">
-        <v>1.8399999999999999</v>
+        <v>1.5899999999999999</v>
       </c>
       <c r="J91">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="K91">
         <v>2</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
@@ -3685,16 +3685,16 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="s">
         <v>15</v>
       </c>
       <c r="I92">
-        <v>1.5899999999999999</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="J92">
-        <v>1.8</v>
+        <v>0.98</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B93" t="s">
         <v>12</v>
@@ -3726,10 +3726,10 @@
         <v>15</v>
       </c>
       <c r="I93">
-        <v>2.9000000000000004</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J93">
-        <v>0.98</v>
+        <v>2.23</v>
       </c>
       <c r="K93">
         <v>2</v>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3755,16 +3755,16 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I94">
-        <v>2.2000000000000002</v>
+        <v>1.9300000000000002</v>
       </c>
       <c r="J94">
-        <v>2.23</v>
+        <v>2.37</v>
       </c>
       <c r="K94">
         <v>2</v>
@@ -3772,16 +3772,16 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I95">
-        <v>1.9300000000000002</v>
+        <v>2.99</v>
       </c>
       <c r="J95">
-        <v>2.37</v>
+        <v>1.03</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -3807,16 +3807,16 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3828,13 +3828,13 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I96">
-        <v>2.99</v>
+        <v>2.8200000000000003</v>
       </c>
       <c r="J96">
-        <v>1.03</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -3842,16 +3842,16 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -3863,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I97">
-        <v>2.8200000000000003</v>
+        <v>2.88</v>
       </c>
       <c r="J97">
-        <v>2.0700000000000003</v>
+        <v>1.9</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -3877,13 +3877,13 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
@@ -3901,10 +3901,10 @@
         <v>15</v>
       </c>
       <c r="I98">
-        <v>2.88</v>
+        <v>1.73</v>
       </c>
       <c r="J98">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
@@ -3936,10 +3936,10 @@
         <v>15</v>
       </c>
       <c r="I99">
-        <v>1.73</v>
+        <v>2.92</v>
       </c>
       <c r="J99">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="K99">
         <v>2</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3971,10 +3971,10 @@
         <v>15</v>
       </c>
       <c r="I100">
-        <v>2.92</v>
+        <v>1.63</v>
       </c>
       <c r="J100">
-        <v>0.96</v>
+        <v>2.1700000000000004</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -3982,13 +3982,13 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -4006,10 +4006,10 @@
         <v>15</v>
       </c>
       <c r="I101">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="J101">
-        <v>2.1700000000000004</v>
+        <v>2.4400000000000004</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -4017,16 +4017,16 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4035,16 +4035,16 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I102">
         <v>1.83</v>
       </c>
       <c r="J102">
-        <v>2.4400000000000004</v>
+        <v>1.26</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -4052,16 +4052,16 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4070,16 +4070,16 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I103">
-        <v>1.83</v>
+        <v>2.42</v>
       </c>
       <c r="J103">
-        <v>1.26</v>
+        <v>2.0500000000000003</v>
       </c>
       <c r="K103">
         <v>2</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
@@ -4111,10 +4111,10 @@
         <v>15</v>
       </c>
       <c r="I104">
-        <v>2.42</v>
+        <v>1.77</v>
       </c>
       <c r="J104">
-        <v>2.0500000000000003</v>
+        <v>0.97</v>
       </c>
       <c r="K104">
         <v>2</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
@@ -4146,10 +4146,10 @@
         <v>15</v>
       </c>
       <c r="I105">
-        <v>1.77</v>
+        <v>2.21</v>
       </c>
       <c r="J105">
-        <v>0.97</v>
+        <v>1.07</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
@@ -4172,19 +4172,19 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" t="s">
         <v>15</v>
       </c>
       <c r="I106">
-        <v>2.21</v>
+        <v>2.1799999999999997</v>
       </c>
       <c r="J106">
-        <v>1.07</v>
+        <v>2.14</v>
       </c>
       <c r="K106">
         <v>2</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
@@ -4207,19 +4207,19 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" t="s">
         <v>15</v>
       </c>
       <c r="I107">
-        <v>2.1799999999999997</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J107">
-        <v>2.14</v>
+        <v>1.5799999999999998</v>
       </c>
       <c r="K107">
         <v>2</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
@@ -4242,19 +4242,19 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="s">
         <v>15</v>
       </c>
       <c r="I108">
-        <v>2.3100000000000005</v>
+        <v>1.6099999999999999</v>
       </c>
       <c r="J108">
-        <v>1.5799999999999998</v>
+        <v>1.67</v>
       </c>
       <c r="K108">
         <v>2</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -4277,19 +4277,19 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" t="s">
         <v>15</v>
       </c>
       <c r="I109">
-        <v>1.6099999999999999</v>
+        <v>2.5299999999999994</v>
       </c>
       <c r="J109">
-        <v>1.67</v>
+        <v>2.0100000000000002</v>
       </c>
       <c r="K109">
         <v>2</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
@@ -4321,10 +4321,10 @@
         <v>15</v>
       </c>
       <c r="I110">
-        <v>2.5299999999999994</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J110">
-        <v>2.0100000000000002</v>
+        <v>2.23</v>
       </c>
       <c r="K110">
         <v>2</v>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
@@ -4347,19 +4347,19 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="s">
         <v>15</v>
       </c>
       <c r="I111">
-        <v>2.2000000000000002</v>
+        <v>1.54</v>
       </c>
       <c r="J111">
-        <v>2.23</v>
+        <v>1.42</v>
       </c>
       <c r="K111">
         <v>2</v>
@@ -4367,34 +4367,34 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112">
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I112">
-        <v>1.54</v>
+        <v>2.08</v>
       </c>
       <c r="J112">
-        <v>1.42</v>
+        <v>2.04</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -4402,16 +4402,16 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -4420,16 +4420,16 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I113">
-        <v>2.08</v>
+        <v>2.0299999999999994</v>
       </c>
       <c r="J113">
-        <v>2.04</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="K113">
         <v>2</v>
@@ -4437,13 +4437,13 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" t="s">
         <v>14</v>
@@ -4455,58 +4455,23 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" t="s">
         <v>15</v>
       </c>
       <c r="I114">
-        <v>2.0299999999999994</v>
+        <v>1.8199999999999998</v>
       </c>
       <c r="J114">
-        <v>1.0899999999999999</v>
+        <v>2.0900000000000003</v>
       </c>
       <c r="K114">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A115">
-        <v>215</v>
-      </c>
-      <c r="B115" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
-      <c r="H115" t="s">
-        <v>15</v>
-      </c>
-      <c r="I115">
-        <v>1.8199999999999998</v>
-      </c>
-      <c r="J115">
-        <v>2.0900000000000003</v>
-      </c>
-      <c r="K115">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K114" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Conditions\Version_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4B2F16-09CD-44A3-BFF4-CF28938F2AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08235FF3-7A8D-42B3-9336-A2C5436C1D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="20">
   <si>
     <t>Fractal_img</t>
   </si>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,13 +517,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -535,16 +535,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2">
-        <v>1.63</v>
+        <v>3.75</v>
       </c>
       <c r="J2">
-        <v>0.99</v>
+        <v>2.4200000000000004</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -570,16 +570,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
       </c>
       <c r="I3">
-        <v>1.6</v>
+        <v>5.01</v>
       </c>
       <c r="J3">
-        <v>1.43</v>
+        <v>2.16</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -602,19 +602,19 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="I4">
-        <v>2.17</v>
+        <v>4.2200000000000006</v>
       </c>
       <c r="J4">
-        <v>1.99</v>
+        <v>1.06</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -640,16 +640,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
       </c>
       <c r="I5">
-        <v>2.7300000000000004</v>
+        <v>3.67</v>
       </c>
       <c r="J5">
-        <v>1.3699999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -681,10 +681,10 @@
         <v>11</v>
       </c>
       <c r="I6">
-        <v>1.6400000000000001</v>
+        <v>4.01</v>
       </c>
       <c r="J6">
-        <v>2.29</v>
+        <v>2.16</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -692,13 +692,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -716,10 +716,10 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>1.75</v>
+        <v>5.01</v>
       </c>
       <c r="J7">
-        <v>2.4200000000000004</v>
+        <v>2.31</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -727,16 +727,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -745,16 +745,16 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I8">
-        <v>2.9399999999999995</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="J8">
-        <v>2.16</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -762,34 +762,34 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I9">
-        <v>2.2200000000000006</v>
+        <v>4.76</v>
       </c>
       <c r="J9">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -797,34 +797,34 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I10">
-        <v>1.67</v>
+        <v>3.58</v>
       </c>
       <c r="J10">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -832,13 +832,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -856,10 +856,10 @@
         <v>11</v>
       </c>
       <c r="I11">
-        <v>2.0099999999999998</v>
+        <v>5.01</v>
       </c>
       <c r="J11">
-        <v>2.16</v>
+        <v>0.97</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -867,16 +867,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -885,16 +885,16 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I12">
-        <v>2.79</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J12">
-        <v>2.31</v>
+        <v>1.99</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -920,16 +920,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
       </c>
       <c r="I13">
-        <v>2.2300000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J13">
-        <v>2.3000000000000003</v>
+        <v>1.19</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -937,16 +937,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>2.76</v>
+        <v>5.01</v>
       </c>
       <c r="J14">
-        <v>1.17</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -972,13 +972,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -987,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
       </c>
       <c r="I15">
-        <v>1.58</v>
+        <v>4.76</v>
       </c>
       <c r="J15">
-        <v>1.46</v>
+        <v>1.95</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1007,13 +1007,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1031,10 +1031,10 @@
         <v>11</v>
       </c>
       <c r="I16">
-        <v>2.9700000000000006</v>
+        <v>4.57</v>
       </c>
       <c r="J16">
-        <v>0.97</v>
+        <v>2.23</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1042,16 +1042,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I17">
-        <v>2.3100000000000005</v>
+        <v>3.66</v>
       </c>
       <c r="J17">
-        <v>1.99</v>
+        <v>1.73</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I18">
-        <v>2.9800000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J18">
-        <v>1.19</v>
+        <v>1.78</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1112,16 +1112,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I19">
-        <v>2.95</v>
+        <v>5.01</v>
       </c>
       <c r="J19">
-        <v>1.1299999999999999</v>
+        <v>1.91</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1147,16 +1147,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1165,16 +1165,16 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I20">
-        <v>2.76</v>
+        <v>4.79</v>
       </c>
       <c r="J20">
-        <v>1.95</v>
+        <v>2.31</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1191,25 +1191,25 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I21">
-        <v>2.5700000000000003</v>
+        <v>5.01</v>
       </c>
       <c r="J21">
-        <v>2.23</v>
+        <v>1.92</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1238,13 +1238,13 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I22">
-        <v>1.6600000000000001</v>
+        <v>4.05</v>
       </c>
       <c r="J22">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1252,13 +1252,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1276,10 +1276,10 @@
         <v>15</v>
       </c>
       <c r="I23">
-        <v>2.99</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J23">
-        <v>1.78</v>
+        <v>2.37</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1287,13 +1287,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1311,10 +1311,10 @@
         <v>15</v>
       </c>
       <c r="I24">
-        <v>2.95</v>
+        <v>4.08</v>
       </c>
       <c r="J24">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1322,13 +1322,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
@@ -1346,10 +1346,10 @@
         <v>15</v>
       </c>
       <c r="I25">
-        <v>2.79</v>
+        <v>5.01</v>
       </c>
       <c r="J25">
-        <v>2.31</v>
+        <v>1.48</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1357,34 +1357,34 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
       </c>
       <c r="I26">
-        <v>2.96</v>
+        <v>3.52</v>
       </c>
       <c r="J26">
-        <v>1.92</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -1392,16 +1392,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1413,13 +1413,13 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I27">
-        <v>2.0499999999999998</v>
+        <v>4.42</v>
       </c>
       <c r="J27">
-        <v>1.9</v>
+        <v>1.24</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1451,10 +1451,10 @@
         <v>15</v>
       </c>
       <c r="I28">
-        <v>2.3100000000000005</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J28">
-        <v>2.37</v>
+        <v>2.14</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1486,10 +1486,10 @@
         <v>15</v>
       </c>
       <c r="I29">
-        <v>2.08</v>
+        <v>3.64</v>
       </c>
       <c r="J29">
-        <v>2.25</v>
+        <v>1.69</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -1497,16 +1497,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1515,16 +1515,16 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I30">
-        <v>2.6500000000000004</v>
+        <v>4.3599999999999994</v>
       </c>
       <c r="J30">
-        <v>1.48</v>
+        <v>1.02</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -1532,13 +1532,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -1556,10 +1556,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>1.52</v>
+        <v>5.01</v>
       </c>
       <c r="J31">
-        <v>1.3499999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -1591,10 +1591,10 @@
         <v>11</v>
       </c>
       <c r="I32">
-        <v>2.42</v>
+        <v>4.3599999999999994</v>
       </c>
       <c r="J32">
-        <v>1.24</v>
+        <v>1.92</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -1626,10 +1626,10 @@
         <v>15</v>
       </c>
       <c r="I33">
-        <v>2.1099999999999994</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J33">
-        <v>2.14</v>
+        <v>1.82</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1661,10 +1661,10 @@
         <v>15</v>
       </c>
       <c r="I34">
-        <v>1.6400000000000001</v>
+        <v>3.98</v>
       </c>
       <c r="J34">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -1672,34 +1672,34 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I35">
-        <v>2.3599999999999994</v>
+        <v>3.57</v>
       </c>
       <c r="J35">
-        <v>1.02</v>
+        <v>1.3399999999999999</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -1707,16 +1707,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1728,13 +1728,13 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I36">
-        <v>2.8</v>
+        <v>5.01</v>
       </c>
       <c r="J36">
-        <v>1.28</v>
+        <v>1.95</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -1742,16 +1742,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1760,16 +1760,16 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I37">
-        <v>2.3599999999999994</v>
+        <v>4.07</v>
       </c>
       <c r="J37">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1798,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I38">
-        <v>2.4000000000000004</v>
+        <v>4.7200000000000006</v>
       </c>
       <c r="J38">
-        <v>1.82</v>
+        <v>2.29</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -1812,16 +1812,16 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I39">
-        <v>1.98</v>
+        <v>4.6899999999999995</v>
       </c>
       <c r="J39">
-        <v>1.31</v>
+        <v>1.97</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -1847,13 +1847,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
@@ -1862,19 +1862,19 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="s">
         <v>15</v>
       </c>
       <c r="I40">
-        <v>1.5699999999999998</v>
+        <v>4.3900000000000006</v>
       </c>
       <c r="J40">
-        <v>1.3399999999999999</v>
+        <v>2.16</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="s">
         <v>11</v>
       </c>
       <c r="I41">
-        <v>2.99</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J41">
-        <v>1.95</v>
+        <v>2.2600000000000002</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I42">
-        <v>2.0700000000000003</v>
+        <v>5.01</v>
       </c>
       <c r="J42">
-        <v>1.69</v>
+        <v>0.97</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -1952,34 +1952,34 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I43">
-        <v>2.7200000000000006</v>
+        <v>3.77</v>
       </c>
       <c r="J43">
-        <v>2.29</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -1987,16 +1987,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I44">
-        <v>2.6899999999999995</v>
+        <v>4.51</v>
       </c>
       <c r="J44">
-        <v>1.97</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
@@ -2046,10 +2046,10 @@
         <v>15</v>
       </c>
       <c r="I45">
-        <v>2.3900000000000006</v>
+        <v>3.68</v>
       </c>
       <c r="J45">
-        <v>2.16</v>
+        <v>1.8699999999999999</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I46">
-        <v>2.3100000000000005</v>
+        <v>3.58</v>
       </c>
       <c r="J46">
-        <v>2.2600000000000002</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -2092,16 +2092,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I47">
-        <v>2.9000000000000004</v>
+        <v>4.25</v>
       </c>
       <c r="J47">
-        <v>0.97</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -2127,13 +2127,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
@@ -2142,19 +2142,19 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="s">
         <v>15</v>
       </c>
       <c r="I48">
-        <v>1.77</v>
+        <v>4.58</v>
       </c>
       <c r="J48">
-        <v>2.2200000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -2162,13 +2162,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -2186,10 +2186,10 @@
         <v>15</v>
       </c>
       <c r="I49">
-        <v>2.5099999999999998</v>
+        <v>3.64</v>
       </c>
       <c r="J49">
-        <v>2.4000000000000004</v>
+        <v>2.33</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -2197,13 +2197,13 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
@@ -2221,10 +2221,10 @@
         <v>15</v>
       </c>
       <c r="I50">
-        <v>1.6800000000000002</v>
+        <v>4.24</v>
       </c>
       <c r="J50">
-        <v>1.8699999999999999</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -2241,25 +2241,25 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I51">
-        <v>1.58</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J51">
-        <v>1.8599999999999999</v>
+        <v>2.3600000000000003</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -2267,13 +2267,13 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
@@ -2291,10 +2291,10 @@
         <v>15</v>
       </c>
       <c r="I52">
-        <v>2.25</v>
+        <v>4.63</v>
       </c>
       <c r="J52">
-        <v>2.1500000000000004</v>
+        <v>1.8399999999999999</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -2302,16 +2302,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I53">
-        <v>2.58</v>
+        <v>3.86</v>
       </c>
       <c r="J53">
-        <v>1.7</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -2337,13 +2337,13 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
@@ -2361,10 +2361,10 @@
         <v>15</v>
       </c>
       <c r="I54">
-        <v>1.6400000000000001</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="J54">
-        <v>2.33</v>
+        <v>1.66</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2381,7 +2381,7 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I55">
-        <v>2.2400000000000002</v>
+        <v>3.81</v>
       </c>
       <c r="J55">
-        <v>2.3400000000000003</v>
+        <v>1.66</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -2407,34 +2407,34 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I56">
-        <v>2.4000000000000004</v>
+        <v>3.86</v>
       </c>
       <c r="J56">
-        <v>2.3600000000000003</v>
+        <v>2.14</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -2442,16 +2442,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2463,13 +2463,13 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I57">
-        <v>2.63</v>
+        <v>5.01</v>
       </c>
       <c r="J57">
-        <v>1.8399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -2477,13 +2477,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
@@ -2495,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="s">
         <v>11</v>
       </c>
       <c r="I58">
-        <v>1.8599999999999999</v>
+        <v>5.01</v>
       </c>
       <c r="J58">
-        <v>2.3400000000000003</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
         <v>15</v>
       </c>
       <c r="I59">
-        <v>2.2300000000000004</v>
+        <v>4.6099999999999994</v>
       </c>
       <c r="J59">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -2547,16 +2547,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2565,16 +2565,16 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I60">
-        <v>1.81</v>
+        <v>4.18</v>
       </c>
       <c r="J60">
-        <v>1.66</v>
+        <v>2.06</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -2582,16 +2582,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I61">
-        <v>1.8599999999999999</v>
+        <v>4.34</v>
       </c>
       <c r="J61">
-        <v>2.14</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -2641,10 +2641,10 @@
         <v>11</v>
       </c>
       <c r="I62">
-        <v>2.92</v>
+        <v>5.01</v>
       </c>
       <c r="J62">
-        <v>0.96</v>
+        <v>2.27</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -2652,13 +2652,13 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
@@ -2670,16 +2670,16 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="s">
         <v>11</v>
       </c>
       <c r="I63">
-        <v>2.83</v>
+        <v>3.94</v>
       </c>
       <c r="J63">
-        <v>1.3599999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -2687,16 +2687,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2705,16 +2705,16 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I64">
-        <v>2.6099999999999994</v>
+        <v>3.97</v>
       </c>
       <c r="J64">
-        <v>1.71</v>
+        <v>1.24</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -2722,16 +2722,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2740,16 +2740,16 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I65">
-        <v>2.1799999999999997</v>
+        <v>5.01</v>
       </c>
       <c r="J65">
-        <v>2.06</v>
+        <v>1.51</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -2781,10 +2781,10 @@
         <v>11</v>
       </c>
       <c r="I66">
-        <v>2.34</v>
+        <v>3.86</v>
       </c>
       <c r="J66">
-        <v>2.4300000000000002</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -2792,16 +2792,16 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I67">
-        <v>2.92</v>
+        <v>4.32</v>
       </c>
       <c r="J67">
-        <v>2.27</v>
+        <v>1.46</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="s">
         <v>11</v>
       </c>
       <c r="I68">
-        <v>1.94</v>
+        <v>5.01</v>
       </c>
       <c r="J68">
-        <v>1.45</v>
+        <v>2.1300000000000003</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -2862,13 +2862,13 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
@@ -2880,16 +2880,16 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="s">
         <v>11</v>
       </c>
       <c r="I69">
-        <v>1.9700000000000002</v>
+        <v>3.57</v>
       </c>
       <c r="J69">
-        <v>1.24</v>
+        <v>1.7</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -2897,13 +2897,13 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
@@ -2921,7 +2921,7 @@
         <v>11</v>
       </c>
       <c r="I70">
-        <v>2.9700000000000006</v>
+        <v>4.3</v>
       </c>
       <c r="J70">
         <v>1.51</v>
@@ -2932,13 +2932,13 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
@@ -2956,10 +2956,10 @@
         <v>11</v>
       </c>
       <c r="I71">
-        <v>1.8599999999999999</v>
+        <v>4.05</v>
       </c>
       <c r="J71">
-        <v>1.1299999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -2967,16 +2967,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2988,13 +2988,13 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I72">
-        <v>2.3200000000000003</v>
+        <v>5.01</v>
       </c>
       <c r="J72">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -3002,13 +3002,13 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
@@ -3017,19 +3017,19 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="s">
         <v>11</v>
       </c>
       <c r="I73">
-        <v>2.74</v>
+        <v>3.95</v>
       </c>
       <c r="J73">
-        <v>2.1300000000000003</v>
+        <v>1.91</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -3061,10 +3061,10 @@
         <v>11</v>
       </c>
       <c r="I74">
-        <v>1.5699999999999998</v>
+        <v>5.01</v>
       </c>
       <c r="J74">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="K74">
         <v>2</v>
@@ -3072,16 +3072,16 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I75">
-        <v>2.2999999999999998</v>
+        <v>4.13</v>
       </c>
       <c r="J75">
-        <v>1.51</v>
+        <v>1.05</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -3107,13 +3107,13 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
@@ -3131,10 +3131,10 @@
         <v>11</v>
       </c>
       <c r="I76">
-        <v>2.0499999999999998</v>
+        <v>4.12</v>
       </c>
       <c r="J76">
-        <v>0.99</v>
+        <v>1.07</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -3142,34 +3142,34 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I77">
-        <v>2.9800000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J77">
-        <v>1.27</v>
+        <v>1.73</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -3177,16 +3177,16 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I78">
-        <v>1.9500000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="J78">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -3212,13 +3212,13 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -3236,10 +3236,10 @@
         <v>11</v>
       </c>
       <c r="I79">
-        <v>2.79</v>
+        <v>4.13</v>
       </c>
       <c r="J79">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -3247,16 +3247,16 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I80">
-        <v>2.13</v>
+        <v>4.24</v>
       </c>
       <c r="J80">
-        <v>1.05</v>
+        <v>1.56</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -3282,13 +3282,13 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
         <v>10</v>
@@ -3306,10 +3306,10 @@
         <v>11</v>
       </c>
       <c r="I81">
-        <v>2.12</v>
+        <v>3.77</v>
       </c>
       <c r="J81">
-        <v>1.07</v>
+        <v>1.68</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -3317,34 +3317,34 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I82">
-        <v>2.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J82">
-        <v>1.73</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -3352,13 +3352,13 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
@@ -3376,10 +3376,10 @@
         <v>15</v>
       </c>
       <c r="I83">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="J83">
-        <v>1.79</v>
+        <v>1.3</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -3387,16 +3387,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3408,13 +3408,13 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I84">
-        <v>2.13</v>
+        <v>5.01</v>
       </c>
       <c r="J84">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -3422,16 +3422,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3443,13 +3443,13 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I85">
-        <v>2.2400000000000002</v>
+        <v>3.84</v>
       </c>
       <c r="J85">
-        <v>1.56</v>
+        <v>1.91</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -3457,16 +3457,16 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I86">
-        <v>1.77</v>
+        <v>3.59</v>
       </c>
       <c r="J86">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -3492,16 +3492,16 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3510,16 +3510,16 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I87">
-        <v>2.5999999999999996</v>
+        <v>5.01</v>
       </c>
       <c r="J87">
-        <v>2.0700000000000003</v>
+        <v>0.98</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -3527,13 +3527,13 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -3551,10 +3551,10 @@
         <v>15</v>
       </c>
       <c r="I88">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="J88">
-        <v>1.3</v>
+        <v>2.23</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -3562,16 +3562,16 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3583,13 +3583,13 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I89">
-        <v>2.8</v>
+        <v>3.93</v>
       </c>
       <c r="J89">
-        <v>2.12</v>
+        <v>2.37</v>
       </c>
       <c r="K89">
         <v>2</v>
@@ -3597,13 +3597,13 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
         <v>14</v>
@@ -3621,10 +3621,10 @@
         <v>15</v>
       </c>
       <c r="I90">
-        <v>1.8399999999999999</v>
+        <v>5.01</v>
       </c>
       <c r="J90">
-        <v>1.91</v>
+        <v>1.03</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -3632,16 +3632,16 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3650,16 +3650,16 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I91">
-        <v>1.5899999999999999</v>
+        <v>5.01</v>
       </c>
       <c r="J91">
-        <v>1.8</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="K91">
         <v>2</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
@@ -3691,10 +3691,10 @@
         <v>15</v>
       </c>
       <c r="I92">
-        <v>2.9000000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J92">
-        <v>0.98</v>
+        <v>1.9</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -3702,13 +3702,13 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
@@ -3726,10 +3726,10 @@
         <v>15</v>
       </c>
       <c r="I93">
-        <v>2.2000000000000002</v>
+        <v>3.73</v>
       </c>
       <c r="J93">
-        <v>2.23</v>
+        <v>1.05</v>
       </c>
       <c r="K93">
         <v>2</v>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3755,16 +3755,16 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I94">
-        <v>1.9300000000000002</v>
+        <v>5.01</v>
       </c>
       <c r="J94">
-        <v>2.37</v>
+        <v>0.96</v>
       </c>
       <c r="K94">
         <v>2</v>
@@ -3772,13 +3772,13 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>15</v>
       </c>
       <c r="I95">
-        <v>2.99</v>
+        <v>3.63</v>
       </c>
       <c r="J95">
-        <v>1.03</v>
+        <v>2.1700000000000004</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -3807,16 +3807,16 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3828,13 +3828,13 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I96">
-        <v>2.8200000000000003</v>
+        <v>3.83</v>
       </c>
       <c r="J96">
-        <v>2.0700000000000003</v>
+        <v>2.4400000000000004</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -3842,16 +3842,16 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -3860,16 +3860,16 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I97">
-        <v>2.88</v>
+        <v>3.83</v>
       </c>
       <c r="J97">
-        <v>1.9</v>
+        <v>1.26</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
@@ -3901,10 +3901,10 @@
         <v>15</v>
       </c>
       <c r="I98">
-        <v>1.73</v>
+        <v>4.42</v>
       </c>
       <c r="J98">
-        <v>1.05</v>
+        <v>2.0500000000000003</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
@@ -3936,10 +3936,10 @@
         <v>15</v>
       </c>
       <c r="I99">
-        <v>2.92</v>
+        <v>3.77</v>
       </c>
       <c r="J99">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="K99">
         <v>2</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3971,10 +3971,10 @@
         <v>15</v>
       </c>
       <c r="I100">
-        <v>1.63</v>
+        <v>4.21</v>
       </c>
       <c r="J100">
-        <v>2.1700000000000004</v>
+        <v>1.07</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -3982,13 +3982,13 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
@@ -3997,19 +3997,19 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>15</v>
       </c>
       <c r="I101">
-        <v>1.83</v>
+        <v>4.18</v>
       </c>
       <c r="J101">
-        <v>2.4400000000000004</v>
+        <v>2.14</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -4017,16 +4017,16 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4035,16 +4035,16 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I102">
-        <v>1.83</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J102">
-        <v>1.26</v>
+        <v>1.5799999999999998</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
@@ -4067,19 +4067,19 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" t="s">
         <v>15</v>
       </c>
       <c r="I103">
-        <v>2.42</v>
+        <v>3.61</v>
       </c>
       <c r="J103">
-        <v>2.0500000000000003</v>
+        <v>1.67</v>
       </c>
       <c r="K103">
         <v>2</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
@@ -4111,10 +4111,10 @@
         <v>15</v>
       </c>
       <c r="I104">
-        <v>1.77</v>
+        <v>4.5299999999999994</v>
       </c>
       <c r="J104">
-        <v>0.97</v>
+        <v>2.0100000000000002</v>
       </c>
       <c r="K104">
         <v>2</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
@@ -4146,10 +4146,10 @@
         <v>15</v>
       </c>
       <c r="I105">
-        <v>2.21</v>
+        <v>4.2</v>
       </c>
       <c r="J105">
-        <v>1.07</v>
+        <v>2.23</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
@@ -4181,10 +4181,10 @@
         <v>15</v>
       </c>
       <c r="I106">
-        <v>2.1799999999999997</v>
+        <v>3.54</v>
       </c>
       <c r="J106">
-        <v>2.14</v>
+        <v>1.42</v>
       </c>
       <c r="K106">
         <v>2</v>
@@ -4192,16 +4192,16 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4210,16 +4210,16 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I107">
-        <v>2.3100000000000005</v>
+        <v>4.08</v>
       </c>
       <c r="J107">
-        <v>1.5799999999999998</v>
+        <v>2.04</v>
       </c>
       <c r="K107">
         <v>2</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
@@ -4242,19 +4242,19 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" t="s">
         <v>15</v>
       </c>
       <c r="I108">
-        <v>1.6099999999999999</v>
+        <v>4.0299999999999994</v>
       </c>
       <c r="J108">
-        <v>1.67</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="K108">
         <v>2</v>
@@ -4262,13 +4262,13 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" t="s">
         <v>14</v>
@@ -4280,198 +4280,23 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" t="s">
         <v>15</v>
       </c>
       <c r="I109">
-        <v>2.5299999999999994</v>
+        <v>3.82</v>
       </c>
       <c r="J109">
-        <v>2.0100000000000002</v>
+        <v>2.0900000000000003</v>
       </c>
       <c r="K109">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>211</v>
-      </c>
-      <c r="B110" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110" t="s">
-        <v>15</v>
-      </c>
-      <c r="I110">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J110">
-        <v>2.23</v>
-      </c>
-      <c r="K110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>212</v>
-      </c>
-      <c r="B111" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" t="s">
-        <v>14</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111" t="s">
-        <v>15</v>
-      </c>
-      <c r="I111">
-        <v>1.54</v>
-      </c>
-      <c r="J111">
-        <v>1.42</v>
-      </c>
-      <c r="K111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>213</v>
-      </c>
-      <c r="B112" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-      <c r="H112" t="s">
-        <v>11</v>
-      </c>
-      <c r="I112">
-        <v>2.08</v>
-      </c>
-      <c r="J112">
-        <v>2.04</v>
-      </c>
-      <c r="K112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A113">
-        <v>214</v>
-      </c>
-      <c r="B113" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113" t="s">
-        <v>15</v>
-      </c>
-      <c r="I113">
-        <v>2.0299999999999994</v>
-      </c>
-      <c r="J113">
-        <v>1.0899999999999999</v>
-      </c>
-      <c r="K113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A114">
-        <v>215</v>
-      </c>
-      <c r="B114" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-      <c r="H114" t="s">
-        <v>15</v>
-      </c>
-      <c r="I114">
-        <v>1.8199999999999998</v>
-      </c>
-      <c r="J114">
-        <v>2.0900000000000003</v>
-      </c>
-      <c r="K114">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K114" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K109" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDF88BB-45D3-4BD7-8FA0-8650F38AA602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08235FF3-7A8D-42B3-9336-A2C5436C1D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="20">
   <si>
     <t>Fractal_img</t>
   </si>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,13 +517,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -535,16 +535,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2">
-        <v>3.63</v>
+        <v>3.75</v>
       </c>
       <c r="J2">
-        <v>0.99</v>
+        <v>2.4200000000000004</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -570,16 +570,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
       </c>
       <c r="I3">
-        <v>3.6</v>
+        <v>5.01</v>
       </c>
       <c r="J3">
-        <v>1.43</v>
+        <v>2.16</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -602,19 +602,19 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="I4">
-        <v>4.17</v>
+        <v>4.2200000000000006</v>
       </c>
       <c r="J4">
-        <v>1.99</v>
+        <v>1.06</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -640,16 +640,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
       </c>
       <c r="I5">
-        <v>4.7300000000000004</v>
+        <v>3.67</v>
       </c>
       <c r="J5">
-        <v>1.3699999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -681,10 +681,10 @@
         <v>11</v>
       </c>
       <c r="I6">
-        <v>3.64</v>
+        <v>4.01</v>
       </c>
       <c r="J6">
-        <v>2.29</v>
+        <v>2.16</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -692,13 +692,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -716,10 +716,10 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>3.75</v>
+        <v>5.01</v>
       </c>
       <c r="J7">
-        <v>2.4200000000000004</v>
+        <v>2.31</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -727,16 +727,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -745,16 +745,16 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I8">
-        <v>5.01</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="J8">
-        <v>2.16</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -762,34 +762,34 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I9">
-        <v>4.2200000000000006</v>
+        <v>4.76</v>
       </c>
       <c r="J9">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -797,34 +797,34 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I10">
-        <v>3.67</v>
+        <v>3.58</v>
       </c>
       <c r="J10">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -832,13 +832,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -856,10 +856,10 @@
         <v>11</v>
       </c>
       <c r="I11">
-        <v>4.01</v>
+        <v>5.01</v>
       </c>
       <c r="J11">
-        <v>2.16</v>
+        <v>0.97</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -867,16 +867,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -885,16 +885,16 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I12">
-        <v>5.01</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J12">
-        <v>2.31</v>
+        <v>1.99</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -920,16 +920,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
       </c>
       <c r="I13">
-        <v>4.2300000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J13">
-        <v>2.3000000000000003</v>
+        <v>1.19</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -937,16 +937,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>4.76</v>
+        <v>5.01</v>
       </c>
       <c r="J14">
-        <v>1.17</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -972,13 +972,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -987,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
       </c>
       <c r="I15">
-        <v>3.58</v>
+        <v>4.76</v>
       </c>
       <c r="J15">
-        <v>1.46</v>
+        <v>1.95</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1007,13 +1007,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1031,10 +1031,10 @@
         <v>11</v>
       </c>
       <c r="I16">
-        <v>5.01</v>
+        <v>4.57</v>
       </c>
       <c r="J16">
-        <v>0.97</v>
+        <v>2.23</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1042,16 +1042,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I17">
-        <v>4.3100000000000005</v>
+        <v>3.66</v>
       </c>
       <c r="J17">
-        <v>1.99</v>
+        <v>1.73</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I18">
         <v>5.01</v>
       </c>
       <c r="J18">
-        <v>1.19</v>
+        <v>1.78</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1112,16 +1112,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I19">
         <v>5.01</v>
       </c>
       <c r="J19">
-        <v>1.1299999999999999</v>
+        <v>1.91</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1147,16 +1147,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1165,16 +1165,16 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I20">
-        <v>4.76</v>
+        <v>4.79</v>
       </c>
       <c r="J20">
-        <v>1.95</v>
+        <v>2.31</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1191,25 +1191,25 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I21">
-        <v>4.57</v>
+        <v>5.01</v>
       </c>
       <c r="J21">
-        <v>2.23</v>
+        <v>1.92</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1238,13 +1238,13 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I22">
-        <v>3.66</v>
+        <v>4.05</v>
       </c>
       <c r="J22">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1252,13 +1252,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1276,10 +1276,10 @@
         <v>15</v>
       </c>
       <c r="I23">
-        <v>5.01</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J23">
-        <v>1.78</v>
+        <v>2.37</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1287,13 +1287,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1311,10 +1311,10 @@
         <v>15</v>
       </c>
       <c r="I24">
-        <v>5.01</v>
+        <v>4.08</v>
       </c>
       <c r="J24">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1322,13 +1322,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
@@ -1346,10 +1346,10 @@
         <v>15</v>
       </c>
       <c r="I25">
-        <v>4.79</v>
+        <v>5.01</v>
       </c>
       <c r="J25">
-        <v>2.31</v>
+        <v>1.48</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1357,34 +1357,34 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
       </c>
       <c r="I26">
-        <v>5.01</v>
+        <v>3.52</v>
       </c>
       <c r="J26">
-        <v>1.92</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -1392,16 +1392,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1413,13 +1413,13 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I27">
-        <v>4.05</v>
+        <v>4.42</v>
       </c>
       <c r="J27">
-        <v>1.9</v>
+        <v>1.24</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1451,10 +1451,10 @@
         <v>15</v>
       </c>
       <c r="I28">
-        <v>4.3100000000000005</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J28">
-        <v>2.37</v>
+        <v>2.14</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1486,10 +1486,10 @@
         <v>15</v>
       </c>
       <c r="I29">
-        <v>4.08</v>
+        <v>3.64</v>
       </c>
       <c r="J29">
-        <v>2.25</v>
+        <v>1.69</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -1497,16 +1497,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1515,16 +1515,16 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I30">
-        <v>5.01</v>
+        <v>4.3599999999999994</v>
       </c>
       <c r="J30">
-        <v>1.48</v>
+        <v>1.02</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -1532,13 +1532,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -1556,10 +1556,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>3.52</v>
+        <v>5.01</v>
       </c>
       <c r="J31">
-        <v>1.3499999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -1591,10 +1591,10 @@
         <v>11</v>
       </c>
       <c r="I32">
-        <v>4.42</v>
+        <v>4.3599999999999994</v>
       </c>
       <c r="J32">
-        <v>1.24</v>
+        <v>1.92</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -1626,10 +1626,10 @@
         <v>15</v>
       </c>
       <c r="I33">
-        <v>4.1099999999999994</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J33">
-        <v>2.14</v>
+        <v>1.82</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1661,10 +1661,10 @@
         <v>15</v>
       </c>
       <c r="I34">
-        <v>3.64</v>
+        <v>3.98</v>
       </c>
       <c r="J34">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -1672,34 +1672,34 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I35">
-        <v>4.3599999999999994</v>
+        <v>3.57</v>
       </c>
       <c r="J35">
-        <v>1.02</v>
+        <v>1.3399999999999999</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -1707,16 +1707,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1728,13 +1728,13 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I36">
         <v>5.01</v>
       </c>
       <c r="J36">
-        <v>1.28</v>
+        <v>1.95</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -1742,16 +1742,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1760,16 +1760,16 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I37">
-        <v>4.3599999999999994</v>
+        <v>4.07</v>
       </c>
       <c r="J37">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1798,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I38">
-        <v>4.4000000000000004</v>
+        <v>4.7200000000000006</v>
       </c>
       <c r="J38">
-        <v>1.82</v>
+        <v>2.29</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -1812,16 +1812,16 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I39">
-        <v>3.98</v>
+        <v>4.6899999999999995</v>
       </c>
       <c r="J39">
-        <v>1.31</v>
+        <v>1.97</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -1847,13 +1847,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
@@ -1862,19 +1862,19 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="s">
         <v>15</v>
       </c>
       <c r="I40">
-        <v>3.57</v>
+        <v>4.3900000000000006</v>
       </c>
       <c r="J40">
-        <v>1.3399999999999999</v>
+        <v>2.16</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="s">
         <v>11</v>
       </c>
       <c r="I41">
-        <v>5.01</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J41">
-        <v>1.95</v>
+        <v>2.2600000000000002</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I42">
-        <v>4.07</v>
+        <v>5.01</v>
       </c>
       <c r="J42">
-        <v>1.69</v>
+        <v>0.97</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -1952,34 +1952,34 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I43">
-        <v>4.7200000000000006</v>
+        <v>3.77</v>
       </c>
       <c r="J43">
-        <v>2.29</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -1987,16 +1987,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I44">
-        <v>4.6899999999999995</v>
+        <v>4.51</v>
       </c>
       <c r="J44">
-        <v>1.97</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
@@ -2046,10 +2046,10 @@
         <v>15</v>
       </c>
       <c r="I45">
-        <v>4.3900000000000006</v>
+        <v>3.68</v>
       </c>
       <c r="J45">
-        <v>2.16</v>
+        <v>1.8699999999999999</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I46">
-        <v>4.3100000000000005</v>
+        <v>3.58</v>
       </c>
       <c r="J46">
-        <v>2.2600000000000002</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -2092,16 +2092,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I47">
-        <v>5.01</v>
+        <v>4.25</v>
       </c>
       <c r="J47">
-        <v>0.97</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -2127,13 +2127,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
@@ -2142,19 +2142,19 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="s">
         <v>15</v>
       </c>
       <c r="I48">
-        <v>3.77</v>
+        <v>4.58</v>
       </c>
       <c r="J48">
-        <v>2.2200000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -2162,13 +2162,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -2186,10 +2186,10 @@
         <v>15</v>
       </c>
       <c r="I49">
-        <v>4.51</v>
+        <v>3.64</v>
       </c>
       <c r="J49">
-        <v>2.4000000000000004</v>
+        <v>2.33</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -2197,13 +2197,13 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
@@ -2221,10 +2221,10 @@
         <v>15</v>
       </c>
       <c r="I50">
-        <v>3.68</v>
+        <v>4.24</v>
       </c>
       <c r="J50">
-        <v>1.8699999999999999</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -2241,25 +2241,25 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I51">
-        <v>3.58</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J51">
-        <v>1.8599999999999999</v>
+        <v>2.3600000000000003</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -2267,13 +2267,13 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
@@ -2291,10 +2291,10 @@
         <v>15</v>
       </c>
       <c r="I52">
-        <v>4.25</v>
+        <v>4.63</v>
       </c>
       <c r="J52">
-        <v>2.1500000000000004</v>
+        <v>1.8399999999999999</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -2302,16 +2302,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I53">
-        <v>4.58</v>
+        <v>3.86</v>
       </c>
       <c r="J53">
-        <v>1.7</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -2337,13 +2337,13 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
@@ -2361,10 +2361,10 @@
         <v>15</v>
       </c>
       <c r="I54">
-        <v>3.64</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="J54">
-        <v>2.33</v>
+        <v>1.66</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2381,7 +2381,7 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I55">
-        <v>4.24</v>
+        <v>3.81</v>
       </c>
       <c r="J55">
-        <v>2.3400000000000003</v>
+        <v>1.66</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -2407,34 +2407,34 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I56">
-        <v>4.4000000000000004</v>
+        <v>3.86</v>
       </c>
       <c r="J56">
-        <v>2.3600000000000003</v>
+        <v>2.14</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -2442,16 +2442,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2463,13 +2463,13 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I57">
-        <v>4.63</v>
+        <v>5.01</v>
       </c>
       <c r="J57">
-        <v>1.8399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -2477,13 +2477,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
@@ -2495,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="s">
         <v>11</v>
       </c>
       <c r="I58">
-        <v>3.86</v>
+        <v>5.01</v>
       </c>
       <c r="J58">
-        <v>2.3400000000000003</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
         <v>15</v>
       </c>
       <c r="I59">
-        <v>4.2300000000000004</v>
+        <v>4.6099999999999994</v>
       </c>
       <c r="J59">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -2547,16 +2547,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2565,16 +2565,16 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I60">
-        <v>3.81</v>
+        <v>4.18</v>
       </c>
       <c r="J60">
-        <v>1.66</v>
+        <v>2.06</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -2582,16 +2582,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I61">
-        <v>3.86</v>
+        <v>4.34</v>
       </c>
       <c r="J61">
-        <v>2.14</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -2644,7 +2644,7 @@
         <v>5.01</v>
       </c>
       <c r="J62">
-        <v>0.96</v>
+        <v>2.27</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -2652,13 +2652,13 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
@@ -2670,16 +2670,16 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="s">
         <v>11</v>
       </c>
       <c r="I63">
-        <v>5.01</v>
+        <v>3.94</v>
       </c>
       <c r="J63">
-        <v>1.3599999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -2687,16 +2687,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2705,16 +2705,16 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I64">
-        <v>4.6099999999999994</v>
+        <v>3.97</v>
       </c>
       <c r="J64">
-        <v>1.71</v>
+        <v>1.24</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -2722,16 +2722,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2740,16 +2740,16 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I65">
-        <v>4.18</v>
+        <v>5.01</v>
       </c>
       <c r="J65">
-        <v>2.06</v>
+        <v>1.51</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -2781,10 +2781,10 @@
         <v>11</v>
       </c>
       <c r="I66">
-        <v>4.34</v>
+        <v>3.86</v>
       </c>
       <c r="J66">
-        <v>2.4300000000000002</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -2792,16 +2792,16 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I67">
-        <v>5.01</v>
+        <v>4.32</v>
       </c>
       <c r="J67">
-        <v>2.27</v>
+        <v>1.46</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="s">
         <v>11</v>
       </c>
       <c r="I68">
-        <v>3.94</v>
+        <v>5.01</v>
       </c>
       <c r="J68">
-        <v>1.45</v>
+        <v>2.1300000000000003</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -2862,13 +2862,13 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
@@ -2880,16 +2880,16 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="s">
         <v>11</v>
       </c>
       <c r="I69">
-        <v>3.97</v>
+        <v>3.57</v>
       </c>
       <c r="J69">
-        <v>1.24</v>
+        <v>1.7</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -2897,13 +2897,13 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
@@ -2921,7 +2921,7 @@
         <v>11</v>
       </c>
       <c r="I70">
-        <v>5.01</v>
+        <v>4.3</v>
       </c>
       <c r="J70">
         <v>1.51</v>
@@ -2932,13 +2932,13 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
@@ -2956,10 +2956,10 @@
         <v>11</v>
       </c>
       <c r="I71">
-        <v>3.86</v>
+        <v>4.05</v>
       </c>
       <c r="J71">
-        <v>1.1299999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -2967,16 +2967,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2988,13 +2988,13 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I72">
-        <v>4.32</v>
+        <v>5.01</v>
       </c>
       <c r="J72">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -3002,13 +3002,13 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
@@ -3017,19 +3017,19 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="s">
         <v>11</v>
       </c>
       <c r="I73">
-        <v>5.01</v>
+        <v>3.95</v>
       </c>
       <c r="J73">
-        <v>2.1300000000000003</v>
+        <v>1.91</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -3061,10 +3061,10 @@
         <v>11</v>
       </c>
       <c r="I74">
-        <v>3.57</v>
+        <v>5.01</v>
       </c>
       <c r="J74">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="K74">
         <v>2</v>
@@ -3072,16 +3072,16 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I75">
-        <v>4.3</v>
+        <v>4.13</v>
       </c>
       <c r="J75">
-        <v>1.51</v>
+        <v>1.05</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -3107,13 +3107,13 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
@@ -3131,10 +3131,10 @@
         <v>11</v>
       </c>
       <c r="I76">
-        <v>4.05</v>
+        <v>4.12</v>
       </c>
       <c r="J76">
-        <v>0.99</v>
+        <v>1.07</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -3142,34 +3142,34 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I77">
         <v>5.01</v>
       </c>
       <c r="J77">
-        <v>1.27</v>
+        <v>1.73</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -3177,16 +3177,16 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I78">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="J78">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -3212,13 +3212,13 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -3236,10 +3236,10 @@
         <v>11</v>
       </c>
       <c r="I79">
-        <v>5.01</v>
+        <v>4.13</v>
       </c>
       <c r="J79">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -3247,16 +3247,16 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I80">
-        <v>4.13</v>
+        <v>4.24</v>
       </c>
       <c r="J80">
-        <v>1.05</v>
+        <v>1.56</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -3282,13 +3282,13 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
         <v>10</v>
@@ -3306,10 +3306,10 @@
         <v>11</v>
       </c>
       <c r="I81">
-        <v>4.12</v>
+        <v>3.77</v>
       </c>
       <c r="J81">
-        <v>1.07</v>
+        <v>1.68</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -3317,34 +3317,34 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I82">
-        <v>5.01</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J82">
-        <v>1.73</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -3352,13 +3352,13 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
@@ -3376,10 +3376,10 @@
         <v>15</v>
       </c>
       <c r="I83">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="J83">
-        <v>1.79</v>
+        <v>1.3</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -3387,16 +3387,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3408,13 +3408,13 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I84">
-        <v>4.13</v>
+        <v>5.01</v>
       </c>
       <c r="J84">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -3422,16 +3422,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3443,13 +3443,13 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I85">
-        <v>4.24</v>
+        <v>3.84</v>
       </c>
       <c r="J85">
-        <v>1.56</v>
+        <v>1.91</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -3457,16 +3457,16 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I86">
-        <v>3.77</v>
+        <v>3.59</v>
       </c>
       <c r="J86">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -3492,16 +3492,16 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3510,16 +3510,16 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I87">
-        <v>4.5999999999999996</v>
+        <v>5.01</v>
       </c>
       <c r="J87">
-        <v>2.0700000000000003</v>
+        <v>0.98</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -3527,13 +3527,13 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -3551,10 +3551,10 @@
         <v>15</v>
       </c>
       <c r="I88">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="J88">
-        <v>1.3</v>
+        <v>2.23</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -3562,16 +3562,16 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3583,13 +3583,13 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I89">
-        <v>5.01</v>
+        <v>3.93</v>
       </c>
       <c r="J89">
-        <v>2.12</v>
+        <v>2.37</v>
       </c>
       <c r="K89">
         <v>2</v>
@@ -3597,13 +3597,13 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
         <v>14</v>
@@ -3621,10 +3621,10 @@
         <v>15</v>
       </c>
       <c r="I90">
-        <v>3.84</v>
+        <v>5.01</v>
       </c>
       <c r="J90">
-        <v>1.91</v>
+        <v>1.03</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -3632,16 +3632,16 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3650,16 +3650,16 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I91">
-        <v>3.59</v>
+        <v>5.01</v>
       </c>
       <c r="J91">
-        <v>1.8</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="K91">
         <v>2</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
@@ -3694,7 +3694,7 @@
         <v>5.01</v>
       </c>
       <c r="J92">
-        <v>0.98</v>
+        <v>1.9</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -3702,13 +3702,13 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
@@ -3726,10 +3726,10 @@
         <v>15</v>
       </c>
       <c r="I93">
-        <v>4.2</v>
+        <v>3.73</v>
       </c>
       <c r="J93">
-        <v>2.23</v>
+        <v>1.05</v>
       </c>
       <c r="K93">
         <v>2</v>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3755,16 +3755,16 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I94">
-        <v>3.93</v>
+        <v>5.01</v>
       </c>
       <c r="J94">
-        <v>2.37</v>
+        <v>0.96</v>
       </c>
       <c r="K94">
         <v>2</v>
@@ -3772,13 +3772,13 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>15</v>
       </c>
       <c r="I95">
-        <v>5.01</v>
+        <v>3.63</v>
       </c>
       <c r="J95">
-        <v>1.03</v>
+        <v>2.1700000000000004</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -3807,16 +3807,16 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3828,13 +3828,13 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I96">
-        <v>5.01</v>
+        <v>3.83</v>
       </c>
       <c r="J96">
-        <v>2.0700000000000003</v>
+        <v>2.4400000000000004</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -3842,16 +3842,16 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -3860,16 +3860,16 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I97">
-        <v>5.01</v>
+        <v>3.83</v>
       </c>
       <c r="J97">
-        <v>1.9</v>
+        <v>1.26</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
@@ -3901,10 +3901,10 @@
         <v>15</v>
       </c>
       <c r="I98">
-        <v>3.73</v>
+        <v>4.42</v>
       </c>
       <c r="J98">
-        <v>1.05</v>
+        <v>2.0500000000000003</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
@@ -3936,10 +3936,10 @@
         <v>15</v>
       </c>
       <c r="I99">
-        <v>5.01</v>
+        <v>3.77</v>
       </c>
       <c r="J99">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="K99">
         <v>2</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3971,10 +3971,10 @@
         <v>15</v>
       </c>
       <c r="I100">
-        <v>3.63</v>
+        <v>4.21</v>
       </c>
       <c r="J100">
-        <v>2.1700000000000004</v>
+        <v>1.07</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -3982,13 +3982,13 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
@@ -3997,19 +3997,19 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>15</v>
       </c>
       <c r="I101">
-        <v>3.83</v>
+        <v>4.18</v>
       </c>
       <c r="J101">
-        <v>2.4400000000000004</v>
+        <v>2.14</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -4017,16 +4017,16 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4035,16 +4035,16 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I102">
-        <v>3.83</v>
+        <v>4.3100000000000005</v>
       </c>
       <c r="J102">
-        <v>1.26</v>
+        <v>1.5799999999999998</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
@@ -4067,19 +4067,19 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" t="s">
         <v>15</v>
       </c>
       <c r="I103">
-        <v>4.42</v>
+        <v>3.61</v>
       </c>
       <c r="J103">
-        <v>2.0500000000000003</v>
+        <v>1.67</v>
       </c>
       <c r="K103">
         <v>2</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
@@ -4111,10 +4111,10 @@
         <v>15</v>
       </c>
       <c r="I104">
-        <v>3.77</v>
+        <v>4.5299999999999994</v>
       </c>
       <c r="J104">
-        <v>0.97</v>
+        <v>2.0100000000000002</v>
       </c>
       <c r="K104">
         <v>2</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
@@ -4146,10 +4146,10 @@
         <v>15</v>
       </c>
       <c r="I105">
-        <v>4.21</v>
+        <v>4.2</v>
       </c>
       <c r="J105">
-        <v>1.07</v>
+        <v>2.23</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
@@ -4181,10 +4181,10 @@
         <v>15</v>
       </c>
       <c r="I106">
-        <v>4.18</v>
+        <v>3.54</v>
       </c>
       <c r="J106">
-        <v>2.14</v>
+        <v>1.42</v>
       </c>
       <c r="K106">
         <v>2</v>
@@ -4192,16 +4192,16 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4210,16 +4210,16 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I107">
-        <v>4.3100000000000005</v>
+        <v>4.08</v>
       </c>
       <c r="J107">
-        <v>1.5799999999999998</v>
+        <v>2.04</v>
       </c>
       <c r="K107">
         <v>2</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
@@ -4242,19 +4242,19 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" t="s">
         <v>15</v>
       </c>
       <c r="I108">
-        <v>3.61</v>
+        <v>4.0299999999999994</v>
       </c>
       <c r="J108">
-        <v>1.67</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="K108">
         <v>2</v>
@@ -4262,13 +4262,13 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" t="s">
         <v>14</v>
@@ -4280,198 +4280,23 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" t="s">
         <v>15</v>
       </c>
       <c r="I109">
-        <v>4.5299999999999994</v>
+        <v>3.82</v>
       </c>
       <c r="J109">
-        <v>2.0100000000000002</v>
+        <v>2.0900000000000003</v>
       </c>
       <c r="K109">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>211</v>
-      </c>
-      <c r="B110" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110" t="s">
-        <v>15</v>
-      </c>
-      <c r="I110">
-        <v>4.2</v>
-      </c>
-      <c r="J110">
-        <v>2.23</v>
-      </c>
-      <c r="K110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>212</v>
-      </c>
-      <c r="B111" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" t="s">
-        <v>14</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111" t="s">
-        <v>15</v>
-      </c>
-      <c r="I111">
-        <v>3.54</v>
-      </c>
-      <c r="J111">
-        <v>1.42</v>
-      </c>
-      <c r="K111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>213</v>
-      </c>
-      <c r="B112" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-      <c r="H112" t="s">
-        <v>11</v>
-      </c>
-      <c r="I112">
-        <v>4.08</v>
-      </c>
-      <c r="J112">
-        <v>2.04</v>
-      </c>
-      <c r="K112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A113">
-        <v>214</v>
-      </c>
-      <c r="B113" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113" t="s">
-        <v>15</v>
-      </c>
-      <c r="I113">
-        <v>4.0299999999999994</v>
-      </c>
-      <c r="J113">
-        <v>1.0899999999999999</v>
-      </c>
-      <c r="K113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A114">
-        <v>215</v>
-      </c>
-      <c r="B114" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-      <c r="H114" t="s">
-        <v>15</v>
-      </c>
-      <c r="I114">
-        <v>3.82</v>
-      </c>
-      <c r="J114">
-        <v>2.0900000000000003</v>
-      </c>
-      <c r="K114">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K114" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K109" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08235FF3-7A8D-42B3-9336-A2C5436C1D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5F75AA-03B8-4289-8CDB-335223601590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12290" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +541,7 @@
         <v>11</v>
       </c>
       <c r="I2">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="J2">
         <v>2.4200000000000004</v>
@@ -576,7 +576,7 @@
         <v>15</v>
       </c>
       <c r="I3">
-        <v>5.01</v>
+        <v>2.9399999999999995</v>
       </c>
       <c r="J3">
         <v>2.16</v>
@@ -611,7 +611,7 @@
         <v>11</v>
       </c>
       <c r="I4">
-        <v>4.2200000000000006</v>
+        <v>2.2200000000000006</v>
       </c>
       <c r="J4">
         <v>1.06</v>
@@ -646,7 +646,7 @@
         <v>15</v>
       </c>
       <c r="I5">
-        <v>3.67</v>
+        <v>1.67</v>
       </c>
       <c r="J5">
         <v>1.29</v>
@@ -681,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="I6">
-        <v>4.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J6">
         <v>2.16</v>
@@ -716,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>5.01</v>
+        <v>2.79</v>
       </c>
       <c r="J7">
         <v>2.31</v>
@@ -751,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="I8">
-        <v>4.2300000000000004</v>
+        <v>2.2300000000000004</v>
       </c>
       <c r="J8">
         <v>2.3000000000000003</v>
@@ -786,7 +786,7 @@
         <v>15</v>
       </c>
       <c r="I9">
-        <v>4.76</v>
+        <v>2.76</v>
       </c>
       <c r="J9">
         <v>1.17</v>
@@ -821,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="I10">
-        <v>3.58</v>
+        <v>1.58</v>
       </c>
       <c r="J10">
         <v>1.46</v>
@@ -856,7 +856,7 @@
         <v>11</v>
       </c>
       <c r="I11">
-        <v>5.01</v>
+        <v>2.9700000000000006</v>
       </c>
       <c r="J11">
         <v>0.97</v>
@@ -891,7 +891,7 @@
         <v>15</v>
       </c>
       <c r="I12">
-        <v>4.3100000000000005</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J12">
         <v>1.99</v>
@@ -926,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="I13">
-        <v>5.01</v>
+        <v>2.9800000000000004</v>
       </c>
       <c r="J13">
         <v>1.19</v>
@@ -961,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="I14">
-        <v>5.01</v>
+        <v>2.95</v>
       </c>
       <c r="J14">
         <v>1.1299999999999999</v>
@@ -996,7 +996,7 @@
         <v>11</v>
       </c>
       <c r="I15">
-        <v>4.76</v>
+        <v>2.76</v>
       </c>
       <c r="J15">
         <v>1.95</v>
@@ -1031,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="I16">
-        <v>4.57</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="J16">
         <v>2.23</v>
@@ -1066,7 +1066,7 @@
         <v>11</v>
       </c>
       <c r="I17">
-        <v>3.66</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="J17">
         <v>1.73</v>
@@ -1101,7 +1101,7 @@
         <v>15</v>
       </c>
       <c r="I18">
-        <v>5.01</v>
+        <v>2.99</v>
       </c>
       <c r="J18">
         <v>1.78</v>
@@ -1136,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="I19">
-        <v>5.01</v>
+        <v>2.95</v>
       </c>
       <c r="J19">
         <v>1.91</v>
@@ -1171,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="I20">
-        <v>4.79</v>
+        <v>2.79</v>
       </c>
       <c r="J20">
         <v>2.31</v>
@@ -1206,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="I21">
-        <v>5.01</v>
+        <v>2.96</v>
       </c>
       <c r="J21">
         <v>1.92</v>
@@ -1241,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="I22">
-        <v>4.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J22">
         <v>1.9</v>
@@ -1276,7 +1276,7 @@
         <v>15</v>
       </c>
       <c r="I23">
-        <v>4.3100000000000005</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J23">
         <v>2.37</v>
@@ -1311,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="I24">
-        <v>4.08</v>
+        <v>2.08</v>
       </c>
       <c r="J24">
         <v>2.25</v>
@@ -1346,7 +1346,7 @@
         <v>15</v>
       </c>
       <c r="I25">
-        <v>5.01</v>
+        <v>2.6500000000000004</v>
       </c>
       <c r="J25">
         <v>1.48</v>
@@ -1381,7 +1381,7 @@
         <v>15</v>
       </c>
       <c r="I26">
-        <v>3.52</v>
+        <v>1.52</v>
       </c>
       <c r="J26">
         <v>1.3499999999999999</v>
@@ -1416,7 +1416,7 @@
         <v>11</v>
       </c>
       <c r="I27">
-        <v>4.42</v>
+        <v>2.42</v>
       </c>
       <c r="J27">
         <v>1.24</v>
@@ -1451,7 +1451,7 @@
         <v>15</v>
       </c>
       <c r="I28">
-        <v>4.1099999999999994</v>
+        <v>2.1099999999999994</v>
       </c>
       <c r="J28">
         <v>2.14</v>
@@ -1486,7 +1486,7 @@
         <v>15</v>
       </c>
       <c r="I29">
-        <v>3.64</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="J29">
         <v>1.69</v>
@@ -1521,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="I30">
-        <v>4.3599999999999994</v>
+        <v>2.3599999999999994</v>
       </c>
       <c r="J30">
         <v>1.02</v>
@@ -1556,7 +1556,7 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>5.01</v>
+        <v>2.8</v>
       </c>
       <c r="J31">
         <v>1.28</v>
@@ -1591,7 +1591,7 @@
         <v>11</v>
       </c>
       <c r="I32">
-        <v>4.3599999999999994</v>
+        <v>2.3599999999999994</v>
       </c>
       <c r="J32">
         <v>1.92</v>
@@ -1626,7 +1626,7 @@
         <v>15</v>
       </c>
       <c r="I33">
-        <v>4.4000000000000004</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="J33">
         <v>1.82</v>
@@ -1661,7 +1661,7 @@
         <v>15</v>
       </c>
       <c r="I34">
-        <v>3.98</v>
+        <v>1.98</v>
       </c>
       <c r="J34">
         <v>1.31</v>
@@ -1696,7 +1696,7 @@
         <v>15</v>
       </c>
       <c r="I35">
-        <v>3.57</v>
+        <v>1.5699999999999998</v>
       </c>
       <c r="J35">
         <v>1.3399999999999999</v>
@@ -1731,7 +1731,7 @@
         <v>11</v>
       </c>
       <c r="I36">
-        <v>5.01</v>
+        <v>2.99</v>
       </c>
       <c r="J36">
         <v>1.95</v>
@@ -1766,7 +1766,7 @@
         <v>15</v>
       </c>
       <c r="I37">
-        <v>4.07</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="J37">
         <v>1.69</v>
@@ -1801,7 +1801,7 @@
         <v>11</v>
       </c>
       <c r="I38">
-        <v>4.7200000000000006</v>
+        <v>2.7200000000000006</v>
       </c>
       <c r="J38">
         <v>2.29</v>
@@ -1836,7 +1836,7 @@
         <v>11</v>
       </c>
       <c r="I39">
-        <v>4.6899999999999995</v>
+        <v>2.6899999999999995</v>
       </c>
       <c r="J39">
         <v>1.97</v>
@@ -1871,7 +1871,7 @@
         <v>15</v>
       </c>
       <c r="I40">
-        <v>4.3900000000000006</v>
+        <v>2.3900000000000006</v>
       </c>
       <c r="J40">
         <v>2.16</v>
@@ -1906,7 +1906,7 @@
         <v>11</v>
       </c>
       <c r="I41">
-        <v>4.3100000000000005</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J41">
         <v>2.2600000000000002</v>
@@ -1941,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>5.01</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="J42">
         <v>0.97</v>
@@ -1976,7 +1976,7 @@
         <v>15</v>
       </c>
       <c r="I43">
-        <v>3.77</v>
+        <v>1.77</v>
       </c>
       <c r="J43">
         <v>2.2200000000000002</v>
@@ -2011,7 +2011,7 @@
         <v>15</v>
       </c>
       <c r="I44">
-        <v>4.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J44">
         <v>2.4000000000000004</v>
@@ -2046,7 +2046,7 @@
         <v>15</v>
       </c>
       <c r="I45">
-        <v>3.68</v>
+        <v>1.6800000000000002</v>
       </c>
       <c r="J45">
         <v>1.8699999999999999</v>
@@ -2081,7 +2081,7 @@
         <v>15</v>
       </c>
       <c r="I46">
-        <v>3.58</v>
+        <v>1.58</v>
       </c>
       <c r="J46">
         <v>1.8599999999999999</v>
@@ -2116,7 +2116,7 @@
         <v>15</v>
       </c>
       <c r="I47">
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
       <c r="J47">
         <v>2.1500000000000004</v>
@@ -2151,7 +2151,7 @@
         <v>15</v>
       </c>
       <c r="I48">
-        <v>4.58</v>
+        <v>2.58</v>
       </c>
       <c r="J48">
         <v>1.7</v>
@@ -2186,7 +2186,7 @@
         <v>15</v>
       </c>
       <c r="I49">
-        <v>3.64</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="J49">
         <v>2.33</v>
@@ -2221,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="I50">
-        <v>4.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="J50">
         <v>2.3400000000000003</v>
@@ -2256,7 +2256,7 @@
         <v>11</v>
       </c>
       <c r="I51">
-        <v>4.4000000000000004</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="J51">
         <v>2.3600000000000003</v>
@@ -2291,7 +2291,7 @@
         <v>15</v>
       </c>
       <c r="I52">
-        <v>4.63</v>
+        <v>2.63</v>
       </c>
       <c r="J52">
         <v>1.8399999999999999</v>
@@ -2326,7 +2326,7 @@
         <v>11</v>
       </c>
       <c r="I53">
-        <v>3.86</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="J53">
         <v>2.3400000000000003</v>
@@ -2361,7 +2361,7 @@
         <v>15</v>
       </c>
       <c r="I54">
-        <v>4.2300000000000004</v>
+        <v>2.2300000000000004</v>
       </c>
       <c r="J54">
         <v>1.66</v>
@@ -2396,7 +2396,7 @@
         <v>11</v>
       </c>
       <c r="I55">
-        <v>3.81</v>
+        <v>1.81</v>
       </c>
       <c r="J55">
         <v>1.66</v>
@@ -2431,7 +2431,7 @@
         <v>15</v>
       </c>
       <c r="I56">
-        <v>3.86</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="J56">
         <v>2.14</v>
@@ -2466,7 +2466,7 @@
         <v>11</v>
       </c>
       <c r="I57">
-        <v>5.01</v>
+        <v>2.92</v>
       </c>
       <c r="J57">
         <v>0.96</v>
@@ -2501,7 +2501,7 @@
         <v>11</v>
       </c>
       <c r="I58">
-        <v>5.01</v>
+        <v>2.83</v>
       </c>
       <c r="J58">
         <v>1.3599999999999999</v>
@@ -2536,7 +2536,7 @@
         <v>15</v>
       </c>
       <c r="I59">
-        <v>4.6099999999999994</v>
+        <v>2.6099999999999994</v>
       </c>
       <c r="J59">
         <v>1.71</v>
@@ -2571,7 +2571,7 @@
         <v>15</v>
       </c>
       <c r="I60">
-        <v>4.18</v>
+        <v>2.1799999999999997</v>
       </c>
       <c r="J60">
         <v>2.06</v>
@@ -2606,7 +2606,7 @@
         <v>11</v>
       </c>
       <c r="I61">
-        <v>4.34</v>
+        <v>2.34</v>
       </c>
       <c r="J61">
         <v>2.4300000000000002</v>
@@ -2641,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="I62">
-        <v>5.01</v>
+        <v>2.92</v>
       </c>
       <c r="J62">
         <v>2.27</v>
@@ -2676,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="I63">
-        <v>3.94</v>
+        <v>1.94</v>
       </c>
       <c r="J63">
         <v>1.45</v>
@@ -2711,7 +2711,7 @@
         <v>11</v>
       </c>
       <c r="I64">
-        <v>3.97</v>
+        <v>1.9700000000000002</v>
       </c>
       <c r="J64">
         <v>1.24</v>
@@ -2746,7 +2746,7 @@
         <v>11</v>
       </c>
       <c r="I65">
-        <v>5.01</v>
+        <v>2.9700000000000006</v>
       </c>
       <c r="J65">
         <v>1.51</v>
@@ -2781,7 +2781,7 @@
         <v>11</v>
       </c>
       <c r="I66">
-        <v>3.86</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="J66">
         <v>1.1299999999999999</v>
@@ -2816,7 +2816,7 @@
         <v>15</v>
       </c>
       <c r="I67">
-        <v>4.32</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="J67">
         <v>1.46</v>
@@ -2851,7 +2851,7 @@
         <v>11</v>
       </c>
       <c r="I68">
-        <v>5.01</v>
+        <v>2.74</v>
       </c>
       <c r="J68">
         <v>2.1300000000000003</v>
@@ -2886,7 +2886,7 @@
         <v>11</v>
       </c>
       <c r="I69">
-        <v>3.57</v>
+        <v>1.5699999999999998</v>
       </c>
       <c r="J69">
         <v>1.7</v>
@@ -2921,7 +2921,7 @@
         <v>11</v>
       </c>
       <c r="I70">
-        <v>4.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J70">
         <v>1.51</v>
@@ -2956,7 +2956,7 @@
         <v>11</v>
       </c>
       <c r="I71">
-        <v>4.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J71">
         <v>0.99</v>
@@ -2991,7 +2991,7 @@
         <v>11</v>
       </c>
       <c r="I72">
-        <v>5.01</v>
+        <v>2.9800000000000004</v>
       </c>
       <c r="J72">
         <v>1.27</v>
@@ -3026,7 +3026,7 @@
         <v>11</v>
       </c>
       <c r="I73">
-        <v>3.95</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="J73">
         <v>1.91</v>
@@ -3061,7 +3061,7 @@
         <v>11</v>
       </c>
       <c r="I74">
-        <v>5.01</v>
+        <v>2.79</v>
       </c>
       <c r="J74">
         <v>2.25</v>
@@ -3096,7 +3096,7 @@
         <v>15</v>
       </c>
       <c r="I75">
-        <v>4.13</v>
+        <v>2.13</v>
       </c>
       <c r="J75">
         <v>1.05</v>
@@ -3131,7 +3131,7 @@
         <v>11</v>
       </c>
       <c r="I76">
-        <v>4.12</v>
+        <v>2.12</v>
       </c>
       <c r="J76">
         <v>1.07</v>
@@ -3166,7 +3166,7 @@
         <v>15</v>
       </c>
       <c r="I77">
-        <v>5.01</v>
+        <v>2.7</v>
       </c>
       <c r="J77">
         <v>1.73</v>
@@ -3201,7 +3201,7 @@
         <v>15</v>
       </c>
       <c r="I78">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="J78">
         <v>1.79</v>
@@ -3236,7 +3236,7 @@
         <v>11</v>
       </c>
       <c r="I79">
-        <v>4.13</v>
+        <v>2.13</v>
       </c>
       <c r="J79">
         <v>1.95</v>
@@ -3271,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="I80">
-        <v>4.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="J80">
         <v>1.56</v>
@@ -3306,7 +3306,7 @@
         <v>11</v>
       </c>
       <c r="I81">
-        <v>3.77</v>
+        <v>1.77</v>
       </c>
       <c r="J81">
         <v>1.68</v>
@@ -3341,7 +3341,7 @@
         <v>11</v>
       </c>
       <c r="I82">
-        <v>4.5999999999999996</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="J82">
         <v>2.0700000000000003</v>
@@ -3376,7 +3376,7 @@
         <v>15</v>
       </c>
       <c r="I83">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="J83">
         <v>1.3</v>
@@ -3411,7 +3411,7 @@
         <v>15</v>
       </c>
       <c r="I84">
-        <v>5.01</v>
+        <v>2.8</v>
       </c>
       <c r="J84">
         <v>2.12</v>
@@ -3446,7 +3446,7 @@
         <v>15</v>
       </c>
       <c r="I85">
-        <v>3.84</v>
+        <v>1.8399999999999999</v>
       </c>
       <c r="J85">
         <v>1.91</v>
@@ -3481,7 +3481,7 @@
         <v>15</v>
       </c>
       <c r="I86">
-        <v>3.59</v>
+        <v>1.5899999999999999</v>
       </c>
       <c r="J86">
         <v>1.8</v>
@@ -3516,7 +3516,7 @@
         <v>15</v>
       </c>
       <c r="I87">
-        <v>5.01</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="J87">
         <v>0.98</v>
@@ -3551,7 +3551,7 @@
         <v>15</v>
       </c>
       <c r="I88">
-        <v>4.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J88">
         <v>2.23</v>
@@ -3586,7 +3586,7 @@
         <v>11</v>
       </c>
       <c r="I89">
-        <v>3.93</v>
+        <v>1.9300000000000002</v>
       </c>
       <c r="J89">
         <v>2.37</v>
@@ -3621,7 +3621,7 @@
         <v>15</v>
       </c>
       <c r="I90">
-        <v>5.01</v>
+        <v>2.99</v>
       </c>
       <c r="J90">
         <v>1.03</v>
@@ -3656,7 +3656,7 @@
         <v>11</v>
       </c>
       <c r="I91">
-        <v>5.01</v>
+        <v>2.8200000000000003</v>
       </c>
       <c r="J91">
         <v>2.0700000000000003</v>
@@ -3691,7 +3691,7 @@
         <v>15</v>
       </c>
       <c r="I92">
-        <v>5.01</v>
+        <v>2.88</v>
       </c>
       <c r="J92">
         <v>1.9</v>
@@ -3726,7 +3726,7 @@
         <v>15</v>
       </c>
       <c r="I93">
-        <v>3.73</v>
+        <v>1.73</v>
       </c>
       <c r="J93">
         <v>1.05</v>
@@ -3761,7 +3761,7 @@
         <v>15</v>
       </c>
       <c r="I94">
-        <v>5.01</v>
+        <v>2.92</v>
       </c>
       <c r="J94">
         <v>0.96</v>
@@ -3796,7 +3796,7 @@
         <v>15</v>
       </c>
       <c r="I95">
-        <v>3.63</v>
+        <v>1.63</v>
       </c>
       <c r="J95">
         <v>2.1700000000000004</v>
@@ -3831,7 +3831,7 @@
         <v>15</v>
       </c>
       <c r="I96">
-        <v>3.83</v>
+        <v>1.83</v>
       </c>
       <c r="J96">
         <v>2.4400000000000004</v>
@@ -3866,7 +3866,7 @@
         <v>11</v>
       </c>
       <c r="I97">
-        <v>3.83</v>
+        <v>1.83</v>
       </c>
       <c r="J97">
         <v>1.26</v>
@@ -3901,7 +3901,7 @@
         <v>15</v>
       </c>
       <c r="I98">
-        <v>4.42</v>
+        <v>2.42</v>
       </c>
       <c r="J98">
         <v>2.0500000000000003</v>
@@ -3936,7 +3936,7 @@
         <v>15</v>
       </c>
       <c r="I99">
-        <v>3.77</v>
+        <v>1.77</v>
       </c>
       <c r="J99">
         <v>0.97</v>
@@ -3971,7 +3971,7 @@
         <v>15</v>
       </c>
       <c r="I100">
-        <v>4.21</v>
+        <v>2.21</v>
       </c>
       <c r="J100">
         <v>1.07</v>
@@ -4006,7 +4006,7 @@
         <v>15</v>
       </c>
       <c r="I101">
-        <v>4.18</v>
+        <v>2.1799999999999997</v>
       </c>
       <c r="J101">
         <v>2.14</v>
@@ -4041,7 +4041,7 @@
         <v>15</v>
       </c>
       <c r="I102">
-        <v>4.3100000000000005</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="J102">
         <v>1.5799999999999998</v>
@@ -4076,7 +4076,7 @@
         <v>15</v>
       </c>
       <c r="I103">
-        <v>3.61</v>
+        <v>1.6099999999999999</v>
       </c>
       <c r="J103">
         <v>1.67</v>
@@ -4111,7 +4111,7 @@
         <v>15</v>
       </c>
       <c r="I104">
-        <v>4.5299999999999994</v>
+        <v>2.5299999999999994</v>
       </c>
       <c r="J104">
         <v>2.0100000000000002</v>
@@ -4146,7 +4146,7 @@
         <v>15</v>
       </c>
       <c r="I105">
-        <v>4.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J105">
         <v>2.23</v>
@@ -4181,7 +4181,7 @@
         <v>15</v>
       </c>
       <c r="I106">
-        <v>3.54</v>
+        <v>1.54</v>
       </c>
       <c r="J106">
         <v>1.42</v>
@@ -4216,7 +4216,7 @@
         <v>11</v>
       </c>
       <c r="I107">
-        <v>4.08</v>
+        <v>2.08</v>
       </c>
       <c r="J107">
         <v>2.04</v>
@@ -4251,7 +4251,7 @@
         <v>15</v>
       </c>
       <c r="I108">
-        <v>4.0299999999999994</v>
+        <v>2.0299999999999994</v>
       </c>
       <c r="J108">
         <v>1.0899999999999999</v>
@@ -4286,7 +4286,7 @@
         <v>15</v>
       </c>
       <c r="I109">
-        <v>3.82</v>
+        <v>1.8199999999999998</v>
       </c>
       <c r="J109">
         <v>2.0900000000000003</v>

--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08235FF3-7A8D-42B3-9336-A2C5436C1D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403C2D1A-E58F-4C35-B117-1D5D53422789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12290" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
+++ b/Conditions/Version_2/PAL_Deterministic Schedule_V2_H2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Conditions\Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5F75AA-03B8-4289-8CDB-335223601590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541153D1-DF5F-4A9F-8409-270FA59A088E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12290" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,7 +475,7 @@
   <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,7 +576,7 @@
         <v>15</v>
       </c>
       <c r="I3">
-        <v>2.9399999999999995</v>
+        <v>3.01</v>
       </c>
       <c r="J3">
         <v>2.16</v>
@@ -716,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>2.79</v>
+        <v>3.01</v>
       </c>
       <c r="J7">
         <v>2.31</v>
@@ -856,7 +856,7 @@
         <v>11</v>
       </c>
       <c r="I11">
-        <v>2.9700000000000006</v>
+        <v>3.01</v>
       </c>
       <c r="J11">
         <v>0.97</v>
@@ -926,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="I13">
-        <v>2.9800000000000004</v>
+        <v>3.01</v>
       </c>
       <c r="J13">
         <v>1.19</v>
@@ -961,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="I14">
-        <v>2.95</v>
+        <v>3.01</v>
       </c>
       <c r="J14">
         <v>1.1299999999999999</v>
@@ -1101,7 +1101,7 @@
         <v>15</v>
       </c>
       <c r="I18">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="J18">
         <v>1.78</v>
@@ -1136,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="I19">
-        <v>2.95</v>
+        <v>3.01</v>
       </c>
       <c r="J19">
         <v>1.91</v>
@@ -1206,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="I21">
-        <v>2.96</v>
+        <v>3.01</v>
       </c>
       <c r="J21">
         <v>1.92</v>
@@ -1346,7 +1346,7 @@
         <v>15</v>
       </c>
       <c r="I25">
-        <v>2.6500000000000004</v>
+        <v>3.01</v>
       </c>
       <c r="J25">
         <v>1.48</v>
@@ -1556,7 +1556,7 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>2.8</v>
+        <v>3.01</v>
       </c>
       <c r="J31">
         <v>1.28</v>
@@ -1731,7 +1731,7 @@
         <v>11</v>
       </c>
       <c r="I36">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="J36">
         <v>1.95</v>
@@ -1941,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>2.9000000000000004</v>
+        <v>3.01</v>
       </c>
       <c r="J42">
         <v>0.97</v>
@@ -2466,7 +2466,7 @@
         <v>11</v>
       </c>
       <c r="I57">
-        <v>2.92</v>
+        <v>3.01</v>
       </c>
       <c r="J57">
         <v>0.96</v>
@@ -2501,7 +2501,7 @@
         <v>11</v>
       </c>
       <c r="I58">
-        <v>2.83</v>
+        <v>3.01</v>
       </c>
       <c r="J58">
         <v>1.3599999999999999</v>
@@ -2641,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="I62">
-        <v>2.92</v>
+        <v>3.01</v>
       </c>
       <c r="J62">
         <v>2.27</v>
@@ -2746,7 +2746,7 @@
         <v>11</v>
       </c>
       <c r="I65">
-        <v>2.9700000000000006</v>
+        <v>3.01</v>
       </c>
       <c r="J65">
         <v>1.51</v>
@@ -2851,7 +2851,7 @@
         <v>11</v>
       </c>
       <c r="I68">
-        <v>2.74</v>
+        <v>3.01</v>
       </c>
       <c r="J68">
         <v>2.1300000000000003</v>
@@ -2991,7 +2991,7 @@
         <v>11</v>
       </c>
       <c r="I72">
-        <v>2.9800000000000004</v>
+        <v>3.01</v>
       </c>
       <c r="J72">
         <v>1.27</v>
@@ -3061,7 +3061,7 @@
         <v>11</v>
       </c>
       <c r="I74">
-        <v>2.79</v>
+        <v>3.01</v>
       </c>
       <c r="J74">
         <v>2.25</v>
@@ -3166,7 +3166,7 @@
         <v>15</v>
       </c>
       <c r="I77">
-        <v>2.7</v>
+        <v>3.01</v>
       </c>
       <c r="J77">
         <v>1.73</v>
@@ -3411,7 +3411,7 @@
         <v>15</v>
       </c>
       <c r="I84">
-        <v>2.8</v>
+        <v>3.01</v>
       </c>
       <c r="J84">
         <v>2.12</v>
@@ -3516,7 +3516,7 @@
         <v>15</v>
       </c>
       <c r="I87">
-        <v>2.9000000000000004</v>
+        <v>3.01</v>
       </c>
       <c r="J87">
         <v>0.98</v>
@@ -3621,7 +3621,7 @@
         <v>15</v>
       </c>
       <c r="I90">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="J90">
         <v>1.03</v>
@@ -3656,7 +3656,7 @@
         <v>11</v>
       </c>
       <c r="I91">
-        <v>2.8200000000000003</v>
+        <v>3.01</v>
       </c>
       <c r="J91">
         <v>2.0700000000000003</v>
@@ -3691,7 +3691,7 @@
         <v>15</v>
       </c>
       <c r="I92">
-        <v>2.88</v>
+        <v>3.01</v>
       </c>
       <c r="J92">
         <v>1.9</v>
@@ -3761,7 +3761,7 @@
         <v>15</v>
       </c>
       <c r="I94">
-        <v>2.92</v>
+        <v>3.01</v>
       </c>
       <c r="J94">
         <v>0.96</v>
